--- a/kinematics_spherical.xlsx
+++ b/kinematics_spherical.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Documents/GitHub/DOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F801E98A-F858-4B19-9C87-314DEF11D925}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90A8D17B-1F49-40EE-B6C5-ECBA557DB511}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
+    <workbookView xWindow="1092" yWindow="1068" windowWidth="13656" windowHeight="11856" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3187,10 +3187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
-  <dimension ref="A1:T236"/>
+  <dimension ref="A1:T326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3210,7 +3210,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="5">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -3244,7 +3244,7 @@
       </c>
       <c r="B5" s="6">
         <f>B2+B3+B3</f>
-        <v>255.76</v>
+        <v>290.76</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E29" s="8">
         <f>(B2+B3+B3)*-1*COS(PI()/4)</f>
-        <v>-180.8496303562714</v>
+        <v>-205.59836769780057</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="E30" s="8">
         <f>E29*-1</f>
-        <v>180.8496303562714</v>
+        <v>205.59836769780057</v>
       </c>
       <c r="F30" t="s">
         <v>9</v>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="E31" s="8">
         <f>E30*2</f>
-        <v>361.69926071254281</v>
+        <v>411.19673539560114</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="E33" s="8">
         <f>($B$2+$B$3+$B$3)*SIN(PI()/4)</f>
-        <v>180.84963035627138</v>
+        <v>205.59836769780054</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -3452,7 +3452,7 @@
       <c r="D34" s="6"/>
       <c r="E34" s="8">
         <f>$E$33-$E$32</f>
-        <v>120.84963035627138</v>
+        <v>145.59836769780054</v>
       </c>
       <c r="F34" t="s">
         <v>9</v>
@@ -3649,8 +3649,7 @@
         <v>46</v>
       </c>
       <c r="C55" s="6">
-        <f>0</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
@@ -3766,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="C73" s="7">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
@@ -3777,7 +3776,7 @@
         <v>1</v>
       </c>
       <c r="C74" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
@@ -3788,7 +3787,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
@@ -4077,7 +4076,7 @@
       </c>
       <c r="D123" s="23">
         <f>C73+C53</f>
-        <v>-59.380000000000024</v>
+        <v>0.61999999999997613</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -4086,7 +4085,7 @@
       </c>
       <c r="D124" s="8">
         <f>C74+C54</f>
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -4095,7 +4094,7 @@
       </c>
       <c r="D125">
         <f>C75+C55</f>
-        <v>100</v>
+        <v>65</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -4117,7 +4116,7 @@
       </c>
       <c r="D130">
         <f>SQRT(D123^2+D124^2+D125^2)</f>
-        <v>197.80289279987792</v>
+        <v>163.4790029330984</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
@@ -4129,14 +4128,14 @@
       </c>
       <c r="D131">
         <f>ACOS(D125/D130)</f>
-        <v>1.0407726387888578</v>
+        <v>1.1618916142410516</v>
       </c>
       <c r="E131" t="s">
         <v>90</v>
       </c>
       <c r="F131">
         <f>D131*180/PI()</f>
-        <v>59.631879635295263</v>
+        <v>66.571485747654592</v>
       </c>
       <c r="G131" t="s">
         <v>99</v>
@@ -4151,14 +4150,14 @@
       </c>
       <c r="D132">
         <f>ATAN(D124/D123)</f>
-        <v>-1.2154272372159427</v>
+        <v>1.5666630169998901</v>
       </c>
       <c r="E132" t="s">
         <v>90</v>
       </c>
       <c r="F132">
         <f>D132*180/PI()</f>
-        <v>-69.638850997719459</v>
+        <v>89.763178793326048</v>
       </c>
       <c r="G132" t="s">
         <v>99</v>
@@ -4176,7 +4175,7 @@
       </c>
       <c r="C134" s="2">
         <f>D130*SIN(D131)*COS(D132)</f>
-        <v>59.380000000000024</v>
+        <v>0.61999999999997368</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
@@ -4185,7 +4184,7 @@
       </c>
       <c r="C135">
         <f>D130*SIN(D131)*SIN(D132)</f>
-        <v>-159.99999999999997</v>
+        <v>150</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
@@ -4194,7 +4193,7 @@
       </c>
       <c r="C136" s="1">
         <f>D130*COS(D131)</f>
-        <v>100.00000000000001</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
@@ -4202,13 +4201,19 @@
         <v>119</v>
       </c>
     </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <f>(B3*SIN(C146))-(B3*COS(F146))+B4</f>
+        <v>65.124339006530377</v>
+      </c>
+    </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
         <v>110</v>
       </c>
       <c r="C142">
         <f>SQRT(D130^2-D125^2)</f>
-        <v>170.66336572328581</v>
+        <v>150.00128132786065</v>
       </c>
       <c r="D142" t="s">
         <v>9</v>
@@ -4244,31 +4249,31 @@
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B146">
-        <v>21</v>
+        <v>48.5</v>
       </c>
       <c r="C146">
         <f>B146*PI()/180</f>
-        <v>0.36651914291880922</v>
+        <v>0.84648468721724979</v>
       </c>
       <c r="E146">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C146))-$B$2)/$B$3))</f>
-        <v>18.213059914488209</v>
+        <v>5.1868120077288378</v>
       </c>
       <c r="F146">
         <f>E146*PI()/180</f>
-        <v>0.31787786237081611</v>
+        <v>9.0526947216845802E-2</v>
       </c>
       <c r="H146">
-        <f>$B$4+$B$3*SIN(B146)-$B$3*COS(E146)</f>
-        <v>96.66546649243341</v>
+        <f>$B$4+$B$3*SIN(C146)-$B$3*COS(F146)</f>
+        <v>65.124339006530363</v>
       </c>
       <c r="I146">
         <f>ABS($C$136-H146)</f>
-        <v>3.3345335075666043</v>
+        <v>0.12433900653036289</v>
       </c>
       <c r="J146">
         <f>(90-B146)+E146</f>
-        <v>87.213059914488213</v>
+        <v>46.68681200772884</v>
       </c>
       <c r="L146" t="s">
         <v>114</v>
@@ -4276,2617 +4281,5227 @@
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B147">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C147">
         <f>B147*PI()/180</f>
-        <v>0</v>
+        <v>0.83775804095727813</v>
       </c>
       <c r="E147">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C147))-$B$2)/$B$3))</f>
-        <v>14.248733712426848</v>
+        <v>4.812359169930355</v>
       </c>
       <c r="F147">
         <f>E147*PI()/180</f>
-        <v>0.24868731752176337</v>
+        <v>8.3991512303825983E-2</v>
       </c>
       <c r="H147">
-        <f>$B$4+$B$3*SIN(B147)-$B$3*COS(E147)</f>
-        <v>105.56754755112507</v>
+        <f>$B$4+$B$3*SIN(C147)-$B$3*COS(F147)</f>
+        <v>64.404114048466937</v>
       </c>
       <c r="I147">
         <f>ABS($C$136-H147)</f>
-        <v>5.5675475511250596</v>
+        <v>0.59588595153306301</v>
       </c>
       <c r="J147">
         <f>(90-B147)+E147</f>
-        <v>104.24873371242685</v>
+        <v>46.812359169930353</v>
       </c>
     </row>
     <row r="148" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B148">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C148">
         <f>B148*PI()/180</f>
-        <v>0.83775804095727813</v>
+        <v>0.85521133347722145</v>
       </c>
       <c r="E148">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C148))-$B$2)/$B$3))</f>
-        <v>35.239902863850169</v>
+        <v>5.5643920153636213</v>
       </c>
       <c r="F148">
         <f>E148*PI()/180</f>
-        <v>0.61505233305716445</v>
+        <v>9.7116961539778085E-2</v>
       </c>
       <c r="H148">
-        <f>$B$4+$B$3*SIN(B148)-$B$3*COS(E148)</f>
-        <v>93.882384313485716</v>
+        <f>$B$4+$B$3*SIN(C148)-$B$3*COS(F148)</f>
+        <v>65.84352453853549</v>
       </c>
       <c r="I148">
         <f>ABS($C$136-H148)</f>
-        <v>6.1176156865142985</v>
+        <v>0.84352453853549036</v>
       </c>
       <c r="J148">
         <f>(90-B148)+E148</f>
-        <v>77.239902863850176</v>
+        <v>46.564392015363623</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B149">
-        <v>60</v>
+        <v>47.5</v>
       </c>
       <c r="C149">
         <f>B149*PI()/180</f>
-        <v>1.0471975511965976</v>
+        <v>0.82903139469730658</v>
       </c>
       <c r="E149">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C149))-$B$2)/$B$3))</f>
-        <v>48.256410499012667</v>
+        <v>4.441040653414758</v>
       </c>
       <c r="F149">
         <f>E149*PI()/180</f>
-        <v>0.84223324840173086</v>
+        <v>7.7510781617007876E-2</v>
       </c>
       <c r="H149">
-        <f>$B$4+$B$3*SIN(B149)-$B$3*COS(E149)</f>
-        <v>106.49684558509853</v>
+        <f>$B$4+$B$3*SIN(C149)-$B$3*COS(F149)</f>
+        <v>63.682783122052726</v>
       </c>
       <c r="I149">
         <f>ABS($C$136-H149)</f>
-        <v>6.4968455850985123</v>
+        <v>1.3172168779472742</v>
       </c>
       <c r="J149">
         <f>(90-B149)+E149</f>
-        <v>78.256410499012674</v>
+        <v>46.94104065341476</v>
       </c>
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B150">
-        <v>6</v>
+        <v>49.5</v>
       </c>
       <c r="C150">
         <f>B150*PI()/180</f>
-        <v>0.10471975511965977</v>
+        <v>0.86393797973719322</v>
       </c>
       <c r="E150">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C150))-$B$2)/$B$3))</f>
-        <v>14.572802783988747</v>
+        <v>5.9450926489754945</v>
       </c>
       <c r="F150">
         <f>E150*PI()/180</f>
-        <v>0.25434338982439963</v>
+        <v>0.10376144106073387</v>
       </c>
       <c r="H150">
-        <f>$B$4+$B$3*SIN(B150)-$B$3*COS(E150)</f>
-        <v>109.09346468450394</v>
+        <f>$B$4+$B$3*SIN(C150)-$B$3*COS(F150)</f>
+        <v>66.561738084805086</v>
       </c>
       <c r="I150">
         <f>ABS($C$136-H150)</f>
-        <v>9.0934646845039282</v>
+        <v>1.5617380848050857</v>
       </c>
       <c r="J150">
         <f>(90-B150)+E150</f>
-        <v>98.572802783988749</v>
+        <v>46.445092648975496</v>
       </c>
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B151">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C151">
         <f>B151*PI()/180</f>
-        <v>0.52359877559829882</v>
+        <v>0.82030474843733492</v>
       </c>
       <c r="E151">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C151))-$B$2)/$B$3))</f>
-        <v>22.340277705186246</v>
+        <v>4.0728642013997174</v>
       </c>
       <c r="F151">
         <f>E151*PI()/180</f>
-        <v>0.38991140176538303</v>
+        <v>7.1084890301034515E-2</v>
       </c>
       <c r="H151">
-        <f>$B$4+$B$3*SIN(B151)-$B$3*COS(E151)</f>
-        <v>87.541050041757074</v>
+        <f>$B$4+$B$3*SIN(C151)-$B$3*COS(F151)</f>
+        <v>62.960280565103844</v>
       </c>
       <c r="I151">
         <f>ABS($C$136-H151)</f>
-        <v>12.45894995824294</v>
+        <v>2.0397194348961563</v>
       </c>
       <c r="J151">
         <f>(90-B151)+E151</f>
-        <v>82.340277705186253</v>
+        <v>47.072864201399717</v>
       </c>
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B152">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="C152">
         <f>B152*PI()/180</f>
-        <v>0.33161255787892258</v>
+        <v>0.87266462599716477</v>
       </c>
       <c r="E152">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C152))-$B$2)/$B$3))</f>
-        <v>17.494442847702921</v>
+        <v>6.3289079885010491</v>
       </c>
       <c r="F152">
         <f>E152*PI()/180</f>
-        <v>0.30533562849438889</v>
+        <v>0.11046028245511472</v>
       </c>
       <c r="H152">
-        <f>$B$4+$B$3*SIN(B152)-$B$3*COS(E152)</f>
-        <v>85.76013746258802</v>
+        <f>$B$4+$B$3*SIN(C152)-$B$3*COS(F152)</f>
+        <v>67.279048003257856</v>
       </c>
       <c r="I152">
         <f>ABS($C$136-H152)</f>
-        <v>14.239862537411994</v>
+        <v>2.2790480032578557</v>
       </c>
       <c r="J152">
         <f>(90-B152)+E152</f>
-        <v>88.494442847702913</v>
+        <v>46.328907988501051</v>
       </c>
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B153">
-        <v>11</v>
+        <v>46.5</v>
       </c>
       <c r="C153">
         <f>B153*PI()/180</f>
-        <v>0.19198621771937624</v>
+        <v>0.81157810217736315</v>
       </c>
       <c r="E153">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C153))-$B$2)/$B$3))</f>
-        <v>15.337523402351078</v>
+        <v>3.707838133417638</v>
       </c>
       <c r="F153">
         <f>E153*PI()/180</f>
-        <v>0.26769028247270932</v>
+        <v>6.4713983559138571E-2</v>
       </c>
       <c r="H153">
-        <f>$B$4+$B$3*SIN(B153)-$B$3*COS(E153)</f>
-        <v>85.344251136225537</v>
+        <f>$B$4+$B$3*SIN(C153)-$B$3*COS(F153)</f>
+        <v>62.236541579219804</v>
       </c>
       <c r="I153">
         <f>ABS($C$136-H153)</f>
-        <v>14.655748863774477</v>
+        <v>2.7634584207801964</v>
       </c>
       <c r="J153">
         <f>(90-B153)+E153</f>
-        <v>94.337523402351081</v>
+        <v>47.207838133417638</v>
       </c>
     </row>
     <row r="154" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B154">
-        <v>31</v>
+        <v>50.5</v>
       </c>
       <c r="C154">
         <f>B154*PI()/180</f>
-        <v>0.54105206811824214</v>
+        <v>0.88139127225713643</v>
       </c>
       <c r="E154">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C154))-$B$2)/$B$3))</f>
-        <v>22.890087342594821</v>
+        <v>6.7158327543073977</v>
       </c>
       <c r="F154">
         <f>E154*PI()/180</f>
-        <v>0.39950739019735892</v>
+        <v>0.11721339357594347</v>
       </c>
       <c r="H154">
-        <f>$B$4+$B$3*SIN(B154)-$B$3*COS(E154)</f>
-        <v>117.65336052605957</v>
+        <f>$B$4+$B$3*SIN(C154)-$B$3*COS(F154)</f>
+        <v>67.995523590670672</v>
       </c>
       <c r="I154">
         <f>ABS($C$136-H154)</f>
-        <v>17.653360526059558</v>
+        <v>2.9955235906706719</v>
       </c>
       <c r="J154">
         <f>(90-B154)+E154</f>
-        <v>81.890087342594825</v>
+        <v>46.215832754307399</v>
       </c>
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B155">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C155">
         <f>B155*PI()/180</f>
-        <v>0.715584993317675</v>
+        <v>0.80285145591739149</v>
       </c>
       <c r="E155">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C155))-$B$2)/$B$3))</f>
-        <v>29.434107631530996</v>
+        <v>3.3459713301883522</v>
       </c>
       <c r="F155">
         <f>E155*PI()/180</f>
-        <v>0.51372209055660578</v>
+        <v>5.8398216389121092E-2</v>
       </c>
       <c r="H155">
-        <f>$B$4+$B$3*SIN(B155)-$B$3*COS(E155)</f>
-        <v>120.19553247746163</v>
+        <f>$B$4+$B$3*SIN(C155)-$B$3*COS(F155)</f>
+        <v>61.51150221500761</v>
       </c>
       <c r="I155">
         <f>ABS($C$136-H155)</f>
-        <v>20.195532477461612</v>
+        <v>3.4884977849923899</v>
       </c>
       <c r="J155">
         <f>(90-B155)+E155</f>
-        <v>78.434107631530992</v>
+        <v>47.345971330188355</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B156">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="C156">
         <f>B156*PI()/180</f>
-        <v>1.2740903539558606</v>
+        <v>0.89011791851710798</v>
       </c>
       <c r="E156">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C156))-$B$2)/$B$3))</f>
-        <v>72.508236274021883</v>
+        <v>7.1058623242887</v>
       </c>
       <c r="F156">
         <f>E156*PI()/180</f>
-        <v>1.2655074577956673</v>
+        <v>0.12402069375225484</v>
       </c>
       <c r="H156">
-        <f>$B$4+$B$3*SIN(B156)-$B$3*COS(E156)</f>
-        <v>125.93184526293402</v>
+        <f>$B$4+$B$3*SIN(C156)-$B$3*COS(F156)</f>
+        <v>68.711235105692779</v>
       </c>
       <c r="I156">
         <f>ABS($C$136-H156)</f>
-        <v>25.931845262934004</v>
+        <v>3.7112351056927793</v>
       </c>
       <c r="J156">
         <f>(90-B156)+E156</f>
-        <v>89.508236274021883</v>
+        <v>46.105862324288701</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B157">
-        <v>10</v>
+        <v>45.5</v>
       </c>
       <c r="C157">
         <f>B157*PI()/180</f>
-        <v>0.17453292519943295</v>
+        <v>0.79412480965741994</v>
       </c>
       <c r="E157">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C157))-$B$2)/$B$3))</f>
-        <v>15.148645195443979</v>
+        <v>2.9872732187917359</v>
       </c>
       <c r="F157">
         <f>E157*PI()/180</f>
-        <v>0.26439373587691734</v>
+        <v>5.2137753324564731E-2</v>
       </c>
       <c r="H157">
-        <f>$B$4+$B$3*SIN(B157)-$B$3*COS(E157)</f>
-        <v>127.26992026959195</v>
+        <f>$B$4+$B$3*SIN(C157)-$B$3*COS(F157)</f>
+        <v>60.785099358814279</v>
       </c>
       <c r="I157">
         <f>ABS($C$136-H157)</f>
-        <v>27.269920269591935</v>
+        <v>4.2149006411857215</v>
       </c>
       <c r="J157">
         <f>(90-B157)+E157</f>
-        <v>95.148645195443976</v>
+        <v>47.487273218791735</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B158">
-        <v>29</v>
+        <v>51.5</v>
       </c>
       <c r="C158">
         <f>B158*PI()/180</f>
-        <v>0.50614548307835561</v>
+        <v>0.89884456477707964</v>
       </c>
       <c r="E158">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C158))-$B$2)/$B$3))</f>
-        <v>21.808906677172839</v>
+        <v>7.4989927514624748</v>
       </c>
       <c r="F158">
         <f>E158*PI()/180</f>
-        <v>0.38063722777684206</v>
+        <v>0.13088211409620901</v>
       </c>
       <c r="H158">
-        <f>$B$4+$B$3*SIN(B158)-$B$3*COS(E158)</f>
-        <v>129.09969794170604</v>
+        <f>$B$4+$B$3*SIN(C158)-$B$3*COS(F158)</f>
+        <v>69.426253793671606</v>
       </c>
       <c r="I158">
         <f>ABS($C$136-H158)</f>
-        <v>29.099697941706026</v>
+        <v>4.4262537936716058</v>
       </c>
       <c r="J158">
         <f>(90-B158)+E158</f>
-        <v>82.808906677172843</v>
+        <v>45.998992751462474</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B159">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C159">
         <f>B159*PI()/180</f>
-        <v>5.2359877559829883E-2</v>
+        <v>0.78539816339744828</v>
       </c>
       <c r="E159">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C159))-$B$2)/$B$3))</f>
-        <v>14.329762455465691</v>
+        <v>2.6317537581121728</v>
       </c>
       <c r="F159">
         <f>E159*PI()/180</f>
-        <v>0.2501015358765436</v>
+        <v>4.5932768180791839E-2</v>
       </c>
       <c r="H159">
-        <f>$B$4+$B$3*SIN(B159)-$B$3*COS(E159)</f>
-        <v>130.53565567051155</v>
+        <f>$B$4+$B$3*SIN(C159)-$B$3*COS(F159)</f>
+        <v>60.057270720926809</v>
       </c>
       <c r="I159">
         <f>ABS($C$136-H159)</f>
-        <v>30.535655670511531</v>
+        <v>4.9427292790731912</v>
       </c>
       <c r="J159">
         <f>(90-B159)+E159</f>
-        <v>101.3297624554657</v>
+        <v>47.631753758112175</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B160">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C160">
         <f>B160*PI()/180</f>
-        <v>1.1693705988362006</v>
+        <v>0.90757121103705141</v>
       </c>
       <c r="E160">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C160))-$B$2)/$B$3))</f>
-        <v>58.804035445188546</v>
+        <v>7.8952207821051994</v>
       </c>
       <c r="F160">
         <f>E160*PI()/180</f>
-        <v>1.0263240319779896</v>
+        <v>0.13779759781961751</v>
       </c>
       <c r="H160">
-        <f>$B$4+$B$3*SIN(B160)-$B$3*COS(E160)</f>
-        <v>67.807557034367989</v>
+        <f>$B$4+$B$3*SIN(C160)-$B$3*COS(F160)</f>
+        <v>70.140651913354475</v>
       </c>
       <c r="I160">
         <f>ABS($C$136-H160)</f>
-        <v>32.192442965632026</v>
+        <v>5.1406519133544748</v>
       </c>
       <c r="J160">
         <f>(90-B160)+E160</f>
-        <v>81.804035445188546</v>
+        <v>45.895220782105199</v>
       </c>
     </row>
     <row r="161" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B161">
-        <v>20</v>
+        <v>44.5</v>
       </c>
       <c r="C161">
         <f>B161*PI()/180</f>
-        <v>0.3490658503988659</v>
+        <v>0.77667151713747673</v>
       </c>
       <c r="E161">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C161))-$B$2)/$B$3))</f>
-        <v>17.844773681985021</v>
+        <v>2.2794234245286051</v>
       </c>
       <c r="F161">
         <f>E161*PI()/180</f>
-        <v>0.31145005502387013</v>
+        <v>3.9783443805108634E-2</v>
       </c>
       <c r="H161">
-        <f>$B$4+$B$3*SIN(B161)-$B$3*COS(E161)</f>
-        <v>135.5188734848295</v>
+        <f>$B$4+$B$3*SIN(C161)-$B$3*COS(F161)</f>
+        <v>59.32795482520288</v>
       </c>
       <c r="I161">
         <f>ABS($C$136-H161)</f>
-        <v>35.518873484829484</v>
+        <v>5.6720451747971197</v>
       </c>
       <c r="J161">
         <f>(90-B161)+E161</f>
-        <v>87.844773681985018</v>
+        <v>47.779423424528602</v>
       </c>
     </row>
     <row r="162" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B162">
-        <v>16</v>
+        <v>52.5</v>
       </c>
       <c r="C162">
         <f>B162*PI()/180</f>
-        <v>0.27925268031909273</v>
+        <v>0.91629785729702307</v>
       </c>
       <c r="E162">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C162))-$B$2)/$B$3))</f>
-        <v>16.551088550585096</v>
+        <v>8.2945438744690456</v>
       </c>
       <c r="F162">
         <f>E162*PI()/180</f>
-        <v>0.28887098999684596</v>
+        <v>0.14476710056061207</v>
       </c>
       <c r="H162">
-        <f>$B$4+$B$3*SIN(B162)-$B$3*COS(E162)</f>
-        <v>135.58161325283208</v>
+        <f>$B$4+$B$3*SIN(C162)-$B$3*COS(F162)</f>
+        <v>70.854502765533809</v>
       </c>
       <c r="I162">
         <f>ABS($C$136-H162)</f>
-        <v>35.581613252832071</v>
+        <v>5.8545027655338089</v>
       </c>
       <c r="J162">
         <f>(90-B162)+E162</f>
-        <v>90.551088550585092</v>
+        <v>45.794543874469042</v>
       </c>
     </row>
     <row r="163" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B163">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C163">
         <f>B163*PI()/180</f>
-        <v>0.89011791851710798</v>
+        <v>0.76794487087750496</v>
       </c>
       <c r="E163">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C163))-$B$2)/$B$3))</f>
-        <v>38.083663966085005</v>
+        <v>1.9302931978244995</v>
       </c>
       <c r="F163">
         <f>E163*PI()/180</f>
-        <v>0.66468532743130537</v>
+        <v>3.368997183088776E-2</v>
       </c>
       <c r="H163">
-        <f>$B$4+$B$3*SIN(B163)-$B$3*COS(E163)</f>
-        <v>64.019485881438243</v>
+        <f>$B$4+$B$3*SIN(C163)-$B$3*COS(F163)</f>
+        <v>58.597091000096597</v>
       </c>
       <c r="I163">
         <f>ABS($C$136-H163)</f>
-        <v>35.980514118561771</v>
+        <v>6.4029089999034028</v>
       </c>
       <c r="J163">
         <f>(90-B163)+E163</f>
-        <v>77.083663966084998</v>
+        <v>47.930293197824497</v>
       </c>
     </row>
     <row r="164" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B164">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C164">
         <f>B164*PI()/180</f>
-        <v>1.1344640137963142</v>
+        <v>0.92502450355699462</v>
       </c>
       <c r="E164">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C164))-$B$2)/$B$3))</f>
-        <v>55.438082278902321</v>
+        <v>8.6969602181241239</v>
       </c>
       <c r="F164">
         <f>E164*PI()/180</f>
-        <v>0.96757706675836674</v>
+        <v>0.15179059072123019</v>
       </c>
       <c r="H164">
-        <f>$B$4+$B$3*SIN(B164)-$B$3*COS(E164)</f>
-        <v>136.19823432303315</v>
+        <f>$B$4+$B$3*SIN(C164)-$B$3*COS(F164)</f>
+        <v>71.567880723710402</v>
       </c>
       <c r="I164">
         <f>ABS($C$136-H164)</f>
-        <v>36.198234323033134</v>
+        <v>6.5678807237104024</v>
       </c>
       <c r="J164">
         <f>(90-B164)+E164</f>
-        <v>80.438082278902328</v>
+        <v>45.696960218124126</v>
       </c>
     </row>
     <row r="165" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B165">
-        <v>54</v>
+        <v>43.5</v>
       </c>
       <c r="C165">
         <f>B165*PI()/180</f>
-        <v>0.94247779607693793</v>
+        <v>0.7592182246175333</v>
       </c>
       <c r="E165">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C165))-$B$2)/$B$3))</f>
-        <v>41.173898195316468</v>
+        <v>1.5843745472940076</v>
       </c>
       <c r="F165">
         <f>E165*PI()/180</f>
-        <v>0.71862008938922362</v>
+        <v>2.7652552435075049E-2</v>
       </c>
       <c r="H165">
-        <f>$B$4+$B$3*SIN(B165)-$B$3*COS(E165)</f>
-        <v>136.59578845648835</v>
+        <f>$B$4+$B$3*SIN(C165)-$B$3*COS(F165)</f>
+        <v>57.864619371047112</v>
       </c>
       <c r="I165">
         <f>ABS($C$136-H165)</f>
-        <v>36.595788456488336</v>
+        <v>7.1353806289528876</v>
       </c>
       <c r="J165">
         <f>(90-B165)+E165</f>
-        <v>77.173898195316468</v>
+        <v>48.084374547294004</v>
       </c>
     </row>
     <row r="166" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B166">
-        <v>68</v>
+        <v>53.5</v>
       </c>
       <c r="C166">
         <f>B166*PI()/180</f>
-        <v>1.1868238913561442</v>
+        <v>0.93375114981696627</v>
       </c>
       <c r="E166">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C166))-$B$2)/$B$3))</f>
-        <v>60.63637339684476</v>
+        <v>9.1024687539727314</v>
       </c>
       <c r="F166">
         <f>E166*PI()/180</f>
-        <v>1.0583043622436392</v>
+        <v>0.15886804981672983</v>
       </c>
       <c r="H166">
-        <f>$B$4+$B$3*SIN(B166)-$B$3*COS(E166)</f>
-        <v>57.658713472525235</v>
+        <f>$B$4+$B$3*SIN(C166)-$B$3*COS(F166)</f>
+        <v>72.280861266852241</v>
       </c>
       <c r="I166">
         <f>ABS($C$136-H166)</f>
-        <v>42.341286527474779</v>
+        <v>7.2808612668522414</v>
       </c>
       <c r="J166">
         <f>(90-B166)+E166</f>
-        <v>82.63637339684476</v>
+        <v>45.60246875397273</v>
       </c>
     </row>
     <row r="167" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B167">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C167">
         <f>B167*PI()/180</f>
-        <v>0.20943951023931953</v>
+        <v>0.75049157835756164</v>
       </c>
       <c r="E167">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C167))-$B$2)/$B$3))</f>
-        <v>15.544354393705889</v>
+        <v>1.2416794180209523</v>
       </c>
       <c r="F167">
         <f>E167*PI()/180</f>
-        <v>0.2713001642670147</v>
+        <v>2.1671394098712628E-2</v>
       </c>
       <c r="H167">
-        <f>$B$4+$B$3*SIN(B167)-$B$3*COS(E167)</f>
-        <v>143.80423780709924</v>
+        <f>$B$4+$B$3*SIN(C167)-$B$3*COS(F167)</f>
+        <v>57.13048085419851</v>
       </c>
       <c r="I167">
         <f>ABS($C$136-H167)</f>
-        <v>43.804237807099227</v>
+        <v>7.8695191458014904</v>
       </c>
       <c r="J167">
         <f>(90-B167)+E167</f>
-        <v>93.544354393705888</v>
+        <v>48.241679418020951</v>
       </c>
     </row>
     <row r="168" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B168">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C168">
         <f>B168*PI()/180</f>
-        <v>0.59341194567807209</v>
+        <v>0.94247779607693793</v>
       </c>
       <c r="E168">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C168))-$B$2)/$B$3))</f>
-        <v>24.651273910705395</v>
+        <v>9.5110691949849837</v>
       </c>
       <c r="F168">
         <f>E168*PI()/180</f>
-        <v>0.43024589455278772</v>
+        <v>0.1659994728374945</v>
       </c>
       <c r="H168">
-        <f>$B$4+$B$3*SIN(B168)-$B$3*COS(E168)</f>
-        <v>52.675459363747635</v>
+        <f>$B$4+$B$3*SIN(C168)-$B$3*COS(F168)</f>
+        <v>72.993521014333979</v>
       </c>
       <c r="I168">
         <f>ABS($C$136-H168)</f>
-        <v>47.324540636252379</v>
+        <v>7.9935210143339788</v>
       </c>
       <c r="J168">
         <f>(90-B168)+E168</f>
-        <v>80.651273910705399</v>
+        <v>45.511069194984984</v>
       </c>
     </row>
     <row r="169" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B169">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="C169">
         <f>B169*PI()/180</f>
-        <v>0.78539816339744828</v>
+        <v>0.74176493209759009</v>
       </c>
       <c r="E169">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C169))-$B$2)/$B$3))</f>
-        <v>32.617297193827973</v>
+        <v>0.90222021730909829</v>
       </c>
       <c r="F169">
         <f>E169*PI()/180</f>
-        <v>0.56927922913380524</v>
+        <v>1.57467133701025E-2</v>
       </c>
       <c r="H169">
-        <f>$B$4+$B$3*SIN(B169)-$B$3*COS(E169)</f>
-        <v>148.2912898647227</v>
+        <f>$B$4+$B$3*SIN(C169)-$B$3*COS(F169)</f>
+        <v>56.394617151421812</v>
       </c>
       <c r="I169">
         <f>ABS($C$136-H169)</f>
-        <v>48.291289864722685</v>
+        <v>8.6053828485781878</v>
       </c>
       <c r="J169">
         <f>(90-B169)+E169</f>
-        <v>77.617297193827966</v>
+        <v>48.4022202173091</v>
       </c>
     </row>
     <row r="170" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B170">
-        <v>57</v>
+        <v>54.5</v>
       </c>
       <c r="C170">
         <f>B170*PI()/180</f>
-        <v>0.99483767363676778</v>
+        <v>0.95120444233690948</v>
       </c>
       <c r="E170">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C170))-$B$2)/$B$3))</f>
-        <v>44.546897572146463</v>
+        <v>9.9227620477081011</v>
       </c>
       <c r="F170">
         <f>E170*PI()/180</f>
-        <v>0.77749003418262408</v>
+        <v>0.17318486862444102</v>
       </c>
       <c r="H170">
-        <f>$B$4+$B$3*SIN(B170)-$B$3*COS(E170)</f>
-        <v>46.87297437123523</v>
+        <f>$B$4+$B$3*SIN(C170)-$B$3*COS(F170)</f>
+        <v>73.705937763147134</v>
       </c>
       <c r="I170">
         <f>ABS($C$136-H170)</f>
-        <v>53.127025628764784</v>
+        <v>8.7059377631471335</v>
       </c>
       <c r="J170">
         <f>(90-B170)+E170</f>
-        <v>77.546897572146463</v>
+        <v>45.422762047708105</v>
       </c>
     </row>
     <row r="171" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B171">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C171">
         <f>B171*PI()/180</f>
-        <v>0.57595865315812877</v>
+        <v>0.73303828583761843</v>
       </c>
       <c r="E171">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C171))-$B$2)/$B$3))</f>
-        <v>24.045457355403929</v>
+        <v>0.56600980124253752</v>
       </c>
       <c r="F171">
         <f>E171*PI()/180</f>
-        <v>0.41967240099968689</v>
+        <v>9.8787346302409724E-3</v>
       </c>
       <c r="H171">
-        <f>$B$4+$B$3*SIN(B171)-$B$3*COS(E171)</f>
-        <v>153.39305885593626</v>
+        <f>$B$4+$B$3*SIN(C171)-$B$3*COS(F171)</f>
+        <v>55.656970746612174</v>
       </c>
       <c r="I171">
         <f>ABS($C$136-H171)</f>
-        <v>53.393058855936246</v>
+        <v>9.3430292533878259</v>
       </c>
       <c r="J171">
         <f>(90-B171)+E171</f>
-        <v>81.045457355403926</v>
+        <v>48.566009801242537</v>
       </c>
     </row>
     <row r="172" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B172">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C172">
         <f>B172*PI()/180</f>
-        <v>6.9813170079773182E-2</v>
+        <v>0.95993108859688125</v>
       </c>
       <c r="E172">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C172))-$B$2)/$B$3))</f>
-        <v>14.392779438300918</v>
+        <v>10.33754863460468</v>
       </c>
       <c r="F172">
         <f>E172*PI()/180</f>
-        <v>0.25120138971169109</v>
+        <v>0.18042426025889588</v>
       </c>
       <c r="H172">
-        <f>$B$4+$B$3*SIN(B172)-$B$3*COS(E172)</f>
-        <v>36.11249367210926</v>
+        <f>$B$4+$B$3*SIN(C172)-$B$3*COS(F172)</f>
+        <v>74.418190527478657</v>
       </c>
       <c r="I172">
         <f>ABS($C$136-H172)</f>
-        <v>63.887506327890755</v>
+        <v>9.4181905274786573</v>
       </c>
       <c r="J172">
         <f>(90-B172)+E172</f>
-        <v>100.39277943830092</v>
+        <v>45.33754863460468</v>
       </c>
     </row>
     <row r="173" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B173">
-        <v>32</v>
+        <v>41.5</v>
       </c>
       <c r="C173">
         <f>B173*PI()/180</f>
-        <v>0.55850536063818546</v>
+        <v>0.72431163957764677</v>
       </c>
       <c r="E173">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C173))-$B$2)/$B$3))</f>
-        <v>23.458440593024743</v>
+        <v>0.23306146135655501</v>
       </c>
       <c r="F173">
         <f>E173*PI()/180</f>
-        <v>0.40942702573177292</v>
+        <v>4.067689860181415E-3</v>
       </c>
       <c r="H173">
-        <f>$B$4+$B$3*SIN(B173)-$B$3*COS(E173)</f>
-        <v>166.90776005447202</v>
+        <f>$B$4+$B$3*SIN(C173)-$B$3*COS(F173)</f>
+        <v>54.917484903233884</v>
       </c>
       <c r="I173">
         <f>ABS($C$136-H173)</f>
-        <v>66.907760054472007</v>
+        <v>10.082515096766116</v>
       </c>
       <c r="J173">
         <f>(90-B173)+E173</f>
-        <v>81.458440593024747</v>
+        <v>48.733061461356556</v>
       </c>
     </row>
     <row r="174" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B174">
-        <v>26</v>
+        <v>55.5</v>
       </c>
       <c r="C174">
         <f>B174*PI()/180</f>
-        <v>0.4537856055185257</v>
+        <v>0.96865773485685291</v>
       </c>
       <c r="E174">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C174))-$B$2)/$B$3))</f>
-        <v>20.324570835501081</v>
+        <v>10.755431117278411</v>
       </c>
       <c r="F174">
         <f>E174*PI()/180</f>
-        <v>0.3547306801343087</v>
+        <v>0.18771768546796064</v>
       </c>
       <c r="H174">
-        <f>$B$4+$B$3*SIN(B174)-$B$3*COS(E174)</f>
-        <v>168.28231582186351</v>
+        <f>$B$4+$B$3*SIN(C174)-$B$3*COS(F174)</f>
+        <v>75.130359580761308</v>
       </c>
       <c r="I174">
         <f>ABS($C$136-H174)</f>
-        <v>68.282315821863492</v>
+        <v>10.130359580761308</v>
       </c>
       <c r="J174">
         <f>(90-B174)+E174</f>
-        <v>84.324570835501078</v>
+        <v>45.255431117278413</v>
       </c>
     </row>
     <row r="175" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B175">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C175">
         <f>B175*PI()/180</f>
-        <v>0.29670597283903605</v>
+        <v>0.715584993317675</v>
       </c>
       <c r="E175">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C175))-$B$2)/$B$3))</f>
-        <v>16.847606003114972</v>
+        <v>-9.6611088600108572E-2</v>
       </c>
       <c r="F175">
         <f>E175*PI()/180</f>
-        <v>0.29404619583311831</v>
+        <v>-1.6861815900078539E-3</v>
       </c>
       <c r="H175">
-        <f>$B$4+$B$3*SIN(B175)-$B$3*COS(E175)</f>
-        <v>31.652159135484141</v>
+        <f>$B$4+$B$3*SIN(C175)-$B$3*COS(F175)</f>
+        <v>54.176103663089975</v>
       </c>
       <c r="I175">
         <f>ABS($C$136-H175)</f>
-        <v>68.347840864515874</v>
+        <v>10.823896336910025</v>
       </c>
       <c r="J175">
         <f>(90-B175)+E175</f>
-        <v>89.847606003114976</v>
+        <v>48.903388911399894</v>
       </c>
     </row>
     <row r="176" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B176">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C176">
         <f>B176*PI()/180</f>
-        <v>1.0995574287564276</v>
+        <v>0.97738438111682457</v>
       </c>
       <c r="E176">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C176))-$B$2)/$B$3))</f>
-        <v>52.386078784944687</v>
+        <v>11.176412520649615</v>
       </c>
       <c r="F176">
         <f>E176*PI()/180</f>
-        <v>0.91430955700643524</v>
+        <v>0.19506519704645453</v>
       </c>
       <c r="H176">
-        <f>$B$4+$B$3*SIN(B176)-$B$3*COS(E176)</f>
-        <v>170.87279814700523</v>
+        <f>$B$4+$B$3*SIN(C176)-$B$3*COS(F176)</f>
+        <v>75.84252650030858</v>
       </c>
       <c r="I176">
         <f>ABS($C$136-H176)</f>
-        <v>70.872798147005213</v>
+        <v>10.84252650030858</v>
       </c>
       <c r="J176">
         <f>(90-B176)+E176</f>
-        <v>79.386078784944687</v>
+        <v>45.176412520649613</v>
       </c>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B177">
-        <v>5</v>
+        <v>56.5</v>
       </c>
       <c r="C177">
         <f>B177*PI()/180</f>
-        <v>8.7266462599716474E-2</v>
+        <v>0.98611102737679612</v>
       </c>
       <c r="E177">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C177))-$B$2)/$B$3))</f>
-        <v>14.473794500234321</v>
+        <v>11.600496758146646</v>
       </c>
       <c r="F177">
         <f>E177*PI()/180</f>
-        <v>0.25261536928613609</v>
+        <v>0.20246686329658728</v>
       </c>
       <c r="H177">
-        <f>$B$4+$B$3*SIN(B177)-$B$3*COS(E177)</f>
-        <v>22.041548535558803</v>
+        <f>$B$4+$B$3*SIN(C177)-$B$3*COS(F177)</f>
+        <v>76.554774214653477</v>
       </c>
       <c r="I177">
         <f>ABS($C$136-H177)</f>
-        <v>77.958451464441211</v>
+        <v>11.554774214653477</v>
       </c>
       <c r="J177">
         <f>(90-B177)+E177</f>
-        <v>99.47379450023432</v>
+        <v>45.100496758146647</v>
       </c>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B178">
-        <v>18</v>
+        <v>40.5</v>
       </c>
       <c r="C178">
         <f>B178*PI()/180</f>
-        <v>0.31415926535897931</v>
+        <v>0.70685834705770345</v>
       </c>
       <c r="E178">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C178))-$B$2)/$B$3))</f>
-        <v>17.162056089528861</v>
+        <v>-0.42299372582948147</v>
       </c>
       <c r="F178">
         <f>E178*PI()/180</f>
-        <v>0.29953438517422132</v>
+        <v>-7.3826332310026341E-3</v>
       </c>
       <c r="H178">
-        <f>$B$4+$B$3*SIN(B178)-$B$3*COS(E178)</f>
-        <v>21.37216842485098</v>
+        <f>$B$4+$B$3*SIN(C178)-$B$3*COS(F178)</f>
+        <v>53.432771846291416</v>
       </c>
       <c r="I178">
         <f>ABS($C$136-H178)</f>
-        <v>78.627831575149031</v>
+        <v>11.567228153708584</v>
       </c>
       <c r="J178">
         <f>(90-B178)+E178</f>
-        <v>89.162056089528861</v>
+        <v>49.077006274170522</v>
       </c>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B179">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C179">
         <f>B179*PI()/180</f>
-        <v>1.2566370614359172</v>
+        <v>0.99483767363676778</v>
       </c>
       <c r="E179">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C179))-$B$2)/$B$3))</f>
-        <v>69.57254904548482</v>
+        <v>12.027688657983306</v>
       </c>
       <c r="F179">
         <f>E179*PI()/180</f>
-        <v>1.2142700498489483</v>
+        <v>0.20992276848658686</v>
       </c>
       <c r="H179">
-        <f>$B$4+$B$3*SIN(B179)-$B$3*COS(E179)</f>
-        <v>20.380741161178889</v>
+        <f>$B$4+$B$3*SIN(C179)-$B$3*COS(F179)</f>
+        <v>77.267187053721145</v>
       </c>
       <c r="I179">
         <f>ABS($C$136-H179)</f>
-        <v>79.619258838821125</v>
+        <v>12.267187053721145</v>
       </c>
       <c r="J179">
         <f>(90-B179)+E179</f>
-        <v>87.57254904548482</v>
+        <v>45.027688657983305</v>
       </c>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B180">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C180">
         <f>B180*PI()/180</f>
-        <v>0.43633231299858238</v>
+        <v>0.69813170079773179</v>
       </c>
       <c r="E180">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C180))-$B$2)/$B$3))</f>
-        <v>19.866156747921238</v>
+        <v>-0.74607193159234986</v>
       </c>
       <c r="F180">
         <f>E180*PI()/180</f>
-        <v>0.34672984496851478</v>
+        <v>-1.3021411663000405E-2</v>
       </c>
       <c r="H180">
-        <f>$B$4+$B$3*SIN(B180)-$B$3*COS(E180)</f>
-        <v>18.655975047658401</v>
+        <f>$B$4+$B$3*SIN(C180)-$B$3*COS(F180)</f>
+        <v>52.68743505240441</v>
       </c>
       <c r="I180">
         <f>ABS($C$136-H180)</f>
-        <v>81.344024952341613</v>
+        <v>12.31256494759559</v>
       </c>
       <c r="J180">
         <f>(90-B180)+E180</f>
-        <v>84.866156747921238</v>
+        <v>49.253928068407653</v>
       </c>
     </row>
     <row r="181" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B181">
-        <v>52</v>
+        <v>57.5</v>
       </c>
       <c r="C181">
         <f>B181*PI()/180</f>
-        <v>0.90757121103705141</v>
+        <v>1.0035643198967394</v>
       </c>
       <c r="E181">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C181))-$B$2)/$B$3))</f>
-        <v>39.084836089857248</v>
+        <v>12.457993990597073</v>
       </c>
       <c r="F181">
         <f>E181*PI()/180</f>
-        <v>0.68215907737031523</v>
+        <v>0.21743301332958639</v>
       </c>
       <c r="H181">
-        <f>$B$4+$B$3*SIN(B181)-$B$3*COS(E181)</f>
-        <v>183.59864038407494</v>
+        <f>$B$4+$B$3*SIN(C181)-$B$3*COS(F181)</f>
+        <v>77.979850801973114</v>
       </c>
       <c r="I181">
         <f>ABS($C$136-H181)</f>
-        <v>83.598640384074926</v>
+        <v>12.979850801973114</v>
       </c>
       <c r="J181">
         <f>(90-B181)+E181</f>
-        <v>77.084836089857248</v>
+        <v>44.957993990597075</v>
       </c>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B182">
-        <v>38</v>
+        <v>39.5</v>
       </c>
       <c r="C182">
         <f>B182*PI()/180</f>
-        <v>0.66322511575784515</v>
+        <v>0.68940505453776013</v>
       </c>
       <c r="E182">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C182))-$B$2)/$B$3))</f>
-        <v>27.265933016747738</v>
+        <v>-1.0658308042759539</v>
       </c>
       <c r="F182">
         <f>E182*PI()/180</f>
-        <v>0.47588030477047827</v>
+        <v>-1.860225680379465E-2</v>
       </c>
       <c r="H182">
-        <f>$B$4+$B$3*SIN(B182)-$B$3*COS(E182)</f>
-        <v>186.64330843134564</v>
+        <f>$B$4+$B$3*SIN(C182)-$B$3*COS(F182)</f>
+        <v>51.940039662753648</v>
       </c>
       <c r="I182">
         <f>ABS($C$136-H182)</f>
-        <v>86.643308431345631</v>
+        <v>13.059960337246352</v>
       </c>
       <c r="J182">
         <f>(90-B182)+E182</f>
-        <v>79.265933016747738</v>
+        <v>49.434169195724046</v>
       </c>
     </row>
     <row r="183" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B183">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C183">
         <f>B183*PI()/180</f>
-        <v>0.64577182323790194</v>
+        <v>1.0122909661567112</v>
       </c>
       <c r="E183">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C183))-$B$2)/$B$3))</f>
-        <v>26.583166247261417</v>
+        <v>12.891419497327774</v>
       </c>
       <c r="F183">
         <f>E183*PI()/180</f>
-        <v>0.46396377661973676</v>
+        <v>0.22499771548416198</v>
       </c>
       <c r="H183">
-        <f>$B$4+$B$3*SIN(B183)-$B$3*COS(E183)</f>
-        <v>6.8026906185304821</v>
+        <f>$B$4+$B$3*SIN(C183)-$B$3*COS(F183)</f>
+        <v>78.692852754672955</v>
       </c>
       <c r="I183">
         <f>ABS($C$136-H183)</f>
-        <v>93.197309381469537</v>
+        <v>13.692852754672955</v>
       </c>
       <c r="J183">
         <f>(90-B183)+E183</f>
-        <v>79.583166247261417</v>
+        <v>44.891419497327774</v>
       </c>
     </row>
     <row r="184" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B184">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C184">
         <f>B184*PI()/180</f>
-        <v>1.7453292519943295E-2</v>
+        <v>0.68067840827778847</v>
       </c>
       <c r="E184">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C184))-$B$2)/$B$3))</f>
-        <v>14.257737294366274</v>
+        <v>-1.3822550724371478</v>
       </c>
       <c r="F184">
         <f>E184*PI()/180</f>
-        <v>0.24884445967107946</v>
+        <v>-2.4124902116420953E-2</v>
       </c>
       <c r="H184">
-        <f>$B$4+$B$3*SIN(B184)-$B$3*COS(E184)</f>
-        <v>201.56227500249068</v>
+        <f>$B$4+$B$3*SIN(C184)-$B$3*COS(F184)</f>
+        <v>51.190532843861035</v>
       </c>
       <c r="I184">
         <f>ABS($C$136-H184)</f>
-        <v>101.56227500249067</v>
+        <v>13.809467156138965</v>
       </c>
       <c r="J184">
         <f>(90-B184)+E184</f>
-        <v>103.25773729436628</v>
+        <v>49.617744927562853</v>
       </c>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B185">
-        <v>55</v>
+        <v>58.5</v>
       </c>
       <c r="C185">
         <f>B185*PI()/180</f>
-        <v>0.95993108859688125</v>
+        <v>1.0210176124166828</v>
       </c>
       <c r="E185">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C185))-$B$2)/$B$3))</f>
-        <v>42.264602260401062</v>
+        <v>13.327972920421596</v>
       </c>
       <c r="F185">
         <f>E185*PI()/180</f>
-        <v>0.73765646648983629</v>
+        <v>0.23261701007800106</v>
       </c>
       <c r="H185">
-        <f>$B$4+$B$3*SIN(B185)-$B$3*COS(E185)</f>
-        <v>-3.3300272148270977</v>
+        <f>$B$4+$B$3*SIN(C185)-$B$3*COS(F185)</f>
+        <v>79.406281777433605</v>
       </c>
       <c r="I185">
         <f>ABS($C$136-H185)</f>
-        <v>103.33002721482711</v>
+        <v>14.406281777433605</v>
       </c>
       <c r="J185">
         <f>(90-B185)+E185</f>
-        <v>77.264602260401062</v>
+        <v>44.827972920421594</v>
       </c>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B186">
-        <v>66</v>
+        <v>38.5</v>
       </c>
       <c r="C186">
         <f>B186*PI()/180</f>
-        <v>1.1519173063162575</v>
+        <v>0.67195176201781692</v>
       </c>
       <c r="E186">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C186))-$B$2)/$B$3))</f>
-        <v>57.076312296283476</v>
+        <v>-1.6953291078353074</v>
       </c>
       <c r="F186">
         <f>E186*PI()/180</f>
-        <v>0.99616957446667187</v>
+        <v>-2.958907483662411E-2</v>
       </c>
       <c r="H186">
-        <f>$B$4+$B$3*SIN(B186)-$B$3*COS(E186)</f>
-        <v>-7.524899947090617</v>
+        <f>$B$4+$B$3*SIN(C186)-$B$3*COS(F186)</f>
+        <v>50.438862551999947</v>
       </c>
       <c r="I186">
         <f>ABS($C$136-H186)</f>
-        <v>107.52489994709063</v>
+        <v>14.561137448000053</v>
       </c>
       <c r="J186">
         <f>(90-B186)+E186</f>
-        <v>81.076312296283476</v>
+        <v>49.804670892164694</v>
       </c>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B187">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C187">
         <f>B187*PI()/180</f>
-        <v>0.76794487087750496</v>
+        <v>1.0297442586766543</v>
       </c>
       <c r="E187">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C187))-$B$2)/$B$3))</f>
-        <v>31.788963173004316</v>
+        <v>13.767663034451015</v>
       </c>
       <c r="F187">
         <f>E187*PI()/180</f>
-        <v>0.55482207316414911</v>
+        <v>0.24029105025628372</v>
       </c>
       <c r="H187">
-        <f>$B$4+$B$3*SIN(B187)-$B$3*COS(E187)</f>
-        <v>-10.118479488741926</v>
+        <f>$B$4+$B$3*SIN(C187)-$B$3*COS(F187)</f>
+        <v>80.120228369218466</v>
       </c>
       <c r="I187">
         <f>ABS($C$136-H187)</f>
-        <v>110.11847948874194</v>
+        <v>15.120228369218466</v>
       </c>
       <c r="J187">
         <f>(90-B187)+E187</f>
-        <v>77.788963173004319</v>
+        <v>44.767663034451019</v>
       </c>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B188">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C188">
         <f>B188*PI()/180</f>
-        <v>0.48869219055841229</v>
+        <v>0.66322511575784515</v>
       </c>
       <c r="E188">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C188))-$B$2)/$B$3))</f>
-        <v>21.295882789435009</v>
+        <v>-2.005036938468991</v>
       </c>
       <c r="F188">
         <f>E188*PI()/180</f>
-        <v>0.37168327179443517</v>
+        <v>-3.4994496200390843E-2</v>
       </c>
       <c r="H188">
-        <f>$B$4+$B$3*SIN(B188)-$B$3*COS(E188)</f>
-        <v>210.25853140751917</v>
+        <f>$B$4+$B$3*SIN(C188)-$B$3*COS(F188)</f>
+        <v>49.68497753884526</v>
       </c>
       <c r="I188">
         <f>ABS($C$136-H188)</f>
-        <v>110.25853140751916</v>
+        <v>15.31502246115474</v>
       </c>
       <c r="J188">
         <f>(90-B188)+E188</f>
-        <v>83.295882789435012</v>
+        <v>49.99496306153101</v>
       </c>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B189">
-        <v>2</v>
+        <v>59.5</v>
       </c>
       <c r="C189">
         <f>B189*PI()/180</f>
-        <v>3.4906585039886591E-2</v>
+        <v>1.0384709049366261</v>
       </c>
       <c r="E189">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C189))-$B$2)/$B$3))</f>
-        <v>14.284747455535957</v>
+        <v>14.210499679247457</v>
       </c>
       <c r="F189">
         <f>E189*PI()/180</f>
-        <v>0.24931587591498475</v>
+        <v>0.24802000775646624</v>
       </c>
       <c r="H189">
-        <f>$B$4+$B$3*SIN(B189)-$B$3*COS(E189)</f>
-        <v>212.23997603521332</v>
+        <f>$B$4+$B$3*SIN(C189)-$B$3*COS(F189)</f>
+        <v>80.834784728982427</v>
       </c>
       <c r="I189">
         <f>ABS($C$136-H189)</f>
-        <v>112.2399760352133</v>
+        <v>15.834784728982427</v>
       </c>
       <c r="J189">
         <f>(90-B189)+E189</f>
-        <v>102.28474745553595</v>
+        <v>44.710499679247455</v>
       </c>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B190">
-        <v>70</v>
+        <v>37.5</v>
       </c>
       <c r="C190">
         <f>B190*PI()/180</f>
-        <v>1.2217304763960306</v>
+        <v>0.6544984694978736</v>
       </c>
       <c r="E190">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C190))-$B$2)/$B$3))</f>
-        <v>64.703912320996395</v>
+        <v>-2.3113622616291325</v>
       </c>
       <c r="F190">
         <f>E190*PI()/180</f>
-        <v>1.1292963089231132</v>
+        <v>-4.034088167177096E-2</v>
       </c>
       <c r="H190">
-        <f>$B$4+$B$3*SIN(B190)-$B$3*COS(E190)</f>
-        <v>213.85126593311799</v>
+        <f>$B$4+$B$3*SIN(C190)-$B$3*COS(F190)</f>
+        <v>48.928827358200607</v>
       </c>
       <c r="I190">
         <f>ABS($C$136-H190)</f>
-        <v>113.85126593311797</v>
+        <v>16.071172641799393</v>
       </c>
       <c r="J190">
         <f>(90-B190)+E190</f>
-        <v>84.703912320996395</v>
+        <v>50.188637738370865</v>
       </c>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B191">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C191">
         <f>B191*PI()/180</f>
-        <v>0.82030474843733492</v>
+        <v>1.0471975511965976</v>
       </c>
       <c r="E191">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C191))-$B$2)/$B$3))</f>
-        <v>34.342142453610201</v>
+        <v>14.65649379445019</v>
       </c>
       <c r="F191">
         <f>E191*PI()/180</f>
-        <v>0.59938345800442194</v>
+        <v>0.25580407351127282</v>
       </c>
       <c r="H191">
-        <f>$B$4+$B$3*SIN(B191)-$B$3*COS(E191)</f>
-        <v>217.2209488464884</v>
+        <f>$B$4+$B$3*SIN(C191)-$B$3*COS(F191)</f>
+        <v>81.550044826152629</v>
       </c>
       <c r="I191">
         <f>ABS($C$136-H191)</f>
-        <v>117.22094884648838</v>
+        <v>16.550044826152629</v>
       </c>
       <c r="J191">
         <f>(90-B191)+E191</f>
-        <v>77.342142453610194</v>
+        <v>44.656493794450192</v>
       </c>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B192">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C192">
         <f>B192*PI()/180</f>
-        <v>0.38397243543875248</v>
+        <v>0.64577182323790194</v>
       </c>
       <c r="E192">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C192))-$B$2)/$B$3))</f>
-        <v>18.599317376648123</v>
+        <v>-2.6142884569811371</v>
       </c>
       <c r="F192">
         <f>E192*PI()/180</f>
-        <v>0.32461932684590405</v>
+        <v>-4.5627941171202981E-2</v>
       </c>
       <c r="H192">
-        <f>$B$4+$B$3*SIN(B192)-$B$3*COS(E192)</f>
-        <v>-17.363305010299399</v>
+        <f>$B$4+$B$3*SIN(C192)-$B$3*COS(F192)</f>
+        <v>48.170362373783945</v>
       </c>
       <c r="I192">
         <f>ABS($C$136-H192)</f>
-        <v>117.36330501029941</v>
+        <v>16.829637626216055</v>
       </c>
       <c r="J192">
         <f>(90-B192)+E192</f>
-        <v>86.599317376648116</v>
+        <v>50.385711543018864</v>
       </c>
     </row>
     <row r="193" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B193">
-        <v>49</v>
+        <v>60.5</v>
       </c>
       <c r="C193">
         <f>B193*PI()/180</f>
-        <v>0.85521133347722145</v>
+        <v>1.0559241974565694</v>
       </c>
       <c r="E193">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C193))-$B$2)/$B$3))</f>
-        <v>36.162177539468004</v>
+        <v>15.105657455782358</v>
       </c>
       <c r="F193">
         <f>E193*PI()/180</f>
-        <v>0.63114906275445837</v>
+        <v>0.26364345828183189</v>
       </c>
       <c r="H193">
-        <f>$B$4+$B$3*SIN(B193)-$B$3*COS(E193)</f>
-        <v>-18.481214189044636</v>
+        <f>$B$4+$B$3*SIN(C193)-$B$3*COS(F193)</f>
+        <v>82.266104475164141</v>
       </c>
       <c r="I193">
         <f>ABS($C$136-H193)</f>
-        <v>118.48121418904465</v>
+        <v>17.266104475164141</v>
       </c>
       <c r="J193">
         <f>(90-B193)+E193</f>
-        <v>77.162177539468004</v>
+        <v>44.605657455782357</v>
       </c>
     </row>
     <row r="194" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B194">
-        <v>53</v>
+        <v>36.5</v>
       </c>
       <c r="C194">
         <f>B194*PI()/180</f>
-        <v>0.92502450355699462</v>
+        <v>0.63704517697793028</v>
       </c>
       <c r="E194">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C194))-$B$2)/$B$3))</f>
-        <v>40.114474457117716</v>
+        <v>-2.9137985996872611</v>
       </c>
       <c r="F194">
         <f>E194*PI()/180</f>
-        <v>0.70012965698386909</v>
+        <v>-5.0855379304542925E-2</v>
       </c>
       <c r="H194">
-        <f>$B$4+$B$3*SIN(B194)-$B$3*COS(E194)</f>
-        <v>222.09050753339775</v>
+        <f>$B$4+$B$3*SIN(C194)-$B$3*COS(F194)</f>
+        <v>47.409533768053777</v>
       </c>
       <c r="I194">
         <f>ABS($C$136-H194)</f>
-        <v>122.09050753339774</v>
+        <v>17.590466231946223</v>
       </c>
       <c r="J194">
         <f>(90-B194)+E194</f>
-        <v>77.114474457117723</v>
+        <v>50.586201400312738</v>
       </c>
     </row>
     <row r="195" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B195">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="C195">
         <f>B195*PI()/180</f>
-        <v>0.15707963267948966</v>
+        <v>1.064650843716541</v>
       </c>
       <c r="E195">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C195))-$B$2)/$B$3))</f>
-        <v>14.977726836326697</v>
+        <v>15.558003913172815</v>
       </c>
       <c r="F195">
         <f>E195*PI()/180</f>
-        <v>0.26141064775821471</v>
+        <v>0.27153839332302759</v>
       </c>
       <c r="H195">
-        <f>$B$4+$B$3*SIN(B195)-$B$3*COS(E195)</f>
-        <v>223.61742111534411</v>
+        <f>$B$4+$B$3*SIN(C195)-$B$3*COS(F195)</f>
+        <v>82.983061414283029</v>
       </c>
       <c r="I195">
         <f>ABS($C$136-H195)</f>
-        <v>123.6174211153441</v>
+        <v>17.983061414283029</v>
       </c>
       <c r="J195">
         <f>(90-B195)+E195</f>
-        <v>95.977726836326696</v>
+        <v>44.558003913172811</v>
       </c>
     </row>
     <row r="196" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B196">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C196">
         <f>B196*PI()/180</f>
-        <v>1.0122909661567112</v>
+        <v>0.62831853071795862</v>
       </c>
       <c r="E196">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C196))-$B$2)/$B$3))</f>
-        <v>45.742665113514853</v>
+        <v>-3.2098754735798845</v>
       </c>
       <c r="F196">
         <f>E196*PI()/180</f>
-        <v>0.79836011486797986</v>
+        <v>-5.6022895592981244E-2</v>
       </c>
       <c r="H196">
-        <f>$B$4+$B$3*SIN(B196)-$B$3*COS(E196)</f>
-        <v>226.34637111158202</v>
+        <f>$B$4+$B$3*SIN(C196)-$B$3*COS(F196)</f>
+        <v>46.646293552056946</v>
       </c>
       <c r="I196">
         <f>ABS($C$136-H196)</f>
-        <v>126.346371111582</v>
+        <v>18.353706447943054</v>
       </c>
       <c r="J196">
         <f>(90-B196)+E196</f>
-        <v>77.742665113514846</v>
+        <v>50.790124526420115</v>
       </c>
     </row>
     <row r="197" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B197">
-        <v>7</v>
+        <v>61.5</v>
       </c>
       <c r="C197">
         <f>B197*PI()/180</f>
-        <v>0.12217304763960307</v>
+        <v>1.0733774899765127</v>
       </c>
       <c r="E197">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C197))-$B$2)/$B$3))</f>
-        <v>14.689798600436841</v>
+        <v>16.013547630851349</v>
       </c>
       <c r="F197">
         <f>E197*PI()/180</f>
-        <v>0.25638535203247781</v>
+        <v>0.27948913108329348</v>
       </c>
       <c r="H197">
-        <f>$B$4+$B$3*SIN(B197)-$B$3*COS(E197)</f>
-        <v>226.41462944720553</v>
+        <f>$B$4+$B$3*SIN(C197)-$B$3*COS(F197)</f>
+        <v>83.701015388967221</v>
       </c>
       <c r="I197">
         <f>ABS($C$136-H197)</f>
-        <v>126.41462944720551</v>
+        <v>18.701015388967221</v>
       </c>
       <c r="J197">
         <f>(90-B197)+E197</f>
-        <v>97.689798600436845</v>
+        <v>44.513547630851349</v>
       </c>
     </row>
     <row r="198" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B198">
-        <v>75</v>
+        <v>35.5</v>
       </c>
       <c r="C198">
         <f>B198*PI()/180</f>
-        <v>1.3089969389957472</v>
+        <v>0.61959188445798696</v>
       </c>
       <c r="E198">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C198))-$B$2)/$B$3))</f>
-        <v>80.863490776622243</v>
+        <v>-3.5025015843957426</v>
       </c>
       <c r="F198">
         <f>E198*PI()/180</f>
-        <v>1.4113341587081247</v>
+        <v>-6.1130184704023753E-2</v>
       </c>
       <c r="H198">
-        <f>$B$4+$B$3*SIN(B198)-$B$3*COS(E198)</f>
-        <v>-27.953567087336133</v>
+        <f>$B$4+$B$3*SIN(C198)-$B$3*COS(F198)</f>
+        <v>45.880594576281283</v>
       </c>
       <c r="I198">
         <f>ABS($C$136-H198)</f>
-        <v>127.95356708733615</v>
+        <v>19.119405423718717</v>
       </c>
       <c r="J198">
         <f>(90-B198)+E198</f>
-        <v>95.863490776622243</v>
+        <v>50.997498415604255</v>
       </c>
     </row>
     <row r="199" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B199">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C199">
         <f>B199*PI()/180</f>
-        <v>1.2042771838760873</v>
+        <v>1.0821041362364843</v>
       </c>
       <c r="E199">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C199))-$B$2)/$B$3))</f>
-        <v>62.593593498898926</v>
+        <v>16.472304329553836</v>
       </c>
       <c r="F199">
         <f>E199*PI()/180</f>
-        <v>1.0924642972107039</v>
+        <v>0.28749594594123151</v>
       </c>
       <c r="H199">
-        <f>$B$4+$B$3*SIN(B199)-$B$3*COS(E199)</f>
-        <v>-29.648073214148695</v>
+        <f>$B$4+$B$3*SIN(C199)-$B$3*COS(F199)</f>
+        <v>84.42006824003515</v>
       </c>
       <c r="I199">
         <f>ABS($C$136-H199)</f>
-        <v>129.64807321414872</v>
+        <v>19.42006824003515</v>
       </c>
       <c r="J199">
         <f>(90-B199)+E199</f>
-        <v>83.593593498898926</v>
+        <v>44.472304329553836</v>
       </c>
     </row>
     <row r="200" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B200">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C200">
         <f>B200*PI()/180</f>
-        <v>0.87266462599716477</v>
+        <v>0.6108652381980153</v>
       </c>
       <c r="E200">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C200))-$B$2)/$B$3))</f>
-        <v>37.109790152431728</v>
+        <v>-3.7916591730802063</v>
       </c>
       <c r="F200">
         <f>E200*PI()/180</f>
-        <v>0.64768802288410199</v>
+        <v>-6.6176936683695148E-2</v>
       </c>
       <c r="H200">
-        <f>$B$4+$B$3*SIN(B200)-$B$3*COS(E200)</f>
-        <v>-30.456034967537704</v>
+        <f>$B$4+$B$3*SIN(C200)-$B$3*COS(F200)</f>
+        <v>45.112390542494254</v>
       </c>
       <c r="I200">
         <f>ABS($C$136-H200)</f>
-        <v>130.45603496753773</v>
+        <v>19.887609457505746</v>
       </c>
       <c r="J200">
         <f>(90-B200)+E200</f>
-        <v>77.109790152431728</v>
+        <v>51.208340826919795</v>
       </c>
     </row>
     <row r="201" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B201">
-        <v>27</v>
+        <v>62.5</v>
       </c>
       <c r="C201">
         <f>B201*PI()/180</f>
-        <v>0.47123889803846897</v>
+        <v>1.0908307824964558</v>
       </c>
       <c r="E201">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C201))-$B$2)/$B$3))</f>
-        <v>20.801126858236675</v>
+        <v>16.934291030984738</v>
       </c>
       <c r="F201">
         <f>E201*PI()/180</f>
-        <v>0.36304815180125372</v>
+        <v>0.29555913498162878</v>
       </c>
       <c r="H201">
-        <f>$B$4+$B$3*SIN(B201)-$B$3*COS(E201)</f>
-        <v>242.90640536293228</v>
+        <f>$B$4+$B$3*SIN(C201)-$B$3*COS(F201)</f>
+        <v>85.140323996934271</v>
       </c>
       <c r="I201">
         <f>ABS($C$136-H201)</f>
-        <v>142.90640536293228</v>
+        <v>20.140323996934271</v>
       </c>
       <c r="J201">
         <f>(90-B201)+E201</f>
-        <v>83.801126858236671</v>
+        <v>44.434291030984738</v>
       </c>
     </row>
     <row r="202" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B202">
-        <v>46</v>
+        <v>34.5</v>
       </c>
       <c r="C202">
         <f>B202*PI()/180</f>
-        <v>0.80285145591739149</v>
+        <v>0.60213859193804364</v>
       </c>
       <c r="E202">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C202))-$B$2)/$B$3))</f>
-        <v>33.46816017773471</v>
+        <v>-4.0773302291700269</v>
       </c>
       <c r="F202">
         <f>E202*PI()/180</f>
-        <v>0.58412958968632134</v>
+        <v>-7.1162837190111919E-2</v>
       </c>
       <c r="H202">
-        <f>$B$4+$B$3*SIN(B202)-$B$3*COS(E202)</f>
-        <v>247.06335783807089</v>
+        <f>$B$4+$B$3*SIN(C202)-$B$3*COS(F202)</f>
+        <v>44.34163601654997</v>
       </c>
       <c r="I202">
         <f>ABS($C$136-H202)</f>
-        <v>147.06335783807089</v>
+        <v>20.65836398345003</v>
       </c>
       <c r="J202">
         <f>(90-B202)+E202</f>
-        <v>77.468160177734717</v>
+        <v>51.42266977082997</v>
       </c>
     </row>
     <row r="203" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B203">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C203">
         <f>B203*PI()/180</f>
-        <v>0.73303828583761843</v>
+        <v>1.0995574287564276</v>
       </c>
       <c r="E203">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C203))-$B$2)/$B$3))</f>
-        <v>30.197818968718849</v>
+        <v>17.399526104694907</v>
       </c>
       <c r="F203">
         <f>E203*PI()/180</f>
-        <v>0.52705136792534246</v>
+        <v>0.30367901881362969</v>
       </c>
       <c r="H203">
-        <f>$B$4+$B$3*SIN(B203)-$B$3*COS(E203)</f>
-        <v>-49.448222946769313</v>
+        <f>$B$4+$B$3*SIN(C203)-$B$3*COS(F203)</f>
+        <v>85.861888976424694</v>
       </c>
       <c r="I203">
         <f>ABS($C$136-H203)</f>
-        <v>149.44822294676933</v>
+        <v>20.861888976424694</v>
       </c>
       <c r="J203">
         <f>(90-B203)+E203</f>
-        <v>78.197818968718849</v>
+        <v>44.399526104694907</v>
       </c>
     </row>
     <row r="204" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B204">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="C204">
         <f>B204*PI()/180</f>
-        <v>0.22689280275926285</v>
+        <v>0.59341194567807209</v>
       </c>
       <c r="E204">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C204))-$B$2)/$B$3))</f>
-        <v>15.769131584057343</v>
+        <v>-4.3594965042622693</v>
       </c>
       <c r="F204">
         <f>E204*PI()/180</f>
-        <v>0.27522326632202959</v>
+        <v>-7.608756772855961E-2</v>
       </c>
       <c r="H204">
-        <f>$B$4+$B$3*SIN(B204)-$B$3*COS(E204)</f>
-        <v>253.09734714229685</v>
+        <f>$B$4+$B$3*SIN(C204)-$B$3*COS(F204)</f>
+        <v>43.56828644214616</v>
       </c>
       <c r="I204">
         <f>ABS($C$136-H204)</f>
-        <v>153.09734714229683</v>
+        <v>21.43171355785384</v>
       </c>
       <c r="J204">
         <f>(90-B204)+E204</f>
-        <v>92.769131584057348</v>
+        <v>51.640503495737732</v>
       </c>
     </row>
     <row r="205" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B205">
-        <v>71</v>
+        <v>63.5</v>
       </c>
       <c r="C205">
         <f>B205*PI()/180</f>
-        <v>1.2391837689159739</v>
+        <v>1.1082840750163994</v>
       </c>
       <c r="E205">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C205))-$B$2)/$B$3))</f>
-        <v>67.008633222384773</v>
+        <v>17.868029317545425</v>
       </c>
       <c r="F205">
         <f>E205*PI()/180</f>
-        <v>1.1695212769918719</v>
+        <v>0.31185594243404302</v>
       </c>
       <c r="H205">
-        <f>$B$4+$B$3*SIN(B205)-$B$3*COS(E205)</f>
-        <v>257.96501682990515</v>
+        <f>$B$4+$B$3*SIN(C205)-$B$3*COS(F205)</f>
+        <v>86.584871887018537</v>
       </c>
       <c r="I205">
         <f>ABS($C$136-H205)</f>
-        <v>157.96501682990515</v>
+        <v>21.584871887018537</v>
       </c>
       <c r="J205">
         <f>(90-B205)+E205</f>
-        <v>86.008633222384773</v>
+        <v>44.368029317545421</v>
       </c>
     </row>
     <row r="206" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B206">
-        <v>56</v>
+        <v>33.5</v>
       </c>
       <c r="C206">
         <f>B206*PI()/180</f>
-        <v>0.97738438111682457</v>
+        <v>0.58468529941810032</v>
       </c>
       <c r="E206">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C206))-$B$2)/$B$3))</f>
-        <v>43.388287484759282</v>
+        <v>-4.6381395255764115</v>
       </c>
       <c r="F206">
         <f>E206*PI()/180</f>
-        <v>0.75726847341089842</v>
+        <v>-8.0950805888196128E-2</v>
       </c>
       <c r="H206">
-        <f>$B$4+$B$3*SIN(B206)-$B$3*COS(E206)</f>
-        <v>-59.416692502776243</v>
+        <f>$B$4+$B$3*SIN(C206)-$B$3*COS(F206)</f>
+        <v>42.792298155512924</v>
       </c>
       <c r="I206">
         <f>ABS($C$136-H206)</f>
-        <v>159.41669250277624</v>
+        <v>22.207701844487076</v>
       </c>
       <c r="J206">
         <f>(90-B206)+E206</f>
-        <v>77.388287484759275</v>
+        <v>51.861860474423587</v>
       </c>
     </row>
     <row r="207" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B207">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="C207">
         <f>B207*PI()/180</f>
-        <v>0.26179938779914941</v>
+        <v>1.1170107212763709</v>
       </c>
       <c r="E207">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C207))-$B$2)/$B$3))</f>
-        <v>16.272502547174916</v>
+        <v>18.339821885941223</v>
       </c>
       <c r="F207">
         <f>E207*PI()/180</f>
-        <v>0.28400874698736617</v>
+        <v>0.32009027613899027</v>
       </c>
       <c r="H207">
-        <f>$B$4+$B$3*SIN(B207)-$B$3*COS(E207)</f>
-        <v>261.76948741454839</v>
+        <f>$B$4+$B$3*SIN(C207)-$B$3*COS(F207)</f>
+        <v>87.309383939544347</v>
       </c>
       <c r="I207">
         <f>ABS($C$136-H207)</f>
-        <v>161.76948741454839</v>
+        <v>22.309383939544347</v>
       </c>
       <c r="J207">
         <f>(90-B207)+E207</f>
-        <v>91.272502547174923</v>
+        <v>44.33982188594122</v>
       </c>
     </row>
     <row r="208" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B208">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C208">
         <f>B208*PI()/180</f>
-        <v>0.6108652381980153</v>
+        <v>0.57595865315812877</v>
       </c>
       <c r="E208">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C208))-$B$2)/$B$3))</f>
-        <v>25.276044551275302</v>
+        <v>-4.9132406096156247</v>
       </c>
       <c r="F208">
         <f>E208*PI()/180</f>
-        <v>0.44115019930052668</v>
+        <v>-8.5752225580486022E-2</v>
       </c>
       <c r="H208">
-        <f>$B$4+$B$3*SIN(B208)-$B$3*COS(E208)</f>
-        <v>-67.056198932122058</v>
+        <f>$B$4+$B$3*SIN(C208)-$B$3*COS(F208)</f>
+        <v>42.013628401014714</v>
       </c>
       <c r="I208">
         <f>ABS($C$136-H208)</f>
-        <v>167.05619893212207</v>
+        <v>22.986371598985286</v>
       </c>
       <c r="J208">
         <f>(90-B208)+E208</f>
-        <v>80.276044551275305</v>
+        <v>52.086759390384373</v>
       </c>
     </row>
     <row r="209" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B209">
-        <v>8</v>
+        <v>64.5</v>
       </c>
       <c r="C209">
         <f>B209*PI()/180</f>
-        <v>0.13962634015954636</v>
+        <v>1.1257373675363425</v>
       </c>
       <c r="E209">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C209))-$B$2)/$B$3))</f>
-        <v>14.824775577477039</v>
+        <v>18.814926531033038</v>
       </c>
       <c r="F209">
         <f>E209*PI()/180</f>
-        <v>0.25874114469621806</v>
+        <v>0.32838241648736155</v>
       </c>
       <c r="H209">
-        <f>$B$4+$B$3*SIN(B209)-$B$3*COS(E209)</f>
-        <v>276.32268282127893</v>
+        <f>$B$4+$B$3*SIN(C209)-$B$3*COS(F209)</f>
+        <v>88.03553896423584</v>
       </c>
       <c r="I209">
         <f>ABS($C$136-H209)</f>
-        <v>176.32268282127893</v>
+        <v>23.03553896423584</v>
       </c>
       <c r="J209">
         <f>(90-B209)+E209</f>
-        <v>96.824775577477041</v>
+        <v>44.314926531033038</v>
       </c>
     </row>
     <row r="210" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B210">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C210">
         <f>B210*PI()/180</f>
-        <v>1.0297442586766543</v>
+        <v>1.1344640137963142</v>
       </c>
       <c r="E210">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C210))-$B$2)/$B$3))</f>
-        <v>46.978169470528378</v>
+        <v>19.293367537102117</v>
       </c>
       <c r="F210">
         <f>E210*PI()/180</f>
-        <v>0.81992373382060146</v>
+        <v>0.33673278731982115</v>
       </c>
       <c r="H210">
-        <f>$B$4+$B$3*SIN(B210)-$B$3*COS(E210)</f>
-        <v>276.55863506703042</v>
+        <f>$B$4+$B$3*SIN(C210)-$B$3*COS(F210)</f>
+        <v>88.763453534777753</v>
       </c>
       <c r="I210">
         <f>ABS($C$136-H210)</f>
-        <v>176.55863506703042</v>
+        <v>23.763453534777753</v>
       </c>
       <c r="J210">
         <f>(90-B210)+E210</f>
-        <v>77.978169470528371</v>
+        <v>44.293367537102114</v>
       </c>
     </row>
     <row r="211" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B211">
-        <v>62</v>
+        <v>32.5</v>
       </c>
       <c r="C211">
         <f>B211*PI()/180</f>
-        <v>1.0821041362364843</v>
+        <v>0.56723200689815712</v>
       </c>
       <c r="E211">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C211))-$B$2)/$B$3))</f>
-        <v>50.955805381795642</v>
+        <v>-5.1847808759329936</v>
       </c>
       <c r="F211">
         <f>E211*PI()/180</f>
-        <v>0.88934657691778018</v>
+        <v>-9.0491497279466357E-2</v>
       </c>
       <c r="H211">
-        <f>$B$4+$B$3*SIN(B211)-$B$3*COS(E211)</f>
-        <v>-77.473759808369593</v>
+        <f>$B$4+$B$3*SIN(C211)-$B$3*COS(F211)</f>
+        <v>41.232235347645386</v>
       </c>
       <c r="I211">
         <f>ABS($C$136-H211)</f>
-        <v>177.47375980836961</v>
+        <v>23.767764652354614</v>
       </c>
       <c r="J211">
         <f>(90-B211)+E211</f>
-        <v>78.955805381795642</v>
+        <v>52.315219124067006</v>
       </c>
     </row>
     <row r="212" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B212">
-        <v>40</v>
+        <v>65.5</v>
       </c>
       <c r="C212">
         <f>B212*PI()/180</f>
-        <v>0.69813170079773179</v>
+        <v>1.143190660056286</v>
       </c>
       <c r="E212">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C212))-$B$2)/$B$3))</f>
-        <v>28.691112293931194</v>
+        <v>19.775170813359903</v>
       </c>
       <c r="F212">
         <f>E212*PI()/180</f>
-        <v>0.50075437558852243</v>
+        <v>0.34514184083741539</v>
       </c>
       <c r="H212">
-        <f>$B$4+$B$3*SIN(B212)-$B$3*COS(E212)</f>
-        <v>280.3256012908713</v>
+        <f>$B$4+$B$3*SIN(C212)-$B$3*COS(F212)</f>
+        <v>89.493247099778088</v>
       </c>
       <c r="I212">
         <f>ABS($C$136-H212)</f>
-        <v>180.3256012908713</v>
+        <v>24.493247099778088</v>
       </c>
       <c r="J212">
         <f>(90-B212)+E212</f>
-        <v>78.691112293931198</v>
+        <v>44.275170813359907</v>
       </c>
     </row>
     <row r="213" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B213">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="C213">
         <f>B213*PI()/180</f>
-        <v>1.1170107212763709</v>
+        <v>0.55850536063818546</v>
       </c>
       <c r="E213">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C213))-$B$2)/$B$3))</f>
-        <v>53.877721654050532</v>
+        <v>-5.452741261007005</v>
       </c>
       <c r="F213">
         <f>E213*PI()/180</f>
-        <v>0.94034363633622697</v>
+        <v>-9.5168288263919723E-2</v>
       </c>
       <c r="H213">
-        <f>$B$4+$B$3*SIN(B213)-$B$3*COS(E213)</f>
-        <v>297.45969408505425</v>
+        <f>$B$4+$B$3*SIN(C213)-$B$3*COS(F213)</f>
+        <v>40.4480781063981</v>
       </c>
       <c r="I213">
         <f>ABS($C$136-H213)</f>
-        <v>197.45969408505425</v>
+        <v>24.5519218936019</v>
       </c>
       <c r="J213">
         <f>(90-B213)+E213</f>
-        <v>79.877721654050532</v>
+        <v>52.547258738992994</v>
       </c>
     </row>
     <row r="214" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B214">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C214">
         <f>B214*PI()/180</f>
-        <v>0.62831853071795862</v>
+        <v>1.1519173063162575</v>
       </c>
       <c r="E214">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C214))-$B$2)/$B$3))</f>
-        <v>25.919943372172682</v>
+        <v>20.260363959413915</v>
       </c>
       <c r="F214">
         <f>E214*PI()/180</f>
-        <v>0.45238835377489522</v>
+        <v>0.35361005874416762</v>
       </c>
       <c r="H214">
-        <f>$B$4+$B$3*SIN(B214)-$B$3*COS(E214)</f>
-        <v>-98.626090171907961</v>
+        <f>$B$4+$B$3*SIN(C214)-$B$3*COS(F214)</f>
+        <v>90.225042122176916</v>
       </c>
       <c r="I214">
         <f>ABS($C$136-H214)</f>
-        <v>198.62609017190798</v>
+        <v>25.225042122176916</v>
       </c>
       <c r="J214">
         <f>(90-B214)+E214</f>
-        <v>79.919943372172682</v>
+        <v>44.260363959413915</v>
       </c>
     </row>
     <row r="215" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B215">
-        <v>43</v>
+        <v>31.5</v>
       </c>
       <c r="C215">
         <f>B215*PI()/180</f>
-        <v>0.75049157835756164</v>
+        <v>0.5497787143782138</v>
       </c>
       <c r="E215">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C215))-$B$2)/$B$3))</f>
-        <v>30.982628746471587</v>
+        <v>-5.7171025322305296</v>
       </c>
       <c r="F215">
         <f>E215*PI()/180</f>
-        <v>0.54074888254897269</v>
+        <v>-9.9782262861527971E-2</v>
       </c>
       <c r="H215">
-        <f>$B$4+$B$3*SIN(B215)-$B$3*COS(E215)</f>
-        <v>-103.33904710236004</v>
+        <f>$B$4+$B$3*SIN(C215)-$B$3*COS(F215)</f>
+        <v>39.661116748488922</v>
       </c>
       <c r="I215">
         <f>ABS($C$136-H215)</f>
-        <v>203.33904710236004</v>
+        <v>25.338883251511078</v>
       </c>
       <c r="J215">
         <f>(90-B215)+E215</f>
-        <v>77.98262874647159</v>
+        <v>52.782897467769473</v>
       </c>
     </row>
     <row r="216" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B216">
-        <v>61</v>
+        <v>66.5</v>
       </c>
       <c r="C216">
         <f>B216*PI()/180</f>
-        <v>1.064650843716541</v>
+        <v>1.1606439525762291</v>
       </c>
       <c r="E216">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C216))-$B$2)/$B$3))</f>
-        <v>49.580903756835973</v>
+        <v>20.748976334672673</v>
       </c>
       <c r="F216">
         <f>E216*PI()/180</f>
-        <v>0.8653500166712137</v>
+        <v>0.36213795345842303</v>
       </c>
       <c r="H216">
-        <f>$B$4+$B$3*SIN(B216)-$B$3*COS(E216)</f>
-        <v>-103.50187572796011</v>
+        <f>$B$4+$B$3*SIN(C216)-$B$3*COS(F216)</f>
+        <v>90.958964227144961</v>
       </c>
       <c r="I216">
         <f>ABS($C$136-H216)</f>
-        <v>203.50187572796011</v>
+        <v>25.958964227144961</v>
       </c>
       <c r="J216">
         <f>(90-B216)+E216</f>
-        <v>78.580903756835966</v>
+        <v>44.248976334672676</v>
       </c>
     </row>
     <row r="217" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B217">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C217">
         <f>B217*PI()/180</f>
-        <v>0.41887902047863906</v>
+        <v>0.54105206811824214</v>
       </c>
       <c r="E217">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C217))-$B$2)/$B$3))</f>
-        <v>19.425835715800854</v>
+        <v>-5.9778453020163358</v>
       </c>
       <c r="F217">
         <f>E217*PI()/180</f>
-        <v>0.33904479319223435</v>
+        <v>-0.10433308269505989</v>
       </c>
       <c r="H217">
-        <f>$B$4+$B$3*SIN(B217)-$B$3*COS(E217)</f>
-        <v>-103.87107094450489</v>
+        <f>$B$4+$B$3*SIN(C217)-$B$3*COS(F217)</f>
+        <v>38.87131232441385</v>
       </c>
       <c r="I217">
         <f>ABS($C$136-H217)</f>
-        <v>203.87107094450491</v>
+        <v>26.12868767558615</v>
       </c>
       <c r="J217">
         <f>(90-B217)+E217</f>
-        <v>85.425835715800858</v>
+        <v>53.022154697983666</v>
       </c>
     </row>
     <row r="218" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B218">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C218">
         <f>B218*PI()/180</f>
-        <v>1.2915436464758039</v>
+        <v>1.1693705988362006</v>
       </c>
       <c r="E218">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C218))-$B$2)/$B$3))</f>
-        <v>76.047158447015988</v>
+        <v>21.241039131985229</v>
       </c>
       <c r="F218">
         <f>E218*PI()/180</f>
-        <v>1.3272733016862466</v>
+        <v>0.3707260693981006</v>
       </c>
       <c r="H218">
-        <f>$B$4+$B$3*SIN(B218)-$B$3*COS(E218)</f>
-        <v>-108.13796821498477</v>
+        <f>$B$4+$B$3*SIN(C218)-$B$3*COS(F218)</f>
+        <v>91.695142359074097</v>
       </c>
       <c r="I218">
         <f>ABS($C$136-H218)</f>
-        <v>208.13796821498477</v>
+        <v>26.695142359074097</v>
       </c>
       <c r="J218">
         <f>(90-B218)+E218</f>
-        <v>92.047158447015988</v>
+        <v>44.241039131985232</v>
       </c>
     </row>
     <row r="219" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B219">
-        <v>39</v>
+        <v>30.5</v>
       </c>
       <c r="C219">
         <f>B219*PI()/180</f>
-        <v>0.68067840827778847</v>
+        <v>0.53232542185827048</v>
       </c>
       <c r="E219">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C219))-$B$2)/$B$3))</f>
-        <v>27.968489917592663</v>
+        <v>-6.2349500420215644</v>
       </c>
       <c r="F219">
         <f>E219*PI()/180</f>
-        <v>0.48814223587282946</v>
+        <v>-0.10882040693063509</v>
       </c>
       <c r="H219">
-        <f>$B$4+$B$3*SIN(B219)-$B$3*COS(E219)</f>
-        <v>309.43482091653169</v>
+        <f>$B$4+$B$3*SIN(C219)-$B$3*COS(F219)</f>
+        <v>38.078626883817506</v>
       </c>
       <c r="I219">
         <f>ABS($C$136-H219)</f>
-        <v>209.43482091653169</v>
+        <v>26.921373116182494</v>
       </c>
       <c r="J219">
         <f>(90-B219)+E219</f>
-        <v>78.968489917592663</v>
+        <v>53.265049957978434</v>
       </c>
     </row>
     <row r="220" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B220">
-        <v>14</v>
+        <v>67.5</v>
       </c>
       <c r="C220">
         <f>B220*PI()/180</f>
-        <v>0.24434609527920614</v>
+        <v>1.1780972450961724</v>
       </c>
       <c r="E220">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C220))-$B$2)/$B$3))</f>
-        <v>16.011849183825898</v>
+        <v>21.736585455837329</v>
       </c>
       <c r="F220">
         <f>E220*PI()/180</f>
-        <v>0.27945948759052869</v>
+        <v>0.37937498434547384</v>
       </c>
       <c r="H220">
-        <f>$B$4+$B$3*SIN(B220)-$B$3*COS(E220)</f>
-        <v>312.52769970343286</v>
+        <f>$B$4+$B$3*SIN(C220)-$B$3*COS(F220)</f>
+        <v>92.433708948315186</v>
       </c>
       <c r="I220">
         <f>ABS($C$136-H220)</f>
-        <v>212.52769970343286</v>
+        <v>27.433708948315186</v>
       </c>
       <c r="J220">
         <f>(90-B220)+E220</f>
-        <v>92.011849183825902</v>
+        <v>44.236585455837329</v>
       </c>
     </row>
     <row r="221" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B221">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C221">
         <f>B221*PI()/180</f>
-        <v>0.40142572795869574</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="E221">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C221))-$B$2)/$B$3))</f>
-        <v>19.003567043776108</v>
+        <v>-6.4883970974928928</v>
       </c>
       <c r="F221">
         <f>E221*PI()/180</f>
-        <v>0.33167481453737846</v>
+        <v>-0.1132438925280945</v>
       </c>
       <c r="H221">
-        <f>$B$4+$B$3*SIN(B221)-$B$3*COS(E221)</f>
-        <v>-114.06527888920948</v>
+        <f>$B$4+$B$3*SIN(C221)-$B$3*COS(F221)</f>
+        <v>37.28302349615177</v>
       </c>
       <c r="I221">
         <f>ABS($C$136-H221)</f>
-        <v>214.06527888920948</v>
+        <v>27.71697650384823</v>
       </c>
       <c r="J221">
         <f>(90-B221)+E221</f>
-        <v>86.003567043776115</v>
+        <v>53.511602902507107</v>
       </c>
     </row>
     <row r="222" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B222">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C222">
         <f>B222*PI()/180</f>
-        <v>1.3264502315156903</v>
-      </c>
-      <c r="E222" t="e">
+        <v>1.1868238913561442</v>
+      </c>
+      <c r="E222">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C222))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F222" t="e">
+        <v>22.235650405453885</v>
+      </c>
+      <c r="F222">
         <f>E222*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H222" t="e">
-        <f>$B$4+$B$3*SIN(B222)-$B$3*COS(E222)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I222" t="e">
+        <v>0.38808531089758236</v>
+      </c>
+      <c r="H222">
+        <f>$B$4+$B$3*SIN(C222)-$B$3*COS(F222)</f>
+        <v>93.174800088377438</v>
+      </c>
+      <c r="I222">
         <f>ABS($C$136-H222)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J222" t="e">
+        <v>28.174800088377438</v>
+      </c>
+      <c r="J222">
         <f>(90-B222)+E222</f>
-        <v>#NUM!</v>
+        <v>44.235650405453882</v>
       </c>
     </row>
     <row r="223" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B223">
-        <v>77</v>
+        <v>29.5</v>
       </c>
       <c r="C223">
         <f>B223*PI()/180</f>
-        <v>1.3439035240356338</v>
-      </c>
-      <c r="E223" t="e">
+        <v>0.51487212933832716</v>
+      </c>
+      <c r="E223">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C223))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F223" t="e">
+        <v>-6.7381667017331814</v>
+      </c>
+      <c r="F223">
         <f>E223*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H223" t="e">
-        <f>$B$4+$B$3*SIN(B223)-$B$3*COS(E223)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I223" t="e">
+        <v>-0.11760319449349073</v>
+      </c>
+      <c r="H223">
+        <f>$B$4+$B$3*SIN(C223)-$B$3*COS(F223)</f>
+        <v>36.484466272101002</v>
+      </c>
+      <c r="I223">
         <f>ABS($C$136-H223)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J223" t="e">
+        <v>28.515533727898998</v>
+      </c>
+      <c r="J223">
         <f>(90-B223)+E223</f>
-        <v>#NUM!</v>
+        <v>53.761833298266822</v>
       </c>
     </row>
     <row r="224" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B224">
-        <v>78</v>
+        <v>68.5</v>
       </c>
       <c r="C224">
         <f>B224*PI()/180</f>
-        <v>1.3613568165555769</v>
-      </c>
-      <c r="E224" t="e">
+        <v>1.1955505376161157</v>
+      </c>
+      <c r="E224">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C224))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F224" t="e">
+        <v>22.738271163189225</v>
+      </c>
+      <c r="F224">
         <f>E224*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H224" t="e">
-        <f>$B$4+$B$3*SIN(B224)-$B$3*COS(E224)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I224" t="e">
+        <v>0.39685769800893278</v>
+      </c>
+      <c r="H224">
+        <f>$B$4+$B$3*SIN(C224)-$B$3*COS(F224)</f>
+        <v>93.918555724367792</v>
+      </c>
+      <c r="I224">
         <f>ABS($C$136-H224)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J224" t="e">
+        <v>28.918555724367792</v>
+      </c>
+      <c r="J224">
         <f>(90-B224)+E224</f>
-        <v>#NUM!</v>
+        <v>44.238271163189225</v>
       </c>
     </row>
     <row r="225" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B225">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C225">
         <f>B225*PI()/180</f>
-        <v>1.3788101090755203</v>
-      </c>
-      <c r="E225" t="e">
+        <v>0.50614548307835561</v>
+      </c>
+      <c r="E225">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C225))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F225" t="e">
+        <v>-6.9842389906897306</v>
+      </c>
+      <c r="F225">
         <f>E225*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H225" t="e">
-        <f>$B$4+$B$3*SIN(B225)-$B$3*COS(E225)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I225" t="e">
+        <v>-0.12189796613370139</v>
+      </c>
+      <c r="H225">
+        <f>$B$4+$B$3*SIN(C225)-$B$3*COS(F225)</f>
+        <v>35.682920385750336</v>
+      </c>
+      <c r="I225">
         <f>ABS($C$136-H225)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J225" t="e">
+        <v>29.317079614249664</v>
+      </c>
+      <c r="J225">
         <f>(90-B225)+E225</f>
-        <v>#NUM!</v>
+        <v>54.015761009310268</v>
       </c>
     </row>
     <row r="226" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B226">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C226">
         <f>B226*PI()/180</f>
-        <v>1.3962634015954636</v>
-      </c>
-      <c r="E226" t="e">
+        <v>1.2042771838760873</v>
+      </c>
+      <c r="E226">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C226))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F226" t="e">
+        <v>23.244487088621185</v>
+      </c>
+      <c r="F226">
         <f>E226*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H226" t="e">
-        <f>$B$4+$B$3*SIN(B226)-$B$3*COS(E226)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I226" t="e">
+        <v>0.40569283263375061</v>
+      </c>
+      <c r="H226">
+        <f>$B$4+$B$3*SIN(C226)-$B$3*COS(F226)</f>
+        <v>94.66511985352119</v>
+      </c>
+      <c r="I226">
         <f>ABS($C$136-H226)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J226" t="e">
+        <v>29.66511985352119</v>
+      </c>
+      <c r="J226">
         <f>(90-B226)+E226</f>
-        <v>#NUM!</v>
+        <v>44.244487088621185</v>
       </c>
     </row>
     <row r="227" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B227">
-        <v>81</v>
+        <v>28.5</v>
       </c>
       <c r="C227">
         <f>B227*PI()/180</f>
-        <v>1.4137166941154069</v>
-      </c>
-      <c r="E227" t="e">
+        <v>0.49741883681838389</v>
+      </c>
+      <c r="E227">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C227))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F227" t="e">
+        <v>-7.2265940176635537</v>
+      </c>
+      <c r="F227">
         <f>E227*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H227" t="e">
-        <f>$B$4+$B$3*SIN(B227)-$B$3*COS(E227)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I227" t="e">
+        <v>-0.12612785931315426</v>
+      </c>
+      <c r="H227">
+        <f>$B$4+$B$3*SIN(C227)-$B$3*COS(F227)</f>
+        <v>34.878352097472273</v>
+      </c>
+      <c r="I227">
         <f>ABS($C$136-H227)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J227" t="e">
+        <v>30.121647902527727</v>
+      </c>
+      <c r="J227">
         <f>(90-B227)+E227</f>
-        <v>#NUM!</v>
+        <v>54.273405982336449</v>
       </c>
     </row>
     <row r="228" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B228">
-        <v>82</v>
+        <v>69.5</v>
       </c>
       <c r="C228">
         <f>B228*PI()/180</f>
-        <v>1.43116998663535</v>
-      </c>
-      <c r="E228" t="e">
+        <v>1.2130038301360591</v>
+      </c>
+      <c r="E228">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C228))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F228" t="e">
+        <v>23.754339818803015</v>
+      </c>
+      <c r="F228">
         <f>E228*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H228" t="e">
-        <f>$B$4+$B$3*SIN(B228)-$B$3*COS(E228)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I228" t="e">
+        <v>0.41459144147570581</v>
+      </c>
+      <c r="H228">
+        <f>$B$4+$B$3*SIN(C228)-$B$3*COS(F228)</f>
+        <v>95.414640738750933</v>
+      </c>
+      <c r="I228">
         <f>ABS($C$136-H228)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J228" t="e">
+        <v>30.414640738750933</v>
+      </c>
+      <c r="J228">
         <f>(90-B228)+E228</f>
-        <v>#NUM!</v>
+        <v>44.254339818803018</v>
       </c>
     </row>
     <row r="229" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B229">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C229">
         <f>B229*PI()/180</f>
-        <v>1.4486232791552935</v>
-      </c>
-      <c r="E229" t="e">
+        <v>0.48869219055841229</v>
+      </c>
+      <c r="E229">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C229))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F229" t="e">
+        <v>-7.465211768138019</v>
+      </c>
+      <c r="F229">
         <f>E229*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H229" t="e">
-        <f>$B$4+$B$3*SIN(B229)-$B$3*COS(E229)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I229" t="e">
+        <v>-0.13029252471263594</v>
+      </c>
+      <c r="H229">
+        <f>$B$4+$B$3*SIN(C229)-$B$3*COS(F229)</f>
+        <v>34.070728777506005</v>
+      </c>
+      <c r="I229">
         <f>ABS($C$136-H229)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J229" t="e">
+        <v>30.929271222493995</v>
+      </c>
+      <c r="J229">
         <f>(90-B229)+E229</f>
-        <v>#NUM!</v>
+        <v>54.534788231861981</v>
       </c>
     </row>
     <row r="230" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B230">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="C230">
         <f>B230*PI()/180</f>
-        <v>1.4660765716752369</v>
-      </c>
-      <c r="E230" t="e">
+        <v>1.2217304763960306</v>
+      </c>
+      <c r="E230">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C230))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F230" t="e">
+        <v>24.26787337517019</v>
+      </c>
+      <c r="F230">
         <f>E230*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H230" t="e">
-        <f>$B$4+$B$3*SIN(B230)-$B$3*COS(E230)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I230" t="e">
+        <v>0.42355429285378887</v>
+      </c>
+      <c r="H230">
+        <f>$B$4+$B$3*SIN(C230)-$B$3*COS(F230)</f>
+        <v>96.167271136235968</v>
+      </c>
+      <c r="I230">
         <f>ABS($C$136-H230)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J230" t="e">
+        <v>31.167271136235968</v>
+      </c>
+      <c r="J230">
         <f>(90-B230)+E230</f>
-        <v>#NUM!</v>
+        <v>44.26787337517019</v>
       </c>
     </row>
     <row r="231" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B231">
-        <v>85</v>
+        <v>27.5</v>
       </c>
       <c r="C231">
         <f>B231*PI()/180</f>
-        <v>1.4835298641951802</v>
-      </c>
-      <c r="E231" t="e">
+        <v>0.47996554429844063</v>
+      </c>
+      <c r="E231">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C231))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F231" t="e">
+        <v>-7.7000721747249194</v>
+      </c>
+      <c r="F231">
         <f>E231*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H231" t="e">
-        <f>$B$4+$B$3*SIN(B231)-$B$3*COS(E231)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I231" t="e">
+        <v>-0.13439161209014994</v>
+      </c>
+      <c r="H231">
+        <f>$B$4+$B$3*SIN(C231)-$B$3*COS(F231)</f>
+        <v>33.260018930202861</v>
+      </c>
+      <c r="I231">
         <f>ABS($C$136-H231)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J231" t="e">
+        <v>31.739981069797139</v>
+      </c>
+      <c r="J231">
         <f>(90-B231)+E231</f>
-        <v>#NUM!</v>
+        <v>54.799927825275077</v>
       </c>
     </row>
     <row r="232" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B232">
-        <v>86</v>
+        <v>70.5</v>
       </c>
       <c r="C232">
         <f>B232*PI()/180</f>
-        <v>1.5009831567151233</v>
-      </c>
-      <c r="E232" t="e">
+        <v>1.2304571226560022</v>
+      </c>
+      <c r="E232">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C232))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F232" t="e">
+        <v>24.785134277646204</v>
+      </c>
+      <c r="F232">
         <f>E232*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H232" t="e">
-        <f>$B$4+$B$3*SIN(B232)-$B$3*COS(E232)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I232" t="e">
+        <v>0.43258219869383263</v>
+      </c>
+      <c r="H232">
+        <f>$B$4+$B$3*SIN(C232)-$B$3*COS(F232)</f>
+        <v>96.923168538160823</v>
+      </c>
+      <c r="I232">
         <f>ABS($C$136-H232)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J232" t="e">
+        <v>31.923168538160823</v>
+      </c>
+      <c r="J232">
         <f>(90-B232)+E232</f>
-        <v>#NUM!</v>
+        <v>44.285134277646208</v>
       </c>
     </row>
     <row r="233" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B233">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="C233">
         <f>B233*PI()/180</f>
-        <v>1.5184364492350666</v>
-      </c>
-      <c r="E233" t="e">
+        <v>0.47123889803846897</v>
+      </c>
+      <c r="E233">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C233))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F233" t="e">
+        <v>-7.9311551322246459</v>
+      </c>
+      <c r="F233">
         <f>E233*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H233" t="e">
-        <f>$B$4+$B$3*SIN(B233)-$B$3*COS(E233)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I233" t="e">
+        <v>-0.13842477054376628</v>
+      </c>
+      <c r="H233">
+        <f>$B$4+$B$3*SIN(C233)-$B$3*COS(F233)</f>
+        <v>32.446192218910184</v>
+      </c>
+      <c r="I233">
         <f>ABS($C$136-H233)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J233" t="e">
+        <v>32.553807781089816</v>
+      </c>
+      <c r="J233">
         <f>(90-B233)+E233</f>
-        <v>#NUM!</v>
+        <v>55.068844867775354</v>
       </c>
     </row>
     <row r="234" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B234">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C234">
         <f>B234*PI()/180</f>
-        <v>1.5358897417550099</v>
-      </c>
-      <c r="E234" t="e">
+        <v>1.2391837689159739</v>
+      </c>
+      <c r="E234">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C234))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F234" t="e">
+        <v>25.306171666543641</v>
+      </c>
+      <c r="F234">
         <f>E234*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H234" t="e">
-        <f>$B$4+$B$3*SIN(B234)-$B$3*COS(E234)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I234" t="e">
+        <v>0.44167601665608708</v>
+      </c>
+      <c r="H234">
+        <f>$B$4+$B$3*SIN(C234)-$B$3*COS(F234)</f>
+        <v>97.682495431829238</v>
+      </c>
+      <c r="I234">
         <f>ABS($C$136-H234)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J234" t="e">
+        <v>32.682495431829238</v>
+      </c>
+      <c r="J234">
         <f>(90-B234)+E234</f>
-        <v>#NUM!</v>
+        <v>44.306171666543641</v>
       </c>
     </row>
     <row r="235" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B235">
-        <v>89</v>
+        <v>26.5</v>
       </c>
       <c r="C235">
         <f>B235*PI()/180</f>
-        <v>1.5533430342749535</v>
-      </c>
-      <c r="E235" t="e">
+        <v>0.46251225177849731</v>
+      </c>
+      <c r="E235">
         <f>DEGREES(ASIN(($C$142-($B$3*COS($C235))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F235" t="e">
+        <v>-8.1584405127968171</v>
+      </c>
+      <c r="F235">
         <f>E235*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H235" t="e">
-        <f>$B$4+$B$3*SIN(B235)-$B$3*COS(E235)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I235" t="e">
+        <v>-0.14239164877639904</v>
+      </c>
+      <c r="H235">
+        <f>$B$4+$B$3*SIN(C235)-$B$3*COS(F235)</f>
+        <v>31.629219491465363</v>
+      </c>
+      <c r="I235">
         <f>ABS($C$136-H235)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J235" t="e">
+        <v>33.370780508534637</v>
+      </c>
+      <c r="J235">
         <f>(90-B235)+E235</f>
-        <v>#NUM!</v>
+        <v>55.341559487203185</v>
       </c>
     </row>
     <row r="236" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B236">
-        <v>90</v>
+        <v>71.5</v>
       </c>
       <c r="C236">
         <f>B236*PI()/180</f>
+        <v>1.2479104151759457</v>
+      </c>
+      <c r="E236">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C236))-$B$2)/$B$3))</f>
+        <v>25.831037432915757</v>
+      </c>
+      <c r="F236">
+        <f>E236*PI()/180</f>
+        <v>0.45083665241028381</v>
+      </c>
+      <c r="H236">
+        <f>$B$4+$B$3*SIN(C236)-$B$3*COS(F236)</f>
+        <v>98.445419576495055</v>
+      </c>
+      <c r="I236">
+        <f>ABS($C$136-H236)</f>
+        <v>33.445419576495055</v>
+      </c>
+      <c r="J236">
+        <f>(90-B236)+E236</f>
+        <v>44.331037432915757</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B237">
+        <v>26</v>
+      </c>
+      <c r="C237">
+        <f>B237*PI()/180</f>
+        <v>0.4537856055185257</v>
+      </c>
+      <c r="E237">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C237))-$B$2)/$B$3))</f>
+        <v>-8.3819081812367155</v>
+      </c>
+      <c r="F237">
+        <f>E237*PI()/180</f>
+        <v>-0.14629189536243029</v>
+      </c>
+      <c r="H237">
+        <f>$B$4+$B$3*SIN(C237)-$B$3*COS(F237)</f>
+        <v>30.809072806269526</v>
+      </c>
+      <c r="I237">
+        <f>ABS($C$136-H237)</f>
+        <v>34.190927193730474</v>
+      </c>
+      <c r="J237">
+        <f>(90-B237)+E237</f>
+        <v>55.618091818763283</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B238">
+        <v>72</v>
+      </c>
+      <c r="C238">
+        <f>B238*PI()/180</f>
+        <v>1.2566370614359172</v>
+      </c>
+      <c r="E238">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C238))-$B$2)/$B$3))</f>
+        <v>26.359786358078757</v>
+      </c>
+      <c r="F238">
+        <f>E238*PI()/180</f>
+        <v>0.46006506207075931</v>
+      </c>
+      <c r="H238">
+        <f>$B$4+$B$3*SIN(C238)-$B$3*COS(F238)</f>
+        <v>99.212114299387238</v>
+      </c>
+      <c r="I238">
+        <f>ABS($C$136-H238)</f>
+        <v>34.212114299387238</v>
+      </c>
+      <c r="J238">
+        <f>(90-B238)+E238</f>
+        <v>44.359786358078757</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B239">
+        <v>72.5</v>
+      </c>
+      <c r="C239">
+        <f>B239*PI()/180</f>
+        <v>1.2653637076958888</v>
+      </c>
+      <c r="E239">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C239))-$B$2)/$B$3))</f>
+        <v>26.892476263097979</v>
+      </c>
+      <c r="F239">
+        <f>E239*PI()/180</f>
+        <v>0.46936225480548055</v>
+      </c>
+      <c r="H239">
+        <f>$B$4+$B$3*SIN(C239)-$B$3*COS(F239)</f>
+        <v>99.982758812555318</v>
+      </c>
+      <c r="I239">
+        <f>ABS($C$136-H239)</f>
+        <v>34.982758812555318</v>
+      </c>
+      <c r="J239">
+        <f>(90-B239)+E239</f>
+        <v>44.392476263097976</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B240">
+        <v>25.5</v>
+      </c>
+      <c r="C240">
+        <f>B240*PI()/180</f>
+        <v>0.44505895925855399</v>
+      </c>
+      <c r="E240">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C240))-$B$2)/$B$3))</f>
+        <v>-8.601538010352181</v>
+      </c>
+      <c r="F240">
+        <f>E240*PI()/180</f>
+        <v>-0.15012515901608764</v>
+      </c>
+      <c r="H240">
+        <f>$B$4+$B$3*SIN(C240)-$B$3*COS(F240)</f>
+        <v>29.985725458911048</v>
+      </c>
+      <c r="I240">
+        <f>ABS($C$136-H240)</f>
+        <v>35.014274541088952</v>
+      </c>
+      <c r="J240">
+        <f>(90-B240)+E240</f>
+        <v>55.898461989647821</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B241">
+        <v>73</v>
+      </c>
+      <c r="C241">
+        <f>B241*PI()/180</f>
+        <v>1.2740903539558606</v>
+      </c>
+      <c r="E241">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C241))-$B$2)/$B$3))</f>
+        <v>27.429168169112341</v>
+      </c>
+      <c r="F241">
+        <f>E241*PI()/180</f>
+        <v>0.47872929563423516</v>
+      </c>
+      <c r="H241">
+        <f>$B$4+$B$3*SIN(C241)-$B$3*COS(F241)</f>
+        <v>100.75753855232836</v>
+      </c>
+      <c r="I241">
+        <f>ABS($C$136-H241)</f>
+        <v>35.757538552328356</v>
+      </c>
+      <c r="J241">
+        <f>(90-B241)+E241</f>
+        <v>44.429168169112344</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B242">
+        <v>25</v>
+      </c>
+      <c r="C242">
+        <f>B242*PI()/180</f>
+        <v>0.43633231299858238</v>
+      </c>
+      <c r="E242">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C242))-$B$2)/$B$3))</f>
+        <v>-8.8173098964346668</v>
+      </c>
+      <c r="F242">
+        <f>E242*PI()/180</f>
+        <v>-0.15389108886146516</v>
+      </c>
+      <c r="H242">
+        <f>$B$4+$B$3*SIN(C242)-$B$3*COS(F242)</f>
+        <v>29.159152009305885</v>
+      </c>
+      <c r="I242">
+        <f>ABS($C$136-H242)</f>
+        <v>35.840847990694115</v>
+      </c>
+      <c r="J242">
+        <f>(90-B242)+E242</f>
+        <v>56.182690103565335</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B243">
+        <v>73.5</v>
+      </c>
+      <c r="C243">
+        <f>B243*PI()/180</f>
+        <v>1.2828170002158323</v>
+      </c>
+      <c r="E243">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C243))-$B$2)/$B$3))</f>
+        <v>27.969926469463243</v>
+      </c>
+      <c r="F243">
+        <f>E243*PI()/180</f>
+        <v>0.48816730843284678</v>
+      </c>
+      <c r="H243">
+        <f>$B$4+$B$3*SIN(C243)-$B$3*COS(F243)</f>
+        <v>101.53664554336939</v>
+      </c>
+      <c r="I243">
+        <f>ABS($C$136-H243)</f>
+        <v>36.536645543369389</v>
+      </c>
+      <c r="J243">
+        <f>(90-B243)+E243</f>
+        <v>44.469926469463246</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B244">
+        <v>24.5</v>
+      </c>
+      <c r="C244">
+        <f>B244*PI()/180</f>
+        <v>0.42760566673861072</v>
+      </c>
+      <c r="E244">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C244))-$B$2)/$B$3))</f>
+        <v>-9.0292037748176455</v>
+      </c>
+      <c r="F244">
+        <f>E244*PI()/180</f>
+        <v>-0.15758933470406858</v>
+      </c>
+      <c r="H244">
+        <f>$B$4+$B$3*SIN(C244)-$B$3*COS(F244)</f>
+        <v>28.329328309322378</v>
+      </c>
+      <c r="I244">
+        <f>ABS($C$136-H244)</f>
+        <v>36.670671690677622</v>
+      </c>
+      <c r="J244">
+        <f>(90-B244)+E244</f>
+        <v>56.470796225182355</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B245">
+        <v>74</v>
+      </c>
+      <c r="C245">
+        <f>B245*PI()/180</f>
+        <v>1.2915436464758039</v>
+      </c>
+      <c r="E245">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C245))-$B$2)/$B$3))</f>
+        <v>28.514819114696667</v>
+      </c>
+      <c r="F245">
+        <f>E245*PI()/180</f>
+        <v>0.49767747916207145</v>
+      </c>
+      <c r="H245">
+        <f>$B$4+$B$3*SIN(C245)-$B$3*COS(F245)</f>
+        <v>102.32027878951557</v>
+      </c>
+      <c r="I245">
+        <f>ABS($C$136-H245)</f>
+        <v>37.320278789515569</v>
+      </c>
+      <c r="J245">
+        <f>(90-B245)+E245</f>
+        <v>44.514819114696664</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B246">
+        <v>24</v>
+      </c>
+      <c r="C246">
+        <f>B246*PI()/180</f>
+        <v>0.41887902047863906</v>
+      </c>
+      <c r="E246">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C246))-$B$2)/$B$3))</f>
+        <v>-9.2371996355145161</v>
+      </c>
+      <c r="F246">
+        <f>E246*PI()/180</f>
+        <v>-0.16121954730374843</v>
+      </c>
+      <c r="H246">
+        <f>$B$4+$B$3*SIN(C246)-$B$3*COS(F246)</f>
+        <v>27.496231530855937</v>
+      </c>
+      <c r="I246">
+        <f>ABS($C$136-H246)</f>
+        <v>37.503768469144063</v>
+      </c>
+      <c r="J246">
+        <f>(90-B246)+E246</f>
+        <v>56.762800364485486</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B247">
+        <v>74.5</v>
+      </c>
+      <c r="C247">
+        <f>B247*PI()/180</f>
+        <v>1.3002702927357754</v>
+      </c>
+      <c r="E247">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C247))-$B$2)/$B$3))</f>
+        <v>29.06391781162213</v>
+      </c>
+      <c r="F247">
+        <f>E247*PI()/180</f>
+        <v>0.50726105934183119</v>
+      </c>
+      <c r="H247">
+        <f>$B$4+$B$3*SIN(C247)-$B$3*COS(F247)</f>
+        <v>103.10864469383236</v>
+      </c>
+      <c r="I247">
+        <f>ABS($C$136-H247)</f>
+        <v>38.10864469383236</v>
+      </c>
+      <c r="J247">
+        <f>(90-B247)+E247</f>
+        <v>44.563917811622133</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B248">
+        <v>23.5</v>
+      </c>
+      <c r="C248">
+        <f>B248*PI()/180</f>
+        <v>0.41015237421866746</v>
+      </c>
+      <c r="E248">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C248))-$B$2)/$B$3))</f>
+        <v>-9.4412775389275581</v>
+      </c>
+      <c r="F248">
+        <f>E248*PI()/180</f>
+        <v>-0.16478137864887299</v>
+      </c>
+      <c r="H248">
+        <f>$B$4+$B$3*SIN(C248)-$B$3*COS(F248)</f>
+        <v>26.659840194317852</v>
+      </c>
+      <c r="I248">
+        <f>ABS($C$136-H248)</f>
+        <v>38.340159805682148</v>
+      </c>
+      <c r="J248">
+        <f>(90-B248)+E248</f>
+        <v>57.058722461072442</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B249">
+        <v>75</v>
+      </c>
+      <c r="C249">
+        <f>B249*PI()/180</f>
+        <v>1.3089969389957472</v>
+      </c>
+      <c r="E249">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C249))-$B$2)/$B$3))</f>
+        <v>29.617298237742798</v>
+      </c>
+      <c r="F249">
+        <f>E249*PI()/180</f>
+        <v>0.5169193697937261</v>
+      </c>
+      <c r="H249">
+        <f>$B$4+$B$3*SIN(C249)-$B$3*COS(F249)</f>
+        <v>103.90195751057422</v>
+      </c>
+      <c r="I249">
+        <f>ABS($C$136-H249)</f>
+        <v>38.901957510574221</v>
+      </c>
+      <c r="J249">
+        <f>(90-B249)+E249</f>
+        <v>44.617298237742801</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B250">
+        <v>23</v>
+      </c>
+      <c r="C250">
+        <f>B250*PI()/180</f>
+        <v>0.40142572795869574</v>
+      </c>
+      <c r="E250">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C250))-$B$2)/$B$3))</f>
+        <v>-9.6414176316186389</v>
+      </c>
+      <c r="F250">
+        <f>E250*PI()/180</f>
+        <v>-0.16827448223157898</v>
+      </c>
+      <c r="H250">
+        <f>$B$4+$B$3*SIN(C250)-$B$3*COS(F250)</f>
+        <v>25.820134197502426</v>
+      </c>
+      <c r="I250">
+        <f>ABS($C$136-H250)</f>
+        <v>39.179865802497574</v>
+      </c>
+      <c r="J250">
+        <f>(90-B250)+E250</f>
+        <v>57.358582368381363</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B251">
+        <v>75.5</v>
+      </c>
+      <c r="C251">
+        <f>B251*PI()/180</f>
+        <v>1.3177235852557188</v>
+      </c>
+      <c r="E251">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C251))-$B$2)/$B$3))</f>
+        <v>30.1750402725174</v>
+      </c>
+      <c r="F251">
+        <f>E251*PI()/180</f>
+        <v>0.52665380467731571</v>
+      </c>
+      <c r="H251">
+        <f>$B$4+$B$3*SIN(C251)-$B$3*COS(F251)</f>
+        <v>104.70043983204644</v>
+      </c>
+      <c r="I251">
+        <f>ABS($C$136-H251)</f>
+        <v>39.700439832046442</v>
+      </c>
+      <c r="J251">
+        <f>(90-B251)+E251</f>
+        <v>44.6750402725174</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B252">
+        <v>22.5</v>
+      </c>
+      <c r="C252">
+        <f>B252*PI()/180</f>
+        <v>0.39269908169872414</v>
+      </c>
+      <c r="E252">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C252))-$B$2)/$B$3))</f>
+        <v>-9.837600162131606</v>
+      </c>
+      <c r="F252">
+        <f>E252*PI()/180</f>
+        <v>-0.17169851332392452</v>
+      </c>
+      <c r="H252">
+        <f>$B$4+$B$3*SIN(C252)-$B$3*COS(F252)</f>
+        <v>24.977094844793754</v>
+      </c>
+      <c r="I252">
+        <f>ABS($C$136-H252)</f>
+        <v>40.022905155206246</v>
+      </c>
+      <c r="J252">
+        <f>(90-B252)+E252</f>
+        <v>57.662399837868392</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B253">
+        <v>76</v>
+      </c>
+      <c r="C253">
+        <f>B253*PI()/180</f>
+        <v>1.3264502315156903</v>
+      </c>
+      <c r="E253">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C253))-$B$2)/$B$3))</f>
+        <v>30.737228247081298</v>
+      </c>
+      <c r="F253">
+        <f>E253*PI()/180</f>
+        <v>0.53646583584857377</v>
+      </c>
+      <c r="H253">
+        <f>$B$4+$B$3*SIN(C253)-$B$3*COS(F253)</f>
+        <v>105.50432311370055</v>
+      </c>
+      <c r="I253">
+        <f>ABS($C$136-H253)</f>
+        <v>40.504323113700551</v>
+      </c>
+      <c r="J253">
+        <f>(90-B253)+E253</f>
+        <v>44.737228247081298</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B254">
+        <v>22</v>
+      </c>
+      <c r="C254">
+        <f>B254*PI()/180</f>
+        <v>0.38397243543875248</v>
+      </c>
+      <c r="E254">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C254))-$B$2)/$B$3))</f>
+        <v>-10.029805496855769</v>
+      </c>
+      <c r="F254">
+        <f>E254*PI()/180</f>
+        <v>-0.17505312925475891</v>
+      </c>
+      <c r="H254">
+        <f>$B$4+$B$3*SIN(C254)-$B$3*COS(F254)</f>
+        <v>24.13070487667396</v>
+      </c>
+      <c r="I254">
+        <f>ABS($C$136-H254)</f>
+        <v>40.86929512332604</v>
+      </c>
+      <c r="J254">
+        <f>(90-B254)+E254</f>
+        <v>57.970194503144228</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B255">
+        <v>76.5</v>
+      </c>
+      <c r="C255">
+        <f>B255*PI()/180</f>
+        <v>1.3351768777756621</v>
+      </c>
+      <c r="E255">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C255))-$B$2)/$B$3))</f>
+        <v>31.303951214241398</v>
+      </c>
+      <c r="F255">
+        <f>E255*PI()/180</f>
+        <v>0.54635701757218924</v>
+      </c>
+      <c r="H255">
+        <f>$B$4+$B$3*SIN(C255)-$B$3*COS(F255)</f>
+        <v>106.31384824118135</v>
+      </c>
+      <c r="I255">
+        <f>ABS($C$136-H255)</f>
+        <v>41.313848241181347</v>
+      </c>
+      <c r="J255">
+        <f>(90-B255)+E255</f>
+        <v>44.803951214241394</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B256">
+        <v>21.5</v>
+      </c>
+      <c r="C256">
+        <f>B256*PI()/180</f>
+        <v>0.37524578917878082</v>
+      </c>
+      <c r="E256">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C256))-$B$2)/$B$3))</f>
+        <v>-10.2180141359187</v>
+      </c>
+      <c r="F256">
+        <f>E256*PI()/180</f>
+        <v>-0.17833798968710471</v>
+      </c>
+      <c r="H256">
+        <f>$B$4+$B$3*SIN(C256)-$B$3*COS(F256)</f>
+        <v>23.280948499492212</v>
+      </c>
+      <c r="I256">
+        <f>ABS($C$136-H256)</f>
+        <v>41.719051500507788</v>
+      </c>
+      <c r="J256">
+        <f>(90-B256)+E256</f>
+        <v>58.2819858640813</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B257">
+        <v>77</v>
+      </c>
+      <c r="C257">
+        <f>B257*PI()/180</f>
+        <v>1.3439035240356338</v>
+      </c>
+      <c r="E257">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C257))-$B$2)/$B$3))</f>
+        <v>31.875303240774425</v>
+      </c>
+      <c r="F257">
+        <f>E257*PI()/180</f>
+        <v>0.55632899162313254</v>
+      </c>
+      <c r="H257">
+        <f>$B$4+$B$3*SIN(C257)-$B$3*COS(F257)</f>
+        <v>107.12926614347884</v>
+      </c>
+      <c r="I257">
+        <f>ABS($C$136-H257)</f>
+        <v>42.129266143478844</v>
+      </c>
+      <c r="J257">
+        <f>(90-B257)+E257</f>
+        <v>44.875303240774429</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B258">
+        <v>21</v>
+      </c>
+      <c r="C258">
+        <f>B258*PI()/180</f>
+        <v>0.36651914291880922</v>
+      </c>
+      <c r="E258">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C258))-$B$2)/$B$3))</f>
+        <v>-10.402206729096395</v>
+      </c>
+      <c r="F258">
+        <f>E258*PI()/180</f>
+        <v>-0.18155275689584194</v>
+      </c>
+      <c r="H258">
+        <f>$B$4+$B$3*SIN(C258)-$B$3*COS(F258)</f>
+        <v>22.427811415454059</v>
+      </c>
+      <c r="I258">
+        <f>ABS($C$136-H258)</f>
+        <v>42.572188584545941</v>
+      </c>
+      <c r="J258">
+        <f>(90-B258)+E258</f>
+        <v>58.597793270903608</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B259">
+        <v>77.5</v>
+      </c>
+      <c r="C259">
+        <f>B259*PI()/180</f>
+        <v>1.3526301702956054</v>
+      </c>
+      <c r="E259">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C259))-$B$2)/$B$3))</f>
+        <v>32.451383724301174</v>
+      </c>
+      <c r="F259">
+        <f>E259*PI()/180</f>
+        <v>0.56638349281715528</v>
+      </c>
+      <c r="H259">
+        <f>$B$4+$B$3*SIN(C259)-$B$3*COS(F259)</f>
+        <v>107.95083845683672</v>
+      </c>
+      <c r="I259">
+        <f>ABS($C$136-H259)</f>
+        <v>42.950838456836721</v>
+      </c>
+      <c r="J259">
+        <f>(90-B259)+E259</f>
+        <v>44.951383724301174</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B260">
+        <v>20.5</v>
+      </c>
+      <c r="C260">
+        <f>B260*PI()/180</f>
+        <v>0.3577924966588375</v>
+      </c>
+      <c r="E260">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C260))-$B$2)/$B$3))</f>
+        <v>-10.582364091727829</v>
+      </c>
+      <c r="F260">
+        <f>E260*PI()/180</f>
+        <v>-0.18469709604546986</v>
+      </c>
+      <c r="H260">
+        <f>$B$4+$B$3*SIN(C260)-$B$3*COS(F260)</f>
+        <v>21.571280852788149</v>
+      </c>
+      <c r="I260">
+        <f>ABS($C$136-H260)</f>
+        <v>43.428719147211851</v>
+      </c>
+      <c r="J260">
+        <f>(90-B260)+E260</f>
+        <v>58.917635908272175</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B261">
+        <v>78</v>
+      </c>
+      <c r="C261">
+        <f>B261*PI()/180</f>
+        <v>1.3613568165555769</v>
+      </c>
+      <c r="E261">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C261))-$B$2)/$B$3))</f>
+        <v>33.032297737287188</v>
+      </c>
+      <c r="F261">
+        <f>E261*PI()/180</f>
+        <v>0.57652235501473426</v>
+      </c>
+      <c r="H261">
+        <f>$B$4+$B$3*SIN(C261)-$B$3*COS(F261)</f>
+        <v>108.77883824463383</v>
+      </c>
+      <c r="I261">
+        <f>ABS($C$136-H261)</f>
+        <v>43.778838244633832</v>
+      </c>
+      <c r="J261">
+        <f>(90-B261)+E261</f>
+        <v>45.032297737287188</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B262">
+        <v>20</v>
+      </c>
+      <c r="C262">
+        <f>B262*PI()/180</f>
+        <v>0.3490658503988659</v>
+      </c>
+      <c r="E262">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C262))-$B$2)/$B$3))</f>
+        <v>-10.758467220620213</v>
+      </c>
+      <c r="F262">
+        <f>E262*PI()/180</f>
+        <v>-0.1877706754677059</v>
+      </c>
+      <c r="H262">
+        <f>$B$4+$B$3*SIN(C262)-$B$3*COS(F262)</f>
+        <v>20.711345596047494</v>
+      </c>
+      <c r="I262">
+        <f>ABS($C$136-H262)</f>
+        <v>44.288654403952506</v>
+      </c>
+      <c r="J262">
+        <f>(90-B262)+E262</f>
+        <v>59.241532779379789</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B263">
+        <v>78.5</v>
+      </c>
+      <c r="C263">
+        <f>B263*PI()/180</f>
+        <v>1.3700834628155485</v>
+      </c>
+      <c r="E263">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C263))-$B$2)/$B$3))</f>
+        <v>33.618156401037929</v>
+      </c>
+      <c r="F263">
+        <f>E263*PI()/180</f>
+        <v>0.58674751764851907</v>
+      </c>
+      <c r="H263">
+        <f>$B$4+$B$3*SIN(C263)-$B$3*COS(F263)</f>
+        <v>109.61355077910305</v>
+      </c>
+      <c r="I263">
+        <f>ABS($C$136-H263)</f>
+        <v>44.613550779103051</v>
+      </c>
+      <c r="J263">
+        <f>(90-B263)+E263</f>
+        <v>45.118156401037929</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B264">
+        <v>19.5</v>
+      </c>
+      <c r="C264">
+        <f>B264*PI()/180</f>
+        <v>0.34033920413889424</v>
+      </c>
+      <c r="E264">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C264))-$B$2)/$B$3))</f>
+        <v>-10.930497309931006</v>
+      </c>
+      <c r="F264">
+        <f>E264*PI()/180</f>
+        <v>-0.19077316693867913</v>
+      </c>
+      <c r="H264">
+        <f>$B$4+$B$3*SIN(C264)-$B$3*COS(F264)</f>
+        <v>19.847996016500957</v>
+      </c>
+      <c r="I264">
+        <f>ABS($C$136-H264)</f>
+        <v>45.152003983499043</v>
+      </c>
+      <c r="J264">
+        <f>(90-B264)+E264</f>
+        <v>59.569502690068994</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B265">
+        <v>79</v>
+      </c>
+      <c r="C265">
+        <f>B265*PI()/180</f>
+        <v>1.3788101090755203</v>
+      </c>
+      <c r="E265">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C265))-$B$2)/$B$3))</f>
+        <v>34.20907729292172</v>
+      </c>
+      <c r="F265">
+        <f>E265*PI()/180</f>
+        <v>0.59706103283071266</v>
+      </c>
+      <c r="H265">
+        <f>$B$4+$B$3*SIN(C265)-$B$3*COS(F265)</f>
+        <v>110.45527439149437</v>
+      </c>
+      <c r="I265">
+        <f>ABS($C$136-H265)</f>
+        <v>45.45527439149437</v>
+      </c>
+      <c r="J265">
+        <f>(90-B265)+E265</f>
+        <v>45.20907729292172</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B266">
+        <v>19</v>
+      </c>
+      <c r="C266">
+        <f>B266*PI()/180</f>
+        <v>0.33161255787892258</v>
+      </c>
+      <c r="E266">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C266))-$B$2)/$B$3))</f>
+        <v>-11.098435767011592</v>
+      </c>
+      <c r="F266">
+        <f>E266*PI()/180</f>
+        <v>-0.19370424595545457</v>
+      </c>
+      <c r="H266">
+        <f>$B$4+$B$3*SIN(C266)-$B$3*COS(F266)</f>
+        <v>18.9812241025693</v>
+      </c>
+      <c r="I266">
+        <f>ABS($C$136-H266)</f>
+        <v>46.0187758974307</v>
+      </c>
+      <c r="J266">
+        <f>(90-B266)+E266</f>
+        <v>59.901564232988406</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B267">
+        <v>79.5</v>
+      </c>
+      <c r="C267">
+        <f>B267*PI()/180</f>
+        <v>1.387536755335492</v>
+      </c>
+      <c r="E267">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C267))-$B$2)/$B$3))</f>
+        <v>34.805184890471196</v>
+      </c>
+      <c r="F267">
+        <f>E267*PI()/180</f>
+        <v>0.60746507310410436</v>
+      </c>
+      <c r="H267">
+        <f>$B$4+$B$3*SIN(C267)-$B$3*COS(F267)</f>
+        <v>111.30432139813963</v>
+      </c>
+      <c r="I267">
+        <f>ABS($C$136-H267)</f>
+        <v>46.304321398139635</v>
+      </c>
+      <c r="J267">
+        <f>(90-B267)+E267</f>
+        <v>45.305184890471196</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B268">
+        <v>18.5</v>
+      </c>
+      <c r="C268">
+        <f>B268*PI()/180</f>
+        <v>0.32288591161895097</v>
+      </c>
+      <c r="E268">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C268))-$B$2)/$B$3))</f>
+        <v>-11.262264228197315</v>
+      </c>
+      <c r="F268">
+        <f>E268*PI()/180</f>
+        <v>-0.19656359201162116</v>
+      </c>
+      <c r="H268">
+        <f>$B$4+$B$3*SIN(C268)-$B$3*COS(F268)</f>
+        <v>18.111023490260223</v>
+      </c>
+      <c r="I268">
+        <f>ABS($C$136-H268)</f>
+        <v>46.888976509739777</v>
+      </c>
+      <c r="J268">
+        <f>(90-B268)+E268</f>
+        <v>60.237735771802683</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B269">
+        <v>80</v>
+      </c>
+      <c r="C269">
+        <f>B269*PI()/180</f>
+        <v>1.3962634015954636</v>
+      </c>
+      <c r="E269">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C269))-$B$2)/$B$3))</f>
+        <v>35.40661105649815</v>
+      </c>
+      <c r="F269">
+        <f>E269*PI()/180</f>
+        <v>0.61796193990892079</v>
+      </c>
+      <c r="H269">
+        <f>$B$4+$B$3*SIN(C269)-$B$3*COS(F269)</f>
+        <v>112.16101911086017</v>
+      </c>
+      <c r="I269">
+        <f>ABS($C$136-H269)</f>
+        <v>47.161019110860167</v>
+      </c>
+      <c r="J269">
+        <f>(90-B269)+E269</f>
+        <v>45.40661105649815</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B270">
+        <v>18</v>
+      </c>
+      <c r="C270">
+        <f>B270*PI()/180</f>
+        <v>0.31415926535897931</v>
+      </c>
+      <c r="E270">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C270))-$B$2)/$B$3))</f>
+        <v>-11.421964574527919</v>
+      </c>
+      <c r="F270">
+        <f>E270*PI()/180</f>
+        <v>-0.19935088887166544</v>
+      </c>
+      <c r="H270">
+        <f>$B$4+$B$3*SIN(C270)-$B$3*COS(F270)</f>
+        <v>17.237389493555</v>
+      </c>
+      <c r="I270">
+        <f>ABS($C$136-H270)</f>
+        <v>47.762610506445</v>
+      </c>
+      <c r="J270">
+        <f>(90-B270)+E270</f>
+        <v>60.578035425472081</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B271">
+        <v>80.5</v>
+      </c>
+      <c r="C271">
+        <f>B271*PI()/180</f>
+        <v>1.4049900478554351</v>
+      </c>
+      <c r="E271">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C271))-$B$2)/$B$3))</f>
+        <v>36.013495569913395</v>
+      </c>
+      <c r="F271">
+        <f>E271*PI()/180</f>
+        <v>0.62855407284738052</v>
+      </c>
+      <c r="H271">
+        <f>$B$4+$B$3*SIN(C271)-$B$3*COS(F271)</f>
+        <v>113.02571094128979</v>
+      </c>
+      <c r="I271">
+        <f>ABS($C$136-H271)</f>
+        <v>48.025710941289788</v>
+      </c>
+      <c r="J271">
+        <f>(90-B271)+E271</f>
+        <v>45.513495569913395</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B272">
+        <v>17.5</v>
+      </c>
+      <c r="C272">
+        <f>B272*PI()/180</f>
+        <v>0.30543261909900765</v>
+      </c>
+      <c r="E272">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C272))-$B$2)/$B$3))</f>
+        <v>-11.577518947381789</v>
+      </c>
+      <c r="F272">
+        <f>E272*PI()/180</f>
+        <v>-0.20206582484384034</v>
+      </c>
+      <c r="H272">
+        <f>$B$4+$B$3*SIN(C272)-$B$3*COS(F272)</f>
+        <v>16.360319134698855</v>
+      </c>
+      <c r="I272">
+        <f>ABS($C$136-H272)</f>
+        <v>48.639680865301145</v>
+      </c>
+      <c r="J272">
+        <f>(90-B272)+E272</f>
+        <v>60.92248105261821</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B273">
+        <v>81</v>
+      </c>
+      <c r="C273">
+        <f>B273*PI()/180</f>
+        <v>1.4137166941154069</v>
+      </c>
+      <c r="E273">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C273))-$B$2)/$B$3))</f>
+        <v>36.625986707589867</v>
+      </c>
+      <c r="F273">
+        <f>E273*PI()/180</f>
+        <v>0.6392440598391208</v>
+      </c>
+      <c r="H273">
+        <f>$B$4+$B$3*SIN(C273)-$B$3*COS(F273)</f>
+        <v>113.89875760999989</v>
+      </c>
+      <c r="I273">
+        <f>ABS($C$136-H273)</f>
+        <v>48.89875760999989</v>
+      </c>
+      <c r="J273">
+        <f>(90-B273)+E273</f>
+        <v>45.625986707589867</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B274">
+        <v>17</v>
+      </c>
+      <c r="C274">
+        <f>B274*PI()/180</f>
+        <v>0.29670597283903605</v>
+      </c>
+      <c r="E274">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C274))-$B$2)/$B$3))</f>
+        <v>-11.728909764006971</v>
+      </c>
+      <c r="F274">
+        <f>E274*PI()/180</f>
+        <v>-0.20470809305123278</v>
+      </c>
+      <c r="H274">
+        <f>$B$4+$B$3*SIN(C274)-$B$3*COS(F274)</f>
+        <v>15.479811174346793</v>
+      </c>
+      <c r="I274">
+        <f>ABS($C$136-H274)</f>
+        <v>49.520188825653207</v>
+      </c>
+      <c r="J274">
+        <f>(90-B274)+E274</f>
+        <v>61.271090235993029</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B275">
+        <v>81.5</v>
+      </c>
+      <c r="C275">
+        <f>B275*PI()/180</f>
+        <v>1.4224433403753785</v>
+      </c>
+      <c r="E275">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C275))-$B$2)/$B$3))</f>
+        <v>37.244241883359024</v>
+      </c>
+      <c r="F275">
+        <f>E275*PI()/180</f>
+        <v>0.65003464827378887</v>
+      </c>
+      <c r="H275">
+        <f>$B$4+$B$3*SIN(C275)-$B$3*COS(F275)</f>
+        <v>114.78053847283887</v>
+      </c>
+      <c r="I275">
+        <f>ABS($C$136-H275)</f>
+        <v>49.78053847283887</v>
+      </c>
+      <c r="J275">
+        <f>(90-B275)+E275</f>
+        <v>45.744241883359024</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B276">
+        <v>16.5</v>
+      </c>
+      <c r="C276">
+        <f>B276*PI()/180</f>
+        <v>0.28797932657906439</v>
+      </c>
+      <c r="E276">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C276))-$B$2)/$B$3))</f>
+        <v>-11.876119732931652</v>
+      </c>
+      <c r="F276">
+        <f>E276*PI()/180</f>
+        <v>-0.20727739170072695</v>
+      </c>
+      <c r="H276">
+        <f>$B$4+$B$3*SIN(C276)-$B$3*COS(F276)</f>
+        <v>14.595866141515614</v>
+      </c>
+      <c r="I276">
+        <f>ABS($C$136-H276)</f>
+        <v>50.404133858484386</v>
+      </c>
+      <c r="J276">
+        <f>(90-B276)+E276</f>
+        <v>61.623880267068344</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B277">
+        <v>82</v>
+      </c>
+      <c r="C277">
+        <f>B277*PI()/180</f>
+        <v>1.43116998663535</v>
+      </c>
+      <c r="E277">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C277))-$B$2)/$B$3))</f>
+        <v>37.868428351105919</v>
+      </c>
+      <c r="F277">
+        <f>E277*PI()/180</f>
+        <v>0.66092875728236555</v>
+      </c>
+      <c r="H277">
+        <f>$B$4+$B$3*SIN(C277)-$B$3*COS(F277)</f>
+        <v>115.67145297867378</v>
+      </c>
+      <c r="I277">
+        <f>ABS($C$136-H277)</f>
+        <v>50.671452978673784</v>
+      </c>
+      <c r="J277">
+        <f>(90-B277)+E277</f>
+        <v>45.868428351105919</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B278">
+        <v>16</v>
+      </c>
+      <c r="C278">
+        <f>B278*PI()/180</f>
+        <v>0.27925268031909273</v>
+      </c>
+      <c r="E278">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C278))-$B$2)/$B$3))</f>
+        <v>-12.019131869235999</v>
+      </c>
+      <c r="F278">
+        <f>E278*PI()/180</f>
+        <v>-0.20977342434954874</v>
+      </c>
+      <c r="H278">
+        <f>$B$4+$B$3*SIN(C278)-$B$3*COS(F278)</f>
+        <v>13.708486363292366</v>
+      </c>
+      <c r="I278">
+        <f>ABS($C$136-H278)</f>
+        <v>51.291513636707634</v>
+      </c>
+      <c r="J278">
+        <f>(90-B278)+E278</f>
+        <v>61.980868130764001</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B279">
+        <v>82.5</v>
+      </c>
+      <c r="C279">
+        <f>B279*PI()/180</f>
+        <v>1.4398966328953218</v>
+      </c>
+      <c r="E279">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C279))-$B$2)/$B$3))</f>
+        <v>38.498723979953084</v>
+      </c>
+      <c r="F279">
+        <f>E279*PI()/180</f>
+        <v>0.67192949126667667</v>
+      </c>
+      <c r="H279">
+        <f>$B$4+$B$3*SIN(C279)-$B$3*COS(F279)</f>
+        <v>116.57192227480094</v>
+      </c>
+      <c r="I279">
+        <f>ABS($C$136-H279)</f>
+        <v>51.57192227480094</v>
+      </c>
+      <c r="J279">
+        <f>(90-B279)+E279</f>
+        <v>45.998723979953084</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B280">
+        <v>15.5</v>
+      </c>
+      <c r="C280">
+        <f>B280*PI()/180</f>
+        <v>0.27052603405912107</v>
+      </c>
+      <c r="E280">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C280))-$B$2)/$B$3))</f>
+        <v>-12.157929509667232</v>
+      </c>
+      <c r="F280">
+        <f>E280*PI()/180</f>
+        <v>-0.21219590016907297</v>
+      </c>
+      <c r="H280">
+        <f>$B$4+$B$3*SIN(C280)-$B$3*COS(F280)</f>
+        <v>12.817675994249058</v>
+      </c>
+      <c r="I280">
+        <f>ABS($C$136-H280)</f>
+        <v>52.182324005750942</v>
+      </c>
+      <c r="J280">
+        <f>(90-B280)+E280</f>
+        <v>62.342070490332766</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B281">
+        <v>83</v>
+      </c>
+      <c r="C281">
+        <f>B281*PI()/180</f>
+        <v>1.4486232791552935</v>
+      </c>
+      <c r="E281">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C281))-$B$2)/$B$3))</f>
+        <v>39.135318110725564</v>
+      </c>
+      <c r="F281">
+        <f>E281*PI()/180</f>
+        <v>0.68304015484752789</v>
+      </c>
+      <c r="H281">
+        <f>$B$4+$B$3*SIN(C281)-$B$3*COS(F281)</f>
+        <v>117.48239097872738</v>
+      </c>
+      <c r="I281">
+        <f>ABS($C$136-H281)</f>
+        <v>52.482390978727381</v>
+      </c>
+      <c r="J281">
+        <f>(90-B281)+E281</f>
+        <v>46.135318110725564</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B282">
+        <v>15</v>
+      </c>
+      <c r="C282">
+        <f>B282*PI()/180</f>
+        <v>0.26179938779914941</v>
+      </c>
+      <c r="E282">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C282))-$B$2)/$B$3))</f>
+        <v>-12.292496327579313</v>
+      </c>
+      <c r="F282">
+        <f>E282*PI()/180</f>
+        <v>-0.21454453420557043</v>
+      </c>
+      <c r="H282">
+        <f>$B$4+$B$3*SIN(C282)-$B$3*COS(F282)</f>
+        <v>11.923441045513087</v>
+      </c>
+      <c r="I282">
+        <f>ABS($C$136-H282)</f>
+        <v>53.076558954486913</v>
+      </c>
+      <c r="J282">
+        <f>(90-B282)+E282</f>
+        <v>62.707503672420685</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B283">
+        <v>83.5</v>
+      </c>
+      <c r="C283">
+        <f>B283*PI()/180</f>
+        <v>1.4573499254152653</v>
+      </c>
+      <c r="E283">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C283))-$B$2)/$B$3))</f>
+        <v>39.778412504305379</v>
+      </c>
+      <c r="F283">
+        <f>E283*PI()/180</f>
+        <v>0.6942642694166119</v>
+      </c>
+      <c r="H283">
+        <f>$B$4+$B$3*SIN(C283)-$B$3*COS(F283)</f>
+        <v>118.40332913789371</v>
+      </c>
+      <c r="I283">
+        <f>ABS($C$136-H283)</f>
+        <v>53.403329137893707</v>
+      </c>
+      <c r="J283">
+        <f>(90-B283)+E283</f>
+        <v>46.278412504305379</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B284">
+        <v>14.5</v>
+      </c>
+      <c r="C284">
+        <f>B284*PI()/180</f>
+        <v>0.2530727415391778</v>
+      </c>
+      <c r="E284">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C284))-$B$2)/$B$3))</f>
+        <v>-12.422816347678289</v>
+      </c>
+      <c r="F284">
+        <f>E284*PI()/180</f>
+        <v>-0.21681904763756274</v>
+      </c>
+      <c r="H284">
+        <f>$B$4+$B$3*SIN(C284)-$B$3*COS(F284)</f>
+        <v>11.025789413442467</v>
+      </c>
+      <c r="I284">
+        <f>ABS($C$136-H284)</f>
+        <v>53.974210586557533</v>
+      </c>
+      <c r="J284">
+        <f>(90-B284)+E284</f>
+        <v>63.077183652321708</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B285">
+        <v>84</v>
+      </c>
+      <c r="C285">
+        <f>B285*PI()/180</f>
+        <v>1.4660765716752369</v>
+      </c>
+      <c r="E285">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C285))-$B$2)/$B$3))</f>
+        <v>40.428222394156769</v>
+      </c>
+      <c r="F285">
+        <f>E285*PI()/180</f>
+        <v>0.70560559150654034</v>
+      </c>
+      <c r="H285">
+        <f>$B$4+$B$3*SIN(C285)-$B$3*COS(F285)</f>
+        <v>119.33523440229484</v>
+      </c>
+      <c r="I285">
+        <f>ABS($C$136-H285)</f>
+        <v>54.335234402294844</v>
+      </c>
+      <c r="J285">
+        <f>(90-B285)+E285</f>
+        <v>46.428222394156769</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="C286">
+        <f>B286*PI()/180</f>
+        <v>0.24434609527920614</v>
+      </c>
+      <c r="E286">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C286))-$B$2)/$B$3))</f>
+        <v>-12.548873960554324</v>
+      </c>
+      <c r="F286">
+        <f>E286*PI()/180</f>
+        <v>-0.21901916802945398</v>
+      </c>
+      <c r="H286">
+        <f>$B$4+$B$3*SIN(C286)-$B$3*COS(F286)</f>
+        <v>10.124730907854854</v>
+      </c>
+      <c r="I286">
+        <f>ABS($C$136-H286)</f>
+        <v>54.875269092145146</v>
+      </c>
+      <c r="J286">
+        <f>(90-B286)+E286</f>
+        <v>63.451126039445676</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B287">
+        <v>84.5</v>
+      </c>
+      <c r="C287">
+        <f>B287*PI()/180</f>
+        <v>1.4748032179352084</v>
+      </c>
+      <c r="E287">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C287))-$B$2)/$B$3))</f>
+        <v>41.084977657288853</v>
+      </c>
+      <c r="F287">
+        <f>E287*PI()/180</f>
+        <v>0.7170681332279969</v>
+      </c>
+      <c r="H287">
+        <f>$B$4+$B$3*SIN(C287)-$B$3*COS(F287)</f>
+        <v>120.27863443897168</v>
+      </c>
+      <c r="I287">
+        <f>ABS($C$136-H287)</f>
+        <v>55.278634438971679</v>
+      </c>
+      <c r="J287">
+        <f>(90-B287)+E287</f>
+        <v>46.584977657288853</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B288">
+        <v>13.5</v>
+      </c>
+      <c r="C288">
+        <f>B288*PI()/180</f>
+        <v>0.23561944901923448</v>
+      </c>
+      <c r="E288">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C288))-$B$2)/$B$3))</f>
+        <v>-12.670653936980928</v>
+      </c>
+      <c r="F288">
+        <f>E288*PI()/180</f>
+        <v>-0.22114462958109932</v>
+      </c>
+      <c r="H288">
+        <f>$B$4+$B$3*SIN(C288)-$B$3*COS(F288)</f>
+        <v>9.2202772797593155</v>
+      </c>
+      <c r="I288">
+        <f>ABS($C$136-H288)</f>
+        <v>55.779722720240684</v>
+      </c>
+      <c r="J288">
+        <f>(90-B288)+E288</f>
+        <v>63.829346063019074</v>
+      </c>
+    </row>
+    <row r="289" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B289">
+        <v>85</v>
+      </c>
+      <c r="C289">
+        <f>B289*PI()/180</f>
+        <v>1.4835298641951802</v>
+      </c>
+      <c r="E289">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C289))-$B$2)/$B$3))</f>
+        <v>41.748924120286901</v>
+      </c>
+      <c r="F289">
+        <f>E289*PI()/180</f>
+        <v>0.72865618506428353</v>
+      </c>
+      <c r="H289">
+        <f>$B$4+$B$3*SIN(C289)-$B$3*COS(F289)</f>
+        <v>121.23408962212801</v>
+      </c>
+      <c r="I289">
+        <f>ABS($C$136-H289)</f>
+        <v>56.23408962212801</v>
+      </c>
+      <c r="J289">
+        <f>(90-B289)+E289</f>
+        <v>46.748924120286901</v>
+      </c>
+    </row>
+    <row r="290" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B290">
+        <v>13</v>
+      </c>
+      <c r="C290">
+        <f>B290*PI()/180</f>
+        <v>0.22689280275926285</v>
+      </c>
+      <c r="E290">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C290))-$B$2)/$B$3))</f>
+        <v>-12.788141441962146</v>
+      </c>
+      <c r="F290">
+        <f>E290*PI()/180</f>
+        <v>-0.22319517337297481</v>
+      </c>
+      <c r="H290">
+        <f>$B$4+$B$3*SIN(C290)-$B$3*COS(F290)</f>
+        <v>8.3124422485396536</v>
+      </c>
+      <c r="I290">
+        <f>ABS($C$136-H290)</f>
+        <v>56.687557751460346</v>
+      </c>
+      <c r="J290">
+        <f>(90-B290)+E290</f>
+        <v>64.211858558037846</v>
+      </c>
+    </row>
+    <row r="291" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B291">
+        <v>85.5</v>
+      </c>
+      <c r="C291">
+        <f>B291*PI()/180</f>
+        <v>1.4922565104551517</v>
+      </c>
+      <c r="E291">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C291))-$B$2)/$B$3))</f>
+        <v>42.42032501987206</v>
+      </c>
+      <c r="F291">
+        <f>E291*PI()/180</f>
+        <v>0.74037434136289637</v>
+      </c>
+      <c r="H291">
+        <f>$B$4+$B$3*SIN(C291)-$B$3*COS(F291)</f>
+        <v>122.20219603834155</v>
+      </c>
+      <c r="I291">
+        <f>ABS($C$136-H291)</f>
+        <v>57.202196038341555</v>
+      </c>
+      <c r="J291">
+        <f>(90-B291)+E291</f>
+        <v>46.92032501987206</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B292">
+        <v>12.5</v>
+      </c>
+      <c r="C292">
+        <f>B292*PI()/180</f>
+        <v>0.21816615649929119</v>
+      </c>
+      <c r="E292">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C292))-$B$2)/$B$3))</f>
+        <v>-12.90132204850798</v>
+      </c>
+      <c r="F292">
+        <f>E292*PI()/180</f>
+        <v>-0.22517054760660385</v>
+      </c>
+      <c r="H292">
+        <f>$B$4+$B$3*SIN(C292)-$B$3*COS(F292)</f>
+        <v>7.401241528538435</v>
+      </c>
+      <c r="I292">
+        <f>ABS($C$136-H292)</f>
+        <v>57.598758471461565</v>
+      </c>
+      <c r="J292">
+        <f>(90-B292)+E292</f>
+        <v>64.598677951492022</v>
+      </c>
+    </row>
+    <row r="293" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B293">
+        <v>86</v>
+      </c>
+      <c r="C293">
+        <f>B293*PI()/180</f>
+        <v>1.5009831567151233</v>
+      </c>
+      <c r="E293">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C293))-$B$2)/$B$3))</f>
+        <v>43.099462640846468</v>
+      </c>
+      <c r="F293">
+        <f>E293*PI()/180</f>
+        <v>0.75222752892306111</v>
+      </c>
+      <c r="H293">
+        <f>$B$4+$B$3*SIN(C293)-$B$3*COS(F293)</f>
+        <v>123.18358885320053</v>
+      </c>
+      <c r="I293">
+        <f>ABS($C$136-H293)</f>
+        <v>58.183588853200533</v>
+      </c>
+      <c r="J293">
+        <f>(90-B293)+E293</f>
+        <v>47.099462640846468</v>
+      </c>
+    </row>
+    <row r="294" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B294">
+        <v>12</v>
+      </c>
+      <c r="C294">
+        <f>B294*PI()/180</f>
+        <v>0.20943951023931953</v>
+      </c>
+      <c r="E294">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C294))-$B$2)/$B$3))</f>
+        <v>-13.010181751118695</v>
+      </c>
+      <c r="F294">
+        <f>E294*PI()/180</f>
+        <v>-0.22707050783990271</v>
+      </c>
+      <c r="H294">
+        <f>$B$4+$B$3*SIN(C294)-$B$3*COS(F294)</f>
+        <v>6.4866928549909488</v>
+      </c>
+      <c r="I294">
+        <f>ABS($C$136-H294)</f>
+        <v>58.513307145009051</v>
+      </c>
+      <c r="J294">
+        <f>(90-B294)+E294</f>
+        <v>64.989818248881306</v>
+      </c>
+    </row>
+    <row r="295" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B295">
+        <v>86.5</v>
+      </c>
+      <c r="C295">
+        <f>B295*PI()/180</f>
+        <v>1.509709802975095</v>
+      </c>
+      <c r="E295">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C295))-$B$2)/$B$3))</f>
+        <v>43.786640158382845</v>
+      </c>
+      <c r="F295">
+        <f>E295*PI()/180</f>
+        <v>0.76422103914975203</v>
+      </c>
+      <c r="H295">
+        <f>$B$4+$B$3*SIN(C295)-$B$3*COS(F295)</f>
+        <v>124.1789460939743</v>
+      </c>
+      <c r="I295">
+        <f>ABS($C$136-H295)</f>
+        <v>59.178946093974304</v>
+      </c>
+      <c r="J295">
+        <f>(90-B295)+E295</f>
+        <v>47.286640158382845</v>
+      </c>
+    </row>
+    <row r="296" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B296">
+        <v>11.5</v>
+      </c>
+      <c r="C296">
+        <f>B296*PI()/180</f>
+        <v>0.20071286397934787</v>
+      </c>
+      <c r="E296">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C296))-$B$2)/$B$3))</f>
+        <v>-13.114706978958353</v>
+      </c>
+      <c r="F296">
+        <f>E296*PI()/180</f>
+        <v>-0.22889481721710195</v>
+      </c>
+      <c r="H296">
+        <f>$B$4+$B$3*SIN(C296)-$B$3*COS(F296)</f>
+        <v>5.5688160092591374</v>
+      </c>
+      <c r="I296">
+        <f>ABS($C$136-H296)</f>
+        <v>59.431183990740863</v>
+      </c>
+      <c r="J296">
+        <f>(90-B296)+E296</f>
+        <v>65.385293021041647</v>
+      </c>
+    </row>
+    <row r="297" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B297">
+        <v>87</v>
+      </c>
+      <c r="C297">
+        <f>B297*PI()/180</f>
+        <v>1.5184364492350666</v>
+      </c>
+      <c r="E297">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C297))-$B$2)/$B$3))</f>
+        <v>44.482183716588743</v>
+      </c>
+      <c r="F297">
+        <f>E297*PI()/180</f>
+        <v>0.77636056433148171</v>
+      </c>
+      <c r="H297">
+        <f>$B$4+$B$3*SIN(C297)-$B$3*COS(F297)</f>
+        <v>125.18899291295753</v>
+      </c>
+      <c r="I297">
+        <f>ABS($C$136-H297)</f>
+        <v>60.188992912957531</v>
+      </c>
+      <c r="J297">
+        <f>(90-B297)+E297</f>
+        <v>47.482183716588743</v>
+      </c>
+    </row>
+    <row r="298" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B298">
+        <v>11</v>
+      </c>
+      <c r="C298">
+        <f>B298*PI()/180</f>
+        <v>0.19198621771937624</v>
+      </c>
+      <c r="E298">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C298))-$B$2)/$B$3))</f>
+        <v>-13.21488460869827</v>
+      </c>
+      <c r="F298">
+        <f>E298*PI()/180</f>
+        <v>-0.23064324669290728</v>
+      </c>
+      <c r="H298">
+        <f>$B$4+$B$3*SIN(C298)-$B$3*COS(F298)</f>
+        <v>4.6476328433153355</v>
+      </c>
+      <c r="I298">
+        <f>ABS($C$136-H298)</f>
+        <v>60.352367156684664</v>
+      </c>
+      <c r="J298">
+        <f>(90-B298)+E298</f>
+        <v>65.78511539130173</v>
+      </c>
+    </row>
+    <row r="299" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B299">
+        <v>87.5</v>
+      </c>
+      <c r="C299">
+        <f>B299*PI()/180</f>
+        <v>1.5271630954950381</v>
+      </c>
+      <c r="E299">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C299))-$B$2)/$B$3))</f>
+        <v>45.186444781340406</v>
+      </c>
+      <c r="F299">
+        <f>E299*PI()/180</f>
+        <v>0.78865223870499934</v>
+      </c>
+      <c r="H299">
+        <f>$B$4+$B$3*SIN(C299)-$B$3*COS(F299)</f>
+        <v>126.21450640835064</v>
+      </c>
+      <c r="I299">
+        <f>ABS($C$136-H299)</f>
+        <v>61.214506408350644</v>
+      </c>
+      <c r="J299">
+        <f>(90-B299)+E299</f>
+        <v>47.686444781340406</v>
+      </c>
+    </row>
+    <row r="300" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B300">
+        <v>10.5</v>
+      </c>
+      <c r="C300">
+        <f>B300*PI()/180</f>
+        <v>0.18325957145940461</v>
+      </c>
+      <c r="E300">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C300))-$B$2)/$B$3))</f>
+        <v>-13.310701977010961</v>
+      </c>
+      <c r="F300">
+        <f>E300*PI()/180</f>
+        <v>-0.23231557525055982</v>
+      </c>
+      <c r="H300">
+        <f>$B$4+$B$3*SIN(C300)-$B$3*COS(F300)</f>
+        <v>3.7231673034269619</v>
+      </c>
+      <c r="I300">
+        <f>ABS($C$136-H300)</f>
+        <v>61.276832696573038</v>
+      </c>
+      <c r="J300">
+        <f>(90-B300)+E300</f>
+        <v>66.189298022989036</v>
+      </c>
+    </row>
+    <row r="301" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B301">
+        <v>10</v>
+      </c>
+      <c r="C301">
+        <f>B301*PI()/180</f>
+        <v>0.17453292519943295</v>
+      </c>
+      <c r="E301">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C301))-$B$2)/$B$3))</f>
+        <v>-13.402146892695686</v>
+      </c>
+      <c r="F301">
+        <f>E301*PI()/180</f>
+        <v>-0.23391159011346691</v>
+      </c>
+      <c r="H301">
+        <f>$B$4+$B$3*SIN(C301)-$B$3*COS(F301)</f>
+        <v>2.795445452993718</v>
+      </c>
+      <c r="I301">
+        <f>ABS($C$136-H301)</f>
+        <v>62.204554547006282</v>
+      </c>
+      <c r="J301">
+        <f>(90-B301)+E301</f>
+        <v>66.597853107304317</v>
+      </c>
+    </row>
+    <row r="302" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B302">
+        <v>88</v>
+      </c>
+      <c r="C302">
+        <f>B302*PI()/180</f>
+        <v>1.5358897417550099</v>
+      </c>
+      <c r="E302">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C302))-$B$2)/$B$3))</f>
+        <v>45.89980281280765</v>
+      </c>
+      <c r="F302">
+        <f>E302*PI()/180</f>
+        <v>0.8011026850996481</v>
+      </c>
+      <c r="H302">
+        <f>$B$4+$B$3*SIN(C302)-$B$3*COS(F302)</f>
+        <v>127.25632109450547</v>
+      </c>
+      <c r="I302">
+        <f>ABS($C$136-H302)</f>
+        <v>62.256321094505466</v>
+      </c>
+      <c r="J302">
+        <f>(90-B302)+E302</f>
+        <v>47.89980281280765</v>
+      </c>
+    </row>
+    <row r="303" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B303">
+        <v>9.5</v>
+      </c>
+      <c r="C303">
+        <f>B303*PI()/180</f>
+        <v>0.16580627893946129</v>
+      </c>
+      <c r="E303">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C303))-$B$2)/$B$3))</f>
+        <v>-13.489207648416684</v>
+      </c>
+      <c r="F303">
+        <f>E303*PI()/180</f>
+        <v>-0.23543108695007278</v>
+      </c>
+      <c r="H303">
+        <f>$B$4+$B$3*SIN(C303)-$B$3*COS(F303)</f>
+        <v>1.8644954944898444</v>
+      </c>
+      <c r="I303">
+        <f>ABS($C$136-H303)</f>
+        <v>63.135504505510156</v>
+      </c>
+      <c r="J303">
+        <f>(90-B303)+E303</f>
+        <v>67.010792351583319</v>
+      </c>
+    </row>
+    <row r="304" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B304">
+        <v>88.5</v>
+      </c>
+      <c r="C304">
+        <f>B304*PI()/180</f>
+        <v>1.5446163880149817</v>
+      </c>
+      <c r="E304">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C304))-$B$2)/$B$3))</f>
+        <v>46.622668312248898</v>
+      </c>
+      <c r="F304">
+        <f>E304*PI()/180</f>
+        <v>0.81371906811397088</v>
+      </c>
+      <c r="H304">
+        <f>$B$4+$B$3*SIN(C304)-$B$3*COS(F304)</f>
+        <v>128.31533513180437</v>
+      </c>
+      <c r="I304">
+        <f>ABS($C$136-H304)</f>
+        <v>63.315335131804375</v>
+      </c>
+      <c r="J304">
+        <f>(90-B304)+E304</f>
+        <v>48.122668312248898</v>
+      </c>
+    </row>
+    <row r="305" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B305">
+        <v>9</v>
+      </c>
+      <c r="C305">
+        <f>B305*PI()/180</f>
+        <v>0.15707963267948966</v>
+      </c>
+      <c r="E305">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C305))-$B$2)/$B$3))</f>
+        <v>-13.571873032035521</v>
+      </c>
+      <c r="F305">
+        <f>E305*PI()/180</f>
+        <v>-0.23687387007164568</v>
+      </c>
+      <c r="H305">
+        <f>$B$4+$B$3*SIN(C305)-$B$3*COS(F305)</f>
+        <v>0.93034779046506344</v>
+      </c>
+      <c r="I305">
+        <f>ABS($C$136-H305)</f>
+        <v>64.069652209534937</v>
+      </c>
+      <c r="J305">
+        <f>(90-B305)+E305</f>
+        <v>67.428126967964474</v>
+      </c>
+    </row>
+    <row r="306" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B306">
+        <v>89</v>
+      </c>
+      <c r="C306">
+        <f>B306*PI()/180</f>
+        <v>1.5533430342749535</v>
+      </c>
+      <c r="E306">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C306))-$B$2)/$B$3))</f>
+        <v>47.355486309007333</v>
+      </c>
+      <c r="F306">
+        <f>E306*PI()/180</f>
+        <v>0.82650915497527477</v>
+      </c>
+      <c r="H306">
+        <f>$B$4+$B$3*SIN(C306)-$B$3*COS(F306)</f>
+        <v>129.39251744928708</v>
+      </c>
+      <c r="I306">
+        <f>ABS($C$136-H306)</f>
+        <v>64.392517449287084</v>
+      </c>
+      <c r="J306">
+        <f>(90-B306)+E306</f>
+        <v>48.355486309007333</v>
+      </c>
+    </row>
+    <row r="307" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B307">
+        <v>8.5</v>
+      </c>
+      <c r="C307">
+        <f>B307*PI()/180</f>
+        <v>0.14835298641951802</v>
+      </c>
+      <c r="E307">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C307))-$B$2)/$B$3))</f>
+        <v>-13.650132337519683</v>
+      </c>
+      <c r="F307">
+        <f>E307*PI()/180</f>
+        <v>-0.23823975262266836</v>
+      </c>
+      <c r="H307">
+        <f>$B$4+$B$3*SIN(C307)-$B$3*COS(F307)</f>
+        <v>-6.9651164413926381E-3</v>
+      </c>
+      <c r="I307">
+        <f>ABS($C$136-H307)</f>
+        <v>65.006965116441393</v>
+      </c>
+      <c r="J307">
+        <f>(90-B307)+E307</f>
+        <v>67.849867662480321</v>
+      </c>
+    </row>
+    <row r="308" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B308">
+        <v>89.5</v>
+      </c>
+      <c r="C308">
+        <f>B308*PI()/180</f>
+        <v>1.562069680534925</v>
+      </c>
+      <c r="E308">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C308))-$B$2)/$B$3))</f>
+        <v>48.09874036780473</v>
+      </c>
+      <c r="F308">
+        <f>E308*PI()/180</f>
+        <v>0.83948138548010087</v>
+      </c>
+      <c r="H308">
+        <f>$B$4+$B$3*SIN(C308)-$B$3*COS(F308)</f>
+        <v>130.48891592163119</v>
+      </c>
+      <c r="I308">
+        <f>ABS($C$136-H308)</f>
+        <v>65.48891592163119</v>
+      </c>
+      <c r="J308">
+        <f>(90-B308)+E308</f>
+        <v>48.59874036780473</v>
+      </c>
+    </row>
+    <row r="309" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B309">
+        <v>8</v>
+      </c>
+      <c r="C309">
+        <f>B309*PI()/180</f>
+        <v>0.13962634015954636</v>
+      </c>
+      <c r="E309">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C309))-$B$2)/$B$3))</f>
+        <v>-13.723975375409573</v>
+      </c>
+      <c r="F309">
+        <f>E309*PI()/180</f>
+        <v>-0.23952855676352189</v>
+      </c>
+      <c r="H309">
+        <f>$B$4+$B$3*SIN(C309)-$B$3*COS(F309)</f>
+        <v>-0.94740848451718307</v>
+      </c>
+      <c r="I309">
+        <f>ABS($C$136-H309)</f>
+        <v>65.947408484517183</v>
+      </c>
+      <c r="J309">
+        <f>(90-B309)+E309</f>
+        <v>68.276024624590434</v>
+      </c>
+    </row>
+    <row r="310" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B310">
+        <v>90</v>
+      </c>
+      <c r="C310">
+        <f>B310*PI()/180</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="E236" t="e">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C236))-$B$2)/$B$3))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F236" t="e">
-        <f>E236*PI()/180</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H236" t="e">
-        <f>$B$4+$B$3*SIN(B236)-$B$3*COS(E236)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I236" t="e">
-        <f>ABS($C$136-H236)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="J236" t="e">
-        <f>(90-B236)+E236</f>
-        <v>#NUM!</v>
+      <c r="E310">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C310))-$B$2)/$B$3))</f>
+        <v>48.852957214225619</v>
+      </c>
+      <c r="F310">
+        <f>E310*PI()/180</f>
+        <v>0.85264495272415386</v>
+      </c>
+      <c r="H310">
+        <f>$B$4+$B$3*SIN(C310)-$B$3*COS(F310)</f>
+        <v>131.60566679786422</v>
+      </c>
+      <c r="I310">
+        <f>ABS($C$136-H310)</f>
+        <v>66.605666797864217</v>
+      </c>
+      <c r="J310">
+        <f>(90-B310)+E310</f>
+        <v>48.852957214225619</v>
+      </c>
+    </row>
+    <row r="311" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B311">
+        <v>7.5</v>
+      </c>
+      <c r="C311">
+        <f>B311*PI()/180</f>
+        <v>0.1308996938995747</v>
+      </c>
+      <c r="E311">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C311))-$B$2)/$B$3))</f>
+        <v>-13.7933924828267</v>
+      </c>
+      <c r="F311">
+        <f>E311*PI()/180</f>
+        <v>-0.24074011384516131</v>
+      </c>
+      <c r="H311">
+        <f>$B$4+$B$3*SIN(C311)-$B$3*COS(F311)</f>
+        <v>-1.8909453550669468</v>
+      </c>
+      <c r="I311">
+        <f>ABS($C$136-H311)</f>
+        <v>66.890945355066947</v>
+      </c>
+      <c r="J311">
+        <f>(90-B311)+E311</f>
+        <v>68.706607517173296</v>
+      </c>
+    </row>
+    <row r="312" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B312">
+        <v>7</v>
+      </c>
+      <c r="C312">
+        <f>B312*PI()/180</f>
+        <v>0.12217304763960307</v>
+      </c>
+      <c r="E312">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C312))-$B$2)/$B$3))</f>
+        <v>-13.858374533006662</v>
+      </c>
+      <c r="F312">
+        <f>E312*PI()/180</f>
+        <v>-0.24187426457549782</v>
+      </c>
+      <c r="H312">
+        <f>$B$4+$B$3*SIN(C312)-$B$3*COS(F312)</f>
+        <v>-2.8375365356166782</v>
+      </c>
+      <c r="I312">
+        <f>ABS($C$136-H312)</f>
+        <v>67.837536535616678</v>
+      </c>
+      <c r="J312">
+        <f>(90-B312)+E312</f>
+        <v>69.141625466993332</v>
+      </c>
+    </row>
+    <row r="313" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B313">
+        <v>6.5</v>
+      </c>
+      <c r="C313">
+        <f>B313*PI()/180</f>
+        <v>0.11344640137963143</v>
+      </c>
+      <c r="E313">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C313))-$B$2)/$B$3))</f>
+        <v>-13.918912944340725</v>
+      </c>
+      <c r="F313">
+        <f>E313*PI()/180</f>
+        <v>-0.24293085917720386</v>
+      </c>
+      <c r="H313">
+        <f>$B$4+$B$3*SIN(C313)-$B$3*COS(F313)</f>
+        <v>-3.7871405842721231</v>
+      </c>
+      <c r="I313">
+        <f>ABS($C$136-H313)</f>
+        <v>68.787140584272123</v>
+      </c>
+      <c r="J313">
+        <f>(90-B313)+E313</f>
+        <v>69.581087055659282</v>
+      </c>
+    </row>
+    <row r="314" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B314">
+        <v>6</v>
+      </c>
+      <c r="C314">
+        <f>B314*PI()/180</f>
+        <v>0.10471975511965977</v>
+      </c>
+      <c r="E314">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C314))-$B$2)/$B$3))</f>
+        <v>-13.974999688910721</v>
+      </c>
+      <c r="F314">
+        <f>E314*PI()/180</f>
+        <v>-0.24390975753667535</v>
+      </c>
+      <c r="H314">
+        <f>$B$4+$B$3*SIN(C314)-$B$3*COS(F314)</f>
+        <v>-4.7397137952688979</v>
+      </c>
+      <c r="I314">
+        <f>ABS($C$136-H314)</f>
+        <v>69.739713795268898</v>
+      </c>
+      <c r="J314">
+        <f>(90-B314)+E314</f>
+        <v>70.025000311089286</v>
+      </c>
+    </row>
+    <row r="315" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B315">
+        <v>5.5</v>
+      </c>
+      <c r="C315">
+        <f>B315*PI()/180</f>
+        <v>9.599310885968812E-2</v>
+      </c>
+      <c r="E315">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C315))-$B$2)/$B$3))</f>
+        <v>-14.02662730050273</v>
+      </c>
+      <c r="F315">
+        <f>E315*PI()/180</f>
+        <v>-0.24481082934389672</v>
+      </c>
+      <c r="H315">
+        <f>$B$4+$B$3*SIN(C315)-$B$3*COS(F315)</f>
+        <v>-5.695210185750156</v>
+      </c>
+      <c r="I315">
+        <f>ABS($C$136-H315)</f>
+        <v>70.695210185750156</v>
+      </c>
+      <c r="J315">
+        <f>(90-B315)+E315</f>
+        <v>70.473372699497276</v>
+      </c>
+    </row>
+    <row r="316" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B316">
+        <v>5</v>
+      </c>
+      <c r="C316">
+        <f>B316*PI()/180</f>
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="E316">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C316))-$B$2)/$B$3))</f>
+        <v>-14.073788882085525</v>
+      </c>
+      <c r="F316">
+        <f>E316*PI()/180</f>
+        <v>-0.24563395422296438</v>
+      </c>
+      <c r="H316">
+        <f>$B$4+$B$3*SIN(C316)-$B$3*COS(F316)</f>
+        <v>-6.653581483805624</v>
+      </c>
+      <c r="I316">
+        <f>ABS($C$136-H316)</f>
+        <v>71.653581483805624</v>
+      </c>
+      <c r="J316">
+        <f>(90-B316)+E316</f>
+        <v>70.926211117914477</v>
+      </c>
+    </row>
+    <row r="317" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B317">
+        <v>4.5</v>
+      </c>
+      <c r="C317">
+        <f>B317*PI()/180</f>
+        <v>7.8539816339744828E-2</v>
+      </c>
+      <c r="E317">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C317))-$B$2)/$B$3))</f>
+        <v>-14.116478112740964</v>
+      </c>
+      <c r="F317">
+        <f>E317*PI()/180</f>
+        <v>-0.24637902185304511</v>
+      </c>
+      <c r="H317">
+        <f>$B$4+$B$3*SIN(C317)-$B$3*COS(F317)</f>
+        <v>-7.6147771178038113</v>
+      </c>
+      <c r="I317">
+        <f>ABS($C$136-H317)</f>
+        <v>72.614777117803811</v>
+      </c>
+      <c r="J317">
+        <f>(90-B317)+E317</f>
+        <v>71.383521887259036</v>
+      </c>
+    </row>
+    <row r="318" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <f>B318*PI()/180</f>
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="E318">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C318))-$B$2)/$B$3))</f>
+        <v>-14.154689254033931</v>
+      </c>
+      <c r="F318">
+        <f>E318*PI()/180</f>
+        <v>-0.24704593207955214</v>
+      </c>
+      <c r="H318">
+        <f>$B$4+$B$3*SIN(C318)-$B$3*COS(F318)</f>
+        <v>-8.5787442070470235</v>
+      </c>
+      <c r="I318">
+        <f>ABS($C$136-H318)</f>
+        <v>73.578744207047023</v>
+      </c>
+      <c r="J318">
+        <f>(90-B318)+E318</f>
+        <v>71.845310745966074</v>
+      </c>
+    </row>
+    <row r="319" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B319">
+        <v>3.5</v>
+      </c>
+      <c r="C319">
+        <f>B319*PI()/180</f>
+        <v>6.1086523819801536E-2</v>
+      </c>
+      <c r="E319">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C319))-$B$2)/$B$3))</f>
+        <v>-14.188417155810749</v>
+      </c>
+      <c r="F319">
+        <f>E319*PI()/180</f>
+        <v>-0.24763459501534688</v>
+      </c>
+      <c r="H319">
+        <f>$B$4+$B$3*SIN(C319)-$B$3*COS(F319)</f>
+        <v>-9.5454275537764772</v>
+      </c>
+      <c r="I319">
+        <f>ABS($C$136-H319)</f>
+        <v>74.545427553776477</v>
+      </c>
+      <c r="J319">
+        <f>(90-B319)+E319</f>
+        <v>72.311582844189246</v>
+      </c>
+    </row>
+    <row r="320" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B320">
+        <v>3</v>
+      </c>
+      <c r="C320">
+        <f>B320*PI()/180</f>
+        <v>5.2359877559829883E-2</v>
+      </c>
+      <c r="E320">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C320))-$B$2)/$B$3))</f>
+        <v>-14.217657261415633</v>
+      </c>
+      <c r="F320">
+        <f>E320*PI()/180</f>
+        <v>-0.24814493113178296</v>
+      </c>
+      <c r="H320">
+        <f>$B$4+$B$3*SIN(C320)-$B$3*COS(F320)</f>
+        <v>-10.514769636552572</v>
+      </c>
+      <c r="I320">
+        <f>ABS($C$136-H320)</f>
+        <v>75.514769636552572</v>
+      </c>
+      <c r="J320">
+        <f>(90-B320)+E320</f>
+        <v>72.782342738584362</v>
+      </c>
+    </row>
+    <row r="321" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B321">
+        <v>2.5</v>
+      </c>
+      <c r="C321">
+        <f>B321*PI()/180</f>
+        <v>4.3633231299858237E-2</v>
+      </c>
+      <c r="E321">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C321))-$B$2)/$B$3))</f>
+        <v>-14.242405612315872</v>
+      </c>
+      <c r="F321">
+        <f>E321*PI()/180</f>
+        <v>-0.24857687133943102</v>
+      </c>
+      <c r="H321">
+        <f>$B$4+$B$3*SIN(C321)-$B$3*COS(F321)</f>
+        <v>-11.486710605032329</v>
+      </c>
+      <c r="I321">
+        <f>ABS($C$136-H321)</f>
+        <v>76.486710605032329</v>
+      </c>
+      <c r="J321">
+        <f>(90-B321)+E321</f>
+        <v>73.257594387684122</v>
+      </c>
+    </row>
+    <row r="322" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <f>B322*PI()/180</f>
+        <v>3.4906585039886591E-2</v>
+      </c>
+      <c r="E322">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C322))-$B$2)/$B$3))</f>
+        <v>-14.262658852127466</v>
+      </c>
+      <c r="F322">
+        <f>E322*PI()/180</f>
+        <v>-0.24893035705833932</v>
+      </c>
+      <c r="H322">
+        <f>$B$4+$B$3*SIN(C322)-$B$3*COS(F322)</f>
+        <v>-12.461188276164918</v>
+      </c>
+      <c r="I322">
+        <f>ABS($C$136-H322)</f>
+        <v>77.461188276164918</v>
+      </c>
+      <c r="J322">
+        <f>(90-B322)+E322</f>
+        <v>73.737341147872542</v>
+      </c>
+    </row>
+    <row r="323" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B323">
+        <v>1.5</v>
+      </c>
+      <c r="C323">
+        <f>B323*PI()/180</f>
+        <v>2.6179938779914941E-2</v>
+      </c>
+      <c r="E323">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C323))-$B$2)/$B$3))</f>
+        <v>-14.27841423003389</v>
+      </c>
+      <c r="F323">
+        <f>E323*PI()/180</f>
+        <v>-0.24920534027770241</v>
+      </c>
+      <c r="H323">
+        <f>$B$4+$B$3*SIN(C323)-$B$3*COS(F323)</f>
+        <v>-13.438138131821503</v>
+      </c>
+      <c r="I323">
+        <f>ABS($C$136-H323)</f>
+        <v>78.438138131821503</v>
+      </c>
+      <c r="J323">
+        <f>(90-B323)+E323</f>
+        <v>74.221585769966111</v>
+      </c>
+    </row>
+    <row r="324" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <f>B324*PI()/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="E324">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C324))-$B$2)/$B$3))</f>
+        <v>-14.289669603591772</v>
+      </c>
+      <c r="F324">
+        <f>E324*PI()/180</f>
+        <v>-0.24940178360482937</v>
+      </c>
+      <c r="H324">
+        <f>$B$4+$B$3*SIN(C324)-$B$3*COS(F324)</f>
+        <v>-14.417493317875255</v>
+      </c>
+      <c r="I324">
+        <f>ABS($C$136-H324)</f>
+        <v>79.417493317875255</v>
+      </c>
+      <c r="J324">
+        <f>(90-B324)+E324</f>
+        <v>74.710330396408224</v>
+      </c>
+    </row>
+    <row r="325" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B325">
+        <v>0.5</v>
+      </c>
+      <c r="C325">
+        <f>B325*PI()/180</f>
+        <v>8.7266462599716477E-3</v>
+      </c>
+      <c r="E325">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C325))-$B$2)/$B$3))</f>
+        <v>-14.296423440918447</v>
+      </c>
+      <c r="F325">
+        <f>E325*PI()/180</f>
+        <v>-0.24951966030332393</v>
+      </c>
+      <c r="H325">
+        <f>$B$4+$B$3*SIN(C325)-$B$3*COS(F325)</f>
+        <v>-15.39918464474276</v>
+      </c>
+      <c r="I325">
+        <f>ABS($C$136-H325)</f>
+        <v>80.39918464474276</v>
+      </c>
+      <c r="J325">
+        <f>(90-B325)+E325</f>
+        <v>75.203576559081554</v>
+      </c>
+    </row>
+    <row r="326" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B326">
+        <v>0</v>
+      </c>
+      <c r="C326">
+        <f>B326*PI()/180</f>
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <f>DEGREES(ASIN(($C$142-($B$3*COS($C326))-$B$2)/$B$3))</f>
+        <v>-14.298674822257359</v>
+      </c>
+      <c r="F326">
+        <f>E326*PI()/180</f>
+        <v>-0.2495589543204059</v>
+      </c>
+      <c r="H326">
+        <f>$B$4+$B$3*SIN(C326)-$B$3*COS(F326)</f>
+        <v>-16.383140589396632</v>
+      </c>
+      <c r="I326">
+        <f>ABS($C$136-H326)</f>
+        <v>81.383140589396632</v>
+      </c>
+      <c r="J326">
+        <f>(90-B326)+E326</f>
+        <v>75.701325177742646</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B145:J236" xr:uid="{F27E99C3-75F0-49DE-990C-71822D2A7A16}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B146:J236">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B146:J326">
       <sortCondition ref="I145:I236"/>
     </sortState>
   </autoFilter>

--- a/kinematics_spherical.xlsx
+++ b/kinematics_spherical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Documents/GitHub/DOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{90A8D17B-1F49-40EE-B6C5-ECBA557DB511}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFE8575F-83DE-45BC-8BDD-40DCF2E1106B}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="1068" windowWidth="13656" windowHeight="11856" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
+    <workbookView xWindow="984" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
   <dimension ref="A1:T326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/kinematics_spherical.xlsx
+++ b/kinematics_spherical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Documents/GitHub/DOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EFE8575F-83DE-45BC-8BDD-40DCF2E1106B}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDC303AE-610A-4313-AEC3-0F81194AE337}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="-108" windowWidth="22164" windowHeight="13176" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
+    <workbookView xWindow="8244" yWindow="252" windowWidth="13656" windowHeight="11856" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3189,8 +3189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
   <dimension ref="A1:T326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3756,6 +3756,10 @@
         <f>E37</f>
         <v>225.39735757102386</v>
       </c>
+      <c r="I71">
+        <f>0.000568*1000</f>
+        <v>0.56800000000000006</v>
+      </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B72" s="6"/>

--- a/kinematics_spherical.xlsx
+++ b/kinematics_spherical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2ba2d43b018f1b4/Documents/GitHub/DOT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDC303AE-610A-4313-AEC3-0F81194AE337}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{C37F472F-D822-44F9-B55C-65014CD9BDB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8BED2127-24BC-4F63-BF61-0041A008A34E}"/>
   <bookViews>
-    <workbookView xWindow="8244" yWindow="252" windowWidth="13656" windowHeight="11856" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
+    <workbookView xWindow="-3984" yWindow="564" windowWidth="17280" windowHeight="8964" xr2:uid="{86EDD03A-92BA-4657-AE42-E75ADC69D8EE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
   <si>
     <t>X</t>
   </si>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t>check for quadrant (if X is negative or positive), still need to implement</t>
+  </si>
+  <si>
+    <t>servo32</t>
+  </si>
+  <si>
+    <t>180-90-theta2+theta32</t>
   </si>
 </sst>
 </file>
@@ -3189,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614CD236-E25B-4B95-B9DA-DCFC654B9473}">
   <dimension ref="A1:T326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3821,6 +3827,12 @@
       <c r="T80" s="24"/>
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K81" t="s">
+        <v>121</v>
+      </c>
+      <c r="L81" t="s">
+        <v>122</v>
+      </c>
       <c r="T81" s="24"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.3">
@@ -4256,27 +4268,27 @@
         <v>48.5</v>
       </c>
       <c r="C146">
-        <f>B146*PI()/180</f>
+        <f t="shared" ref="C146:C177" si="0">B146*PI()/180</f>
         <v>0.84648468721724979</v>
       </c>
       <c r="E146">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C146))-$B$2)/$B$3))</f>
+        <f t="shared" ref="E146:E177" si="1">DEGREES(ASIN(($C$142-($B$3*COS($C146))-$B$2)/$B$3))</f>
         <v>5.1868120077288378</v>
       </c>
       <c r="F146">
-        <f>E146*PI()/180</f>
+        <f t="shared" ref="F146:F177" si="2">E146*PI()/180</f>
         <v>9.0526947216845802E-2</v>
       </c>
       <c r="H146">
-        <f>$B$4+$B$3*SIN(C146)-$B$3*COS(F146)</f>
+        <f t="shared" ref="H146:H177" si="3">$B$4+$B$3*SIN(C146)-$B$3*COS(F146)</f>
         <v>65.124339006530363</v>
       </c>
       <c r="I146">
-        <f>ABS($C$136-H146)</f>
+        <f t="shared" ref="I146:I177" si="4">ABS($C$136-H146)</f>
         <v>0.12433900653036289</v>
       </c>
       <c r="J146">
-        <f>(90-B146)+E146</f>
+        <f t="shared" ref="J146:J177" si="5">(90-B146)+E146</f>
         <v>46.68681200772884</v>
       </c>
       <c r="L146" t="s">
@@ -4288,27 +4300,27 @@
         <v>48</v>
       </c>
       <c r="C147">
-        <f>B147*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.83775804095727813</v>
       </c>
       <c r="E147">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C147))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>4.812359169930355</v>
       </c>
       <c r="F147">
-        <f>E147*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>8.3991512303825983E-2</v>
       </c>
       <c r="H147">
-        <f>$B$4+$B$3*SIN(C147)-$B$3*COS(F147)</f>
+        <f t="shared" si="3"/>
         <v>64.404114048466937</v>
       </c>
       <c r="I147">
-        <f>ABS($C$136-H147)</f>
+        <f t="shared" si="4"/>
         <v>0.59588595153306301</v>
       </c>
       <c r="J147">
-        <f>(90-B147)+E147</f>
+        <f t="shared" si="5"/>
         <v>46.812359169930353</v>
       </c>
     </row>
@@ -4317,27 +4329,27 @@
         <v>49</v>
       </c>
       <c r="C148">
-        <f>B148*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.85521133347722145</v>
       </c>
       <c r="E148">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C148))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>5.5643920153636213</v>
       </c>
       <c r="F148">
-        <f>E148*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>9.7116961539778085E-2</v>
       </c>
       <c r="H148">
-        <f>$B$4+$B$3*SIN(C148)-$B$3*COS(F148)</f>
+        <f t="shared" si="3"/>
         <v>65.84352453853549</v>
       </c>
       <c r="I148">
-        <f>ABS($C$136-H148)</f>
+        <f t="shared" si="4"/>
         <v>0.84352453853549036</v>
       </c>
       <c r="J148">
-        <f>(90-B148)+E148</f>
+        <f t="shared" si="5"/>
         <v>46.564392015363623</v>
       </c>
     </row>
@@ -4346,27 +4358,27 @@
         <v>47.5</v>
       </c>
       <c r="C149">
-        <f>B149*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.82903139469730658</v>
       </c>
       <c r="E149">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C149))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>4.441040653414758</v>
       </c>
       <c r="F149">
-        <f>E149*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>7.7510781617007876E-2</v>
       </c>
       <c r="H149">
-        <f>$B$4+$B$3*SIN(C149)-$B$3*COS(F149)</f>
+        <f t="shared" si="3"/>
         <v>63.682783122052726</v>
       </c>
       <c r="I149">
-        <f>ABS($C$136-H149)</f>
+        <f t="shared" si="4"/>
         <v>1.3172168779472742</v>
       </c>
       <c r="J149">
-        <f>(90-B149)+E149</f>
+        <f t="shared" si="5"/>
         <v>46.94104065341476</v>
       </c>
     </row>
@@ -4375,27 +4387,27 @@
         <v>49.5</v>
       </c>
       <c r="C150">
-        <f>B150*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.86393797973719322</v>
       </c>
       <c r="E150">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C150))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>5.9450926489754945</v>
       </c>
       <c r="F150">
-        <f>E150*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.10376144106073387</v>
       </c>
       <c r="H150">
-        <f>$B$4+$B$3*SIN(C150)-$B$3*COS(F150)</f>
+        <f t="shared" si="3"/>
         <v>66.561738084805086</v>
       </c>
       <c r="I150">
-        <f>ABS($C$136-H150)</f>
+        <f t="shared" si="4"/>
         <v>1.5617380848050857</v>
       </c>
       <c r="J150">
-        <f>(90-B150)+E150</f>
+        <f t="shared" si="5"/>
         <v>46.445092648975496</v>
       </c>
     </row>
@@ -4404,27 +4416,27 @@
         <v>47</v>
       </c>
       <c r="C151">
-        <f>B151*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.82030474843733492</v>
       </c>
       <c r="E151">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C151))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>4.0728642013997174</v>
       </c>
       <c r="F151">
-        <f>E151*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>7.1084890301034515E-2</v>
       </c>
       <c r="H151">
-        <f>$B$4+$B$3*SIN(C151)-$B$3*COS(F151)</f>
+        <f t="shared" si="3"/>
         <v>62.960280565103844</v>
       </c>
       <c r="I151">
-        <f>ABS($C$136-H151)</f>
+        <f t="shared" si="4"/>
         <v>2.0397194348961563</v>
       </c>
       <c r="J151">
-        <f>(90-B151)+E151</f>
+        <f t="shared" si="5"/>
         <v>47.072864201399717</v>
       </c>
     </row>
@@ -4433,27 +4445,27 @@
         <v>50</v>
       </c>
       <c r="C152">
-        <f>B152*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
       <c r="E152">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C152))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>6.3289079885010491</v>
       </c>
       <c r="F152">
-        <f>E152*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.11046028245511472</v>
       </c>
       <c r="H152">
-        <f>$B$4+$B$3*SIN(C152)-$B$3*COS(F152)</f>
+        <f t="shared" si="3"/>
         <v>67.279048003257856</v>
       </c>
       <c r="I152">
-        <f>ABS($C$136-H152)</f>
+        <f t="shared" si="4"/>
         <v>2.2790480032578557</v>
       </c>
       <c r="J152">
-        <f>(90-B152)+E152</f>
+        <f t="shared" si="5"/>
         <v>46.328907988501051</v>
       </c>
     </row>
@@ -4462,27 +4474,27 @@
         <v>46.5</v>
       </c>
       <c r="C153">
-        <f>B153*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.81157810217736315</v>
       </c>
       <c r="E153">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C153))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>3.707838133417638</v>
       </c>
       <c r="F153">
-        <f>E153*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>6.4713983559138571E-2</v>
       </c>
       <c r="H153">
-        <f>$B$4+$B$3*SIN(C153)-$B$3*COS(F153)</f>
+        <f t="shared" si="3"/>
         <v>62.236541579219804</v>
       </c>
       <c r="I153">
-        <f>ABS($C$136-H153)</f>
+        <f t="shared" si="4"/>
         <v>2.7634584207801964</v>
       </c>
       <c r="J153">
-        <f>(90-B153)+E153</f>
+        <f t="shared" si="5"/>
         <v>47.207838133417638</v>
       </c>
     </row>
@@ -4491,27 +4503,27 @@
         <v>50.5</v>
       </c>
       <c r="C154">
-        <f>B154*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.88139127225713643</v>
       </c>
       <c r="E154">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C154))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>6.7158327543073977</v>
       </c>
       <c r="F154">
-        <f>E154*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.11721339357594347</v>
       </c>
       <c r="H154">
-        <f>$B$4+$B$3*SIN(C154)-$B$3*COS(F154)</f>
+        <f t="shared" si="3"/>
         <v>67.995523590670672</v>
       </c>
       <c r="I154">
-        <f>ABS($C$136-H154)</f>
+        <f t="shared" si="4"/>
         <v>2.9955235906706719</v>
       </c>
       <c r="J154">
-        <f>(90-B154)+E154</f>
+        <f t="shared" si="5"/>
         <v>46.215832754307399</v>
       </c>
     </row>
@@ -4520,27 +4532,27 @@
         <v>46</v>
       </c>
       <c r="C155">
-        <f>B155*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.80285145591739149</v>
       </c>
       <c r="E155">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C155))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>3.3459713301883522</v>
       </c>
       <c r="F155">
-        <f>E155*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>5.8398216389121092E-2</v>
       </c>
       <c r="H155">
-        <f>$B$4+$B$3*SIN(C155)-$B$3*COS(F155)</f>
+        <f t="shared" si="3"/>
         <v>61.51150221500761</v>
       </c>
       <c r="I155">
-        <f>ABS($C$136-H155)</f>
+        <f t="shared" si="4"/>
         <v>3.4884977849923899</v>
       </c>
       <c r="J155">
-        <f>(90-B155)+E155</f>
+        <f t="shared" si="5"/>
         <v>47.345971330188355</v>
       </c>
     </row>
@@ -4549,27 +4561,27 @@
         <v>51</v>
       </c>
       <c r="C156">
-        <f>B156*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.89011791851710798</v>
       </c>
       <c r="E156">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C156))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>7.1058623242887</v>
       </c>
       <c r="F156">
-        <f>E156*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.12402069375225484</v>
       </c>
       <c r="H156">
-        <f>$B$4+$B$3*SIN(C156)-$B$3*COS(F156)</f>
+        <f t="shared" si="3"/>
         <v>68.711235105692779</v>
       </c>
       <c r="I156">
-        <f>ABS($C$136-H156)</f>
+        <f t="shared" si="4"/>
         <v>3.7112351056927793</v>
       </c>
       <c r="J156">
-        <f>(90-B156)+E156</f>
+        <f t="shared" si="5"/>
         <v>46.105862324288701</v>
       </c>
     </row>
@@ -4578,27 +4590,27 @@
         <v>45.5</v>
       </c>
       <c r="C157">
-        <f>B157*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.79412480965741994</v>
       </c>
       <c r="E157">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C157))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>2.9872732187917359</v>
       </c>
       <c r="F157">
-        <f>E157*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>5.2137753324564731E-2</v>
       </c>
       <c r="H157">
-        <f>$B$4+$B$3*SIN(C157)-$B$3*COS(F157)</f>
+        <f t="shared" si="3"/>
         <v>60.785099358814279</v>
       </c>
       <c r="I157">
-        <f>ABS($C$136-H157)</f>
+        <f t="shared" si="4"/>
         <v>4.2149006411857215</v>
       </c>
       <c r="J157">
-        <f>(90-B157)+E157</f>
+        <f t="shared" si="5"/>
         <v>47.487273218791735</v>
       </c>
     </row>
@@ -4607,27 +4619,27 @@
         <v>51.5</v>
       </c>
       <c r="C158">
-        <f>B158*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.89884456477707964</v>
       </c>
       <c r="E158">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C158))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>7.4989927514624748</v>
       </c>
       <c r="F158">
-        <f>E158*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.13088211409620901</v>
       </c>
       <c r="H158">
-        <f>$B$4+$B$3*SIN(C158)-$B$3*COS(F158)</f>
+        <f t="shared" si="3"/>
         <v>69.426253793671606</v>
       </c>
       <c r="I158">
-        <f>ABS($C$136-H158)</f>
+        <f t="shared" si="4"/>
         <v>4.4262537936716058</v>
       </c>
       <c r="J158">
-        <f>(90-B158)+E158</f>
+        <f t="shared" si="5"/>
         <v>45.998992751462474</v>
       </c>
     </row>
@@ -4636,27 +4648,27 @@
         <v>45</v>
       </c>
       <c r="C159">
-        <f>B159*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.78539816339744828</v>
       </c>
       <c r="E159">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C159))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>2.6317537581121728</v>
       </c>
       <c r="F159">
-        <f>E159*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>4.5932768180791839E-2</v>
       </c>
       <c r="H159">
-        <f>$B$4+$B$3*SIN(C159)-$B$3*COS(F159)</f>
+        <f t="shared" si="3"/>
         <v>60.057270720926809</v>
       </c>
       <c r="I159">
-        <f>ABS($C$136-H159)</f>
+        <f t="shared" si="4"/>
         <v>4.9427292790731912</v>
       </c>
       <c r="J159">
-        <f>(90-B159)+E159</f>
+        <f t="shared" si="5"/>
         <v>47.631753758112175</v>
       </c>
     </row>
@@ -4665,27 +4677,27 @@
         <v>52</v>
       </c>
       <c r="C160">
-        <f>B160*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.90757121103705141</v>
       </c>
       <c r="E160">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C160))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>7.8952207821051994</v>
       </c>
       <c r="F160">
-        <f>E160*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.13779759781961751</v>
       </c>
       <c r="H160">
-        <f>$B$4+$B$3*SIN(C160)-$B$3*COS(F160)</f>
+        <f t="shared" si="3"/>
         <v>70.140651913354475</v>
       </c>
       <c r="I160">
-        <f>ABS($C$136-H160)</f>
+        <f t="shared" si="4"/>
         <v>5.1406519133544748</v>
       </c>
       <c r="J160">
-        <f>(90-B160)+E160</f>
+        <f t="shared" si="5"/>
         <v>45.895220782105199</v>
       </c>
     </row>
@@ -4694,27 +4706,27 @@
         <v>44.5</v>
       </c>
       <c r="C161">
-        <f>B161*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.77667151713747673</v>
       </c>
       <c r="E161">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C161))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>2.2794234245286051</v>
       </c>
       <c r="F161">
-        <f>E161*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>3.9783443805108634E-2</v>
       </c>
       <c r="H161">
-        <f>$B$4+$B$3*SIN(C161)-$B$3*COS(F161)</f>
+        <f t="shared" si="3"/>
         <v>59.32795482520288</v>
       </c>
       <c r="I161">
-        <f>ABS($C$136-H161)</f>
+        <f t="shared" si="4"/>
         <v>5.6720451747971197</v>
       </c>
       <c r="J161">
-        <f>(90-B161)+E161</f>
+        <f t="shared" si="5"/>
         <v>47.779423424528602</v>
       </c>
     </row>
@@ -4723,27 +4735,27 @@
         <v>52.5</v>
       </c>
       <c r="C162">
-        <f>B162*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.91629785729702307</v>
       </c>
       <c r="E162">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C162))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>8.2945438744690456</v>
       </c>
       <c r="F162">
-        <f>E162*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.14476710056061207</v>
       </c>
       <c r="H162">
-        <f>$B$4+$B$3*SIN(C162)-$B$3*COS(F162)</f>
+        <f t="shared" si="3"/>
         <v>70.854502765533809</v>
       </c>
       <c r="I162">
-        <f>ABS($C$136-H162)</f>
+        <f t="shared" si="4"/>
         <v>5.8545027655338089</v>
       </c>
       <c r="J162">
-        <f>(90-B162)+E162</f>
+        <f t="shared" si="5"/>
         <v>45.794543874469042</v>
       </c>
     </row>
@@ -4752,27 +4764,27 @@
         <v>44</v>
       </c>
       <c r="C163">
-        <f>B163*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.76794487087750496</v>
       </c>
       <c r="E163">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C163))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>1.9302931978244995</v>
       </c>
       <c r="F163">
-        <f>E163*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>3.368997183088776E-2</v>
       </c>
       <c r="H163">
-        <f>$B$4+$B$3*SIN(C163)-$B$3*COS(F163)</f>
+        <f t="shared" si="3"/>
         <v>58.597091000096597</v>
       </c>
       <c r="I163">
-        <f>ABS($C$136-H163)</f>
+        <f t="shared" si="4"/>
         <v>6.4029089999034028</v>
       </c>
       <c r="J163">
-        <f>(90-B163)+E163</f>
+        <f t="shared" si="5"/>
         <v>47.930293197824497</v>
       </c>
     </row>
@@ -4781,27 +4793,27 @@
         <v>53</v>
       </c>
       <c r="C164">
-        <f>B164*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.92502450355699462</v>
       </c>
       <c r="E164">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C164))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>8.6969602181241239</v>
       </c>
       <c r="F164">
-        <f>E164*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.15179059072123019</v>
       </c>
       <c r="H164">
-        <f>$B$4+$B$3*SIN(C164)-$B$3*COS(F164)</f>
+        <f t="shared" si="3"/>
         <v>71.567880723710402</v>
       </c>
       <c r="I164">
-        <f>ABS($C$136-H164)</f>
+        <f t="shared" si="4"/>
         <v>6.5678807237104024</v>
       </c>
       <c r="J164">
-        <f>(90-B164)+E164</f>
+        <f t="shared" si="5"/>
         <v>45.696960218124126</v>
       </c>
     </row>
@@ -4810,27 +4822,27 @@
         <v>43.5</v>
       </c>
       <c r="C165">
-        <f>B165*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.7592182246175333</v>
       </c>
       <c r="E165">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C165))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>1.5843745472940076</v>
       </c>
       <c r="F165">
-        <f>E165*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>2.7652552435075049E-2</v>
       </c>
       <c r="H165">
-        <f>$B$4+$B$3*SIN(C165)-$B$3*COS(F165)</f>
+        <f t="shared" si="3"/>
         <v>57.864619371047112</v>
       </c>
       <c r="I165">
-        <f>ABS($C$136-H165)</f>
+        <f t="shared" si="4"/>
         <v>7.1353806289528876</v>
       </c>
       <c r="J165">
-        <f>(90-B165)+E165</f>
+        <f t="shared" si="5"/>
         <v>48.084374547294004</v>
       </c>
     </row>
@@ -4839,27 +4851,27 @@
         <v>53.5</v>
       </c>
       <c r="C166">
-        <f>B166*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.93375114981696627</v>
       </c>
       <c r="E166">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C166))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>9.1024687539727314</v>
       </c>
       <c r="F166">
-        <f>E166*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.15886804981672983</v>
       </c>
       <c r="H166">
-        <f>$B$4+$B$3*SIN(C166)-$B$3*COS(F166)</f>
+        <f t="shared" si="3"/>
         <v>72.280861266852241</v>
       </c>
       <c r="I166">
-        <f>ABS($C$136-H166)</f>
+        <f t="shared" si="4"/>
         <v>7.2808612668522414</v>
       </c>
       <c r="J166">
-        <f>(90-B166)+E166</f>
+        <f t="shared" si="5"/>
         <v>45.60246875397273</v>
       </c>
     </row>
@@ -4868,27 +4880,27 @@
         <v>43</v>
       </c>
       <c r="C167">
-        <f>B167*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.75049157835756164</v>
       </c>
       <c r="E167">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C167))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>1.2416794180209523</v>
       </c>
       <c r="F167">
-        <f>E167*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>2.1671394098712628E-2</v>
       </c>
       <c r="H167">
-        <f>$B$4+$B$3*SIN(C167)-$B$3*COS(F167)</f>
+        <f t="shared" si="3"/>
         <v>57.13048085419851</v>
       </c>
       <c r="I167">
-        <f>ABS($C$136-H167)</f>
+        <f t="shared" si="4"/>
         <v>7.8695191458014904</v>
       </c>
       <c r="J167">
-        <f>(90-B167)+E167</f>
+        <f t="shared" si="5"/>
         <v>48.241679418020951</v>
       </c>
     </row>
@@ -4897,27 +4909,27 @@
         <v>54</v>
       </c>
       <c r="C168">
-        <f>B168*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.94247779607693793</v>
       </c>
       <c r="E168">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C168))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>9.5110691949849837</v>
       </c>
       <c r="F168">
-        <f>E168*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.1659994728374945</v>
       </c>
       <c r="H168">
-        <f>$B$4+$B$3*SIN(C168)-$B$3*COS(F168)</f>
+        <f t="shared" si="3"/>
         <v>72.993521014333979</v>
       </c>
       <c r="I168">
-        <f>ABS($C$136-H168)</f>
+        <f t="shared" si="4"/>
         <v>7.9935210143339788</v>
       </c>
       <c r="J168">
-        <f>(90-B168)+E168</f>
+        <f t="shared" si="5"/>
         <v>45.511069194984984</v>
       </c>
     </row>
@@ -4926,27 +4938,27 @@
         <v>42.5</v>
       </c>
       <c r="C169">
-        <f>B169*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.74176493209759009</v>
       </c>
       <c r="E169">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C169))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>0.90222021730909829</v>
       </c>
       <c r="F169">
-        <f>E169*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>1.57467133701025E-2</v>
       </c>
       <c r="H169">
-        <f>$B$4+$B$3*SIN(C169)-$B$3*COS(F169)</f>
+        <f t="shared" si="3"/>
         <v>56.394617151421812</v>
       </c>
       <c r="I169">
-        <f>ABS($C$136-H169)</f>
+        <f t="shared" si="4"/>
         <v>8.6053828485781878</v>
       </c>
       <c r="J169">
-        <f>(90-B169)+E169</f>
+        <f t="shared" si="5"/>
         <v>48.4022202173091</v>
       </c>
     </row>
@@ -4955,27 +4967,27 @@
         <v>54.5</v>
       </c>
       <c r="C170">
-        <f>B170*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.95120444233690948</v>
       </c>
       <c r="E170">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C170))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>9.9227620477081011</v>
       </c>
       <c r="F170">
-        <f>E170*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.17318486862444102</v>
       </c>
       <c r="H170">
-        <f>$B$4+$B$3*SIN(C170)-$B$3*COS(F170)</f>
+        <f t="shared" si="3"/>
         <v>73.705937763147134</v>
       </c>
       <c r="I170">
-        <f>ABS($C$136-H170)</f>
+        <f t="shared" si="4"/>
         <v>8.7059377631471335</v>
       </c>
       <c r="J170">
-        <f>(90-B170)+E170</f>
+        <f t="shared" si="5"/>
         <v>45.422762047708105</v>
       </c>
     </row>
@@ -4984,27 +4996,27 @@
         <v>42</v>
       </c>
       <c r="C171">
-        <f>B171*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.73303828583761843</v>
       </c>
       <c r="E171">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C171))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>0.56600980124253752</v>
       </c>
       <c r="F171">
-        <f>E171*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>9.8787346302409724E-3</v>
       </c>
       <c r="H171">
-        <f>$B$4+$B$3*SIN(C171)-$B$3*COS(F171)</f>
+        <f t="shared" si="3"/>
         <v>55.656970746612174</v>
       </c>
       <c r="I171">
-        <f>ABS($C$136-H171)</f>
+        <f t="shared" si="4"/>
         <v>9.3430292533878259</v>
       </c>
       <c r="J171">
-        <f>(90-B171)+E171</f>
+        <f t="shared" si="5"/>
         <v>48.566009801242537</v>
       </c>
     </row>
@@ -5013,27 +5025,27 @@
         <v>55</v>
       </c>
       <c r="C172">
-        <f>B172*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.95993108859688125</v>
       </c>
       <c r="E172">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C172))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>10.33754863460468</v>
       </c>
       <c r="F172">
-        <f>E172*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.18042426025889588</v>
       </c>
       <c r="H172">
-        <f>$B$4+$B$3*SIN(C172)-$B$3*COS(F172)</f>
+        <f t="shared" si="3"/>
         <v>74.418190527478657</v>
       </c>
       <c r="I172">
-        <f>ABS($C$136-H172)</f>
+        <f t="shared" si="4"/>
         <v>9.4181905274786573</v>
       </c>
       <c r="J172">
-        <f>(90-B172)+E172</f>
+        <f t="shared" si="5"/>
         <v>45.33754863460468</v>
       </c>
     </row>
@@ -5042,27 +5054,27 @@
         <v>41.5</v>
       </c>
       <c r="C173">
-        <f>B173*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.72431163957764677</v>
       </c>
       <c r="E173">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C173))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>0.23306146135655501</v>
       </c>
       <c r="F173">
-        <f>E173*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>4.067689860181415E-3</v>
       </c>
       <c r="H173">
-        <f>$B$4+$B$3*SIN(C173)-$B$3*COS(F173)</f>
+        <f t="shared" si="3"/>
         <v>54.917484903233884</v>
       </c>
       <c r="I173">
-        <f>ABS($C$136-H173)</f>
+        <f t="shared" si="4"/>
         <v>10.082515096766116</v>
       </c>
       <c r="J173">
-        <f>(90-B173)+E173</f>
+        <f t="shared" si="5"/>
         <v>48.733061461356556</v>
       </c>
     </row>
@@ -5071,27 +5083,27 @@
         <v>55.5</v>
       </c>
       <c r="C174">
-        <f>B174*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.96865773485685291</v>
       </c>
       <c r="E174">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C174))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>10.755431117278411</v>
       </c>
       <c r="F174">
-        <f>E174*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.18771768546796064</v>
       </c>
       <c r="H174">
-        <f>$B$4+$B$3*SIN(C174)-$B$3*COS(F174)</f>
+        <f t="shared" si="3"/>
         <v>75.130359580761308</v>
       </c>
       <c r="I174">
-        <f>ABS($C$136-H174)</f>
+        <f t="shared" si="4"/>
         <v>10.130359580761308</v>
       </c>
       <c r="J174">
-        <f>(90-B174)+E174</f>
+        <f t="shared" si="5"/>
         <v>45.255431117278413</v>
       </c>
     </row>
@@ -5100,27 +5112,27 @@
         <v>41</v>
       </c>
       <c r="C175">
-        <f>B175*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.715584993317675</v>
       </c>
       <c r="E175">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C175))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>-9.6611088600108572E-2</v>
       </c>
       <c r="F175">
-        <f>E175*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>-1.6861815900078539E-3</v>
       </c>
       <c r="H175">
-        <f>$B$4+$B$3*SIN(C175)-$B$3*COS(F175)</f>
+        <f t="shared" si="3"/>
         <v>54.176103663089975</v>
       </c>
       <c r="I175">
-        <f>ABS($C$136-H175)</f>
+        <f t="shared" si="4"/>
         <v>10.823896336910025</v>
       </c>
       <c r="J175">
-        <f>(90-B175)+E175</f>
+        <f t="shared" si="5"/>
         <v>48.903388911399894</v>
       </c>
     </row>
@@ -5129,27 +5141,27 @@
         <v>56</v>
       </c>
       <c r="C176">
-        <f>B176*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.97738438111682457</v>
       </c>
       <c r="E176">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C176))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>11.176412520649615</v>
       </c>
       <c r="F176">
-        <f>E176*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.19506519704645453</v>
       </c>
       <c r="H176">
-        <f>$B$4+$B$3*SIN(C176)-$B$3*COS(F176)</f>
+        <f t="shared" si="3"/>
         <v>75.84252650030858</v>
       </c>
       <c r="I176">
-        <f>ABS($C$136-H176)</f>
+        <f t="shared" si="4"/>
         <v>10.84252650030858</v>
       </c>
       <c r="J176">
-        <f>(90-B176)+E176</f>
+        <f t="shared" si="5"/>
         <v>45.176412520649613</v>
       </c>
     </row>
@@ -5158,27 +5170,27 @@
         <v>56.5</v>
       </c>
       <c r="C177">
-        <f>B177*PI()/180</f>
+        <f t="shared" si="0"/>
         <v>0.98611102737679612</v>
       </c>
       <c r="E177">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C177))-$B$2)/$B$3))</f>
+        <f t="shared" si="1"/>
         <v>11.600496758146646</v>
       </c>
       <c r="F177">
-        <f>E177*PI()/180</f>
+        <f t="shared" si="2"/>
         <v>0.20246686329658728</v>
       </c>
       <c r="H177">
-        <f>$B$4+$B$3*SIN(C177)-$B$3*COS(F177)</f>
+        <f t="shared" si="3"/>
         <v>76.554774214653477</v>
       </c>
       <c r="I177">
-        <f>ABS($C$136-H177)</f>
+        <f t="shared" si="4"/>
         <v>11.554774214653477</v>
       </c>
       <c r="J177">
-        <f>(90-B177)+E177</f>
+        <f t="shared" si="5"/>
         <v>45.100496758146647</v>
       </c>
     </row>
@@ -5187,27 +5199,27 @@
         <v>40.5</v>
       </c>
       <c r="C178">
-        <f>B178*PI()/180</f>
+        <f t="shared" ref="C178:C209" si="6">B178*PI()/180</f>
         <v>0.70685834705770345</v>
       </c>
       <c r="E178">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C178))-$B$2)/$B$3))</f>
+        <f t="shared" ref="E178:E209" si="7">DEGREES(ASIN(($C$142-($B$3*COS($C178))-$B$2)/$B$3))</f>
         <v>-0.42299372582948147</v>
       </c>
       <c r="F178">
-        <f>E178*PI()/180</f>
+        <f t="shared" ref="F178:F209" si="8">E178*PI()/180</f>
         <v>-7.3826332310026341E-3</v>
       </c>
       <c r="H178">
-        <f>$B$4+$B$3*SIN(C178)-$B$3*COS(F178)</f>
+        <f t="shared" ref="H178:H209" si="9">$B$4+$B$3*SIN(C178)-$B$3*COS(F178)</f>
         <v>53.432771846291416</v>
       </c>
       <c r="I178">
-        <f>ABS($C$136-H178)</f>
+        <f t="shared" ref="I178:I209" si="10">ABS($C$136-H178)</f>
         <v>11.567228153708584</v>
       </c>
       <c r="J178">
-        <f>(90-B178)+E178</f>
+        <f t="shared" ref="J178:J209" si="11">(90-B178)+E178</f>
         <v>49.077006274170522</v>
       </c>
     </row>
@@ -5216,27 +5228,27 @@
         <v>57</v>
       </c>
       <c r="C179">
-        <f>B179*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.99483767363676778</v>
       </c>
       <c r="E179">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C179))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>12.027688657983306</v>
       </c>
       <c r="F179">
-        <f>E179*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.20992276848658686</v>
       </c>
       <c r="H179">
-        <f>$B$4+$B$3*SIN(C179)-$B$3*COS(F179)</f>
+        <f t="shared" si="9"/>
         <v>77.267187053721145</v>
       </c>
       <c r="I179">
-        <f>ABS($C$136-H179)</f>
+        <f t="shared" si="10"/>
         <v>12.267187053721145</v>
       </c>
       <c r="J179">
-        <f>(90-B179)+E179</f>
+        <f t="shared" si="11"/>
         <v>45.027688657983305</v>
       </c>
     </row>
@@ -5245,27 +5257,27 @@
         <v>40</v>
       </c>
       <c r="C180">
-        <f>B180*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.69813170079773179</v>
       </c>
       <c r="E180">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C180))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-0.74607193159234986</v>
       </c>
       <c r="F180">
-        <f>E180*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-1.3021411663000405E-2</v>
       </c>
       <c r="H180">
-        <f>$B$4+$B$3*SIN(C180)-$B$3*COS(F180)</f>
+        <f t="shared" si="9"/>
         <v>52.68743505240441</v>
       </c>
       <c r="I180">
-        <f>ABS($C$136-H180)</f>
+        <f t="shared" si="10"/>
         <v>12.31256494759559</v>
       </c>
       <c r="J180">
-        <f>(90-B180)+E180</f>
+        <f t="shared" si="11"/>
         <v>49.253928068407653</v>
       </c>
     </row>
@@ -5274,27 +5286,27 @@
         <v>57.5</v>
       </c>
       <c r="C181">
-        <f>B181*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0035643198967394</v>
       </c>
       <c r="E181">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C181))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>12.457993990597073</v>
       </c>
       <c r="F181">
-        <f>E181*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.21743301332958639</v>
       </c>
       <c r="H181">
-        <f>$B$4+$B$3*SIN(C181)-$B$3*COS(F181)</f>
+        <f t="shared" si="9"/>
         <v>77.979850801973114</v>
       </c>
       <c r="I181">
-        <f>ABS($C$136-H181)</f>
+        <f t="shared" si="10"/>
         <v>12.979850801973114</v>
       </c>
       <c r="J181">
-        <f>(90-B181)+E181</f>
+        <f t="shared" si="11"/>
         <v>44.957993990597075</v>
       </c>
     </row>
@@ -5303,27 +5315,27 @@
         <v>39.5</v>
       </c>
       <c r="C182">
-        <f>B182*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.68940505453776013</v>
       </c>
       <c r="E182">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C182))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-1.0658308042759539</v>
       </c>
       <c r="F182">
-        <f>E182*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-1.860225680379465E-2</v>
       </c>
       <c r="H182">
-        <f>$B$4+$B$3*SIN(C182)-$B$3*COS(F182)</f>
+        <f t="shared" si="9"/>
         <v>51.940039662753648</v>
       </c>
       <c r="I182">
-        <f>ABS($C$136-H182)</f>
+        <f t="shared" si="10"/>
         <v>13.059960337246352</v>
       </c>
       <c r="J182">
-        <f>(90-B182)+E182</f>
+        <f t="shared" si="11"/>
         <v>49.434169195724046</v>
       </c>
     </row>
@@ -5332,27 +5344,27 @@
         <v>58</v>
       </c>
       <c r="C183">
-        <f>B183*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0122909661567112</v>
       </c>
       <c r="E183">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C183))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>12.891419497327774</v>
       </c>
       <c r="F183">
-        <f>E183*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.22499771548416198</v>
       </c>
       <c r="H183">
-        <f>$B$4+$B$3*SIN(C183)-$B$3*COS(F183)</f>
+        <f t="shared" si="9"/>
         <v>78.692852754672955</v>
       </c>
       <c r="I183">
-        <f>ABS($C$136-H183)</f>
+        <f t="shared" si="10"/>
         <v>13.692852754672955</v>
       </c>
       <c r="J183">
-        <f>(90-B183)+E183</f>
+        <f t="shared" si="11"/>
         <v>44.891419497327774</v>
       </c>
     </row>
@@ -5361,27 +5373,27 @@
         <v>39</v>
       </c>
       <c r="C184">
-        <f>B184*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.68067840827778847</v>
       </c>
       <c r="E184">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C184))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-1.3822550724371478</v>
       </c>
       <c r="F184">
-        <f>E184*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-2.4124902116420953E-2</v>
       </c>
       <c r="H184">
-        <f>$B$4+$B$3*SIN(C184)-$B$3*COS(F184)</f>
+        <f t="shared" si="9"/>
         <v>51.190532843861035</v>
       </c>
       <c r="I184">
-        <f>ABS($C$136-H184)</f>
+        <f t="shared" si="10"/>
         <v>13.809467156138965</v>
       </c>
       <c r="J184">
-        <f>(90-B184)+E184</f>
+        <f t="shared" si="11"/>
         <v>49.617744927562853</v>
       </c>
     </row>
@@ -5390,27 +5402,27 @@
         <v>58.5</v>
       </c>
       <c r="C185">
-        <f>B185*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0210176124166828</v>
       </c>
       <c r="E185">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C185))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>13.327972920421596</v>
       </c>
       <c r="F185">
-        <f>E185*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.23261701007800106</v>
       </c>
       <c r="H185">
-        <f>$B$4+$B$3*SIN(C185)-$B$3*COS(F185)</f>
+        <f t="shared" si="9"/>
         <v>79.406281777433605</v>
       </c>
       <c r="I185">
-        <f>ABS($C$136-H185)</f>
+        <f t="shared" si="10"/>
         <v>14.406281777433605</v>
       </c>
       <c r="J185">
-        <f>(90-B185)+E185</f>
+        <f t="shared" si="11"/>
         <v>44.827972920421594</v>
       </c>
     </row>
@@ -5419,27 +5431,27 @@
         <v>38.5</v>
       </c>
       <c r="C186">
-        <f>B186*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.67195176201781692</v>
       </c>
       <c r="E186">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C186))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-1.6953291078353074</v>
       </c>
       <c r="F186">
-        <f>E186*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-2.958907483662411E-2</v>
       </c>
       <c r="H186">
-        <f>$B$4+$B$3*SIN(C186)-$B$3*COS(F186)</f>
+        <f t="shared" si="9"/>
         <v>50.438862551999947</v>
       </c>
       <c r="I186">
-        <f>ABS($C$136-H186)</f>
+        <f t="shared" si="10"/>
         <v>14.561137448000053</v>
       </c>
       <c r="J186">
-        <f>(90-B186)+E186</f>
+        <f t="shared" si="11"/>
         <v>49.804670892164694</v>
       </c>
     </row>
@@ -5448,27 +5460,27 @@
         <v>59</v>
       </c>
       <c r="C187">
-        <f>B187*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0297442586766543</v>
       </c>
       <c r="E187">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C187))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>13.767663034451015</v>
       </c>
       <c r="F187">
-        <f>E187*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.24029105025628372</v>
       </c>
       <c r="H187">
-        <f>$B$4+$B$3*SIN(C187)-$B$3*COS(F187)</f>
+        <f t="shared" si="9"/>
         <v>80.120228369218466</v>
       </c>
       <c r="I187">
-        <f>ABS($C$136-H187)</f>
+        <f t="shared" si="10"/>
         <v>15.120228369218466</v>
       </c>
       <c r="J187">
-        <f>(90-B187)+E187</f>
+        <f t="shared" si="11"/>
         <v>44.767663034451019</v>
       </c>
     </row>
@@ -5477,27 +5489,27 @@
         <v>38</v>
       </c>
       <c r="C188">
-        <f>B188*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.66322511575784515</v>
       </c>
       <c r="E188">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C188))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-2.005036938468991</v>
       </c>
       <c r="F188">
-        <f>E188*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-3.4994496200390843E-2</v>
       </c>
       <c r="H188">
-        <f>$B$4+$B$3*SIN(C188)-$B$3*COS(F188)</f>
+        <f t="shared" si="9"/>
         <v>49.68497753884526</v>
       </c>
       <c r="I188">
-        <f>ABS($C$136-H188)</f>
+        <f t="shared" si="10"/>
         <v>15.31502246115474</v>
       </c>
       <c r="J188">
-        <f>(90-B188)+E188</f>
+        <f t="shared" si="11"/>
         <v>49.99496306153101</v>
       </c>
     </row>
@@ -5506,27 +5518,27 @@
         <v>59.5</v>
       </c>
       <c r="C189">
-        <f>B189*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0384709049366261</v>
       </c>
       <c r="E189">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C189))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>14.210499679247457</v>
       </c>
       <c r="F189">
-        <f>E189*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.24802000775646624</v>
       </c>
       <c r="H189">
-        <f>$B$4+$B$3*SIN(C189)-$B$3*COS(F189)</f>
+        <f t="shared" si="9"/>
         <v>80.834784728982427</v>
       </c>
       <c r="I189">
-        <f>ABS($C$136-H189)</f>
+        <f t="shared" si="10"/>
         <v>15.834784728982427</v>
       </c>
       <c r="J189">
-        <f>(90-B189)+E189</f>
+        <f t="shared" si="11"/>
         <v>44.710499679247455</v>
       </c>
     </row>
@@ -5535,27 +5547,27 @@
         <v>37.5</v>
       </c>
       <c r="C190">
-        <f>B190*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.6544984694978736</v>
       </c>
       <c r="E190">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C190))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-2.3113622616291325</v>
       </c>
       <c r="F190">
-        <f>E190*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-4.034088167177096E-2</v>
       </c>
       <c r="H190">
-        <f>$B$4+$B$3*SIN(C190)-$B$3*COS(F190)</f>
+        <f t="shared" si="9"/>
         <v>48.928827358200607</v>
       </c>
       <c r="I190">
-        <f>ABS($C$136-H190)</f>
+        <f t="shared" si="10"/>
         <v>16.071172641799393</v>
       </c>
       <c r="J190">
-        <f>(90-B190)+E190</f>
+        <f t="shared" si="11"/>
         <v>50.188637738370865</v>
       </c>
     </row>
@@ -5564,27 +5576,27 @@
         <v>60</v>
       </c>
       <c r="C191">
-        <f>B191*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0471975511965976</v>
       </c>
       <c r="E191">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C191))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>14.65649379445019</v>
       </c>
       <c r="F191">
-        <f>E191*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.25580407351127282</v>
       </c>
       <c r="H191">
-        <f>$B$4+$B$3*SIN(C191)-$B$3*COS(F191)</f>
+        <f t="shared" si="9"/>
         <v>81.550044826152629</v>
       </c>
       <c r="I191">
-        <f>ABS($C$136-H191)</f>
+        <f t="shared" si="10"/>
         <v>16.550044826152629</v>
       </c>
       <c r="J191">
-        <f>(90-B191)+E191</f>
+        <f t="shared" si="11"/>
         <v>44.656493794450192</v>
       </c>
     </row>
@@ -5593,27 +5605,27 @@
         <v>37</v>
       </c>
       <c r="C192">
-        <f>B192*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.64577182323790194</v>
       </c>
       <c r="E192">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C192))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-2.6142884569811371</v>
       </c>
       <c r="F192">
-        <f>E192*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-4.5627941171202981E-2</v>
       </c>
       <c r="H192">
-        <f>$B$4+$B$3*SIN(C192)-$B$3*COS(F192)</f>
+        <f t="shared" si="9"/>
         <v>48.170362373783945</v>
       </c>
       <c r="I192">
-        <f>ABS($C$136-H192)</f>
+        <f t="shared" si="10"/>
         <v>16.829637626216055</v>
       </c>
       <c r="J192">
-        <f>(90-B192)+E192</f>
+        <f t="shared" si="11"/>
         <v>50.385711543018864</v>
       </c>
     </row>
@@ -5622,27 +5634,27 @@
         <v>60.5</v>
       </c>
       <c r="C193">
-        <f>B193*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0559241974565694</v>
       </c>
       <c r="E193">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C193))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>15.105657455782358</v>
       </c>
       <c r="F193">
-        <f>E193*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.26364345828183189</v>
       </c>
       <c r="H193">
-        <f>$B$4+$B$3*SIN(C193)-$B$3*COS(F193)</f>
+        <f t="shared" si="9"/>
         <v>82.266104475164141</v>
       </c>
       <c r="I193">
-        <f>ABS($C$136-H193)</f>
+        <f t="shared" si="10"/>
         <v>17.266104475164141</v>
       </c>
       <c r="J193">
-        <f>(90-B193)+E193</f>
+        <f t="shared" si="11"/>
         <v>44.605657455782357</v>
       </c>
     </row>
@@ -5651,27 +5663,27 @@
         <v>36.5</v>
       </c>
       <c r="C194">
-        <f>B194*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.63704517697793028</v>
       </c>
       <c r="E194">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C194))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-2.9137985996872611</v>
       </c>
       <c r="F194">
-        <f>E194*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-5.0855379304542925E-2</v>
       </c>
       <c r="H194">
-        <f>$B$4+$B$3*SIN(C194)-$B$3*COS(F194)</f>
+        <f t="shared" si="9"/>
         <v>47.409533768053777</v>
       </c>
       <c r="I194">
-        <f>ABS($C$136-H194)</f>
+        <f t="shared" si="10"/>
         <v>17.590466231946223</v>
       </c>
       <c r="J194">
-        <f>(90-B194)+E194</f>
+        <f t="shared" si="11"/>
         <v>50.586201400312738</v>
       </c>
     </row>
@@ -5680,27 +5692,27 @@
         <v>61</v>
       </c>
       <c r="C195">
-        <f>B195*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.064650843716541</v>
       </c>
       <c r="E195">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C195))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>15.558003913172815</v>
       </c>
       <c r="F195">
-        <f>E195*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.27153839332302759</v>
       </c>
       <c r="H195">
-        <f>$B$4+$B$3*SIN(C195)-$B$3*COS(F195)</f>
+        <f t="shared" si="9"/>
         <v>82.983061414283029</v>
       </c>
       <c r="I195">
-        <f>ABS($C$136-H195)</f>
+        <f t="shared" si="10"/>
         <v>17.983061414283029</v>
       </c>
       <c r="J195">
-        <f>(90-B195)+E195</f>
+        <f t="shared" si="11"/>
         <v>44.558003913172811</v>
       </c>
     </row>
@@ -5709,27 +5721,27 @@
         <v>36</v>
       </c>
       <c r="C196">
-        <f>B196*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.62831853071795862</v>
       </c>
       <c r="E196">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C196))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-3.2098754735798845</v>
       </c>
       <c r="F196">
-        <f>E196*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-5.6022895592981244E-2</v>
       </c>
       <c r="H196">
-        <f>$B$4+$B$3*SIN(C196)-$B$3*COS(F196)</f>
+        <f t="shared" si="9"/>
         <v>46.646293552056946</v>
       </c>
       <c r="I196">
-        <f>ABS($C$136-H196)</f>
+        <f t="shared" si="10"/>
         <v>18.353706447943054</v>
       </c>
       <c r="J196">
-        <f>(90-B196)+E196</f>
+        <f t="shared" si="11"/>
         <v>50.790124526420115</v>
       </c>
     </row>
@@ -5738,27 +5750,27 @@
         <v>61.5</v>
       </c>
       <c r="C197">
-        <f>B197*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0733774899765127</v>
       </c>
       <c r="E197">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C197))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>16.013547630851349</v>
       </c>
       <c r="F197">
-        <f>E197*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.27948913108329348</v>
       </c>
       <c r="H197">
-        <f>$B$4+$B$3*SIN(C197)-$B$3*COS(F197)</f>
+        <f t="shared" si="9"/>
         <v>83.701015388967221</v>
       </c>
       <c r="I197">
-        <f>ABS($C$136-H197)</f>
+        <f t="shared" si="10"/>
         <v>18.701015388967221</v>
       </c>
       <c r="J197">
-        <f>(90-B197)+E197</f>
+        <f t="shared" si="11"/>
         <v>44.513547630851349</v>
       </c>
     </row>
@@ -5767,27 +5779,27 @@
         <v>35.5</v>
       </c>
       <c r="C198">
-        <f>B198*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.61959188445798696</v>
       </c>
       <c r="E198">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C198))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-3.5025015843957426</v>
       </c>
       <c r="F198">
-        <f>E198*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-6.1130184704023753E-2</v>
       </c>
       <c r="H198">
-        <f>$B$4+$B$3*SIN(C198)-$B$3*COS(F198)</f>
+        <f t="shared" si="9"/>
         <v>45.880594576281283</v>
       </c>
       <c r="I198">
-        <f>ABS($C$136-H198)</f>
+        <f t="shared" si="10"/>
         <v>19.119405423718717</v>
       </c>
       <c r="J198">
-        <f>(90-B198)+E198</f>
+        <f t="shared" si="11"/>
         <v>50.997498415604255</v>
       </c>
     </row>
@@ -5796,27 +5808,27 @@
         <v>62</v>
       </c>
       <c r="C199">
-        <f>B199*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0821041362364843</v>
       </c>
       <c r="E199">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C199))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>16.472304329553836</v>
       </c>
       <c r="F199">
-        <f>E199*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.28749594594123151</v>
       </c>
       <c r="H199">
-        <f>$B$4+$B$3*SIN(C199)-$B$3*COS(F199)</f>
+        <f t="shared" si="9"/>
         <v>84.42006824003515</v>
       </c>
       <c r="I199">
-        <f>ABS($C$136-H199)</f>
+        <f t="shared" si="10"/>
         <v>19.42006824003515</v>
       </c>
       <c r="J199">
-        <f>(90-B199)+E199</f>
+        <f t="shared" si="11"/>
         <v>44.472304329553836</v>
       </c>
     </row>
@@ -5825,27 +5837,27 @@
         <v>35</v>
       </c>
       <c r="C200">
-        <f>B200*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.6108652381980153</v>
       </c>
       <c r="E200">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C200))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-3.7916591730802063</v>
       </c>
       <c r="F200">
-        <f>E200*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-6.6176936683695148E-2</v>
       </c>
       <c r="H200">
-        <f>$B$4+$B$3*SIN(C200)-$B$3*COS(F200)</f>
+        <f t="shared" si="9"/>
         <v>45.112390542494254</v>
       </c>
       <c r="I200">
-        <f>ABS($C$136-H200)</f>
+        <f t="shared" si="10"/>
         <v>19.887609457505746</v>
       </c>
       <c r="J200">
-        <f>(90-B200)+E200</f>
+        <f t="shared" si="11"/>
         <v>51.208340826919795</v>
       </c>
     </row>
@@ -5854,27 +5866,27 @@
         <v>62.5</v>
       </c>
       <c r="C201">
-        <f>B201*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0908307824964558</v>
       </c>
       <c r="E201">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C201))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>16.934291030984738</v>
       </c>
       <c r="F201">
-        <f>E201*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.29555913498162878</v>
       </c>
       <c r="H201">
-        <f>$B$4+$B$3*SIN(C201)-$B$3*COS(F201)</f>
+        <f t="shared" si="9"/>
         <v>85.140323996934271</v>
       </c>
       <c r="I201">
-        <f>ABS($C$136-H201)</f>
+        <f t="shared" si="10"/>
         <v>20.140323996934271</v>
       </c>
       <c r="J201">
-        <f>(90-B201)+E201</f>
+        <f t="shared" si="11"/>
         <v>44.434291030984738</v>
       </c>
     </row>
@@ -5883,27 +5895,27 @@
         <v>34.5</v>
       </c>
       <c r="C202">
-        <f>B202*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.60213859193804364</v>
       </c>
       <c r="E202">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C202))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-4.0773302291700269</v>
       </c>
       <c r="F202">
-        <f>E202*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-7.1162837190111919E-2</v>
       </c>
       <c r="H202">
-        <f>$B$4+$B$3*SIN(C202)-$B$3*COS(F202)</f>
+        <f t="shared" si="9"/>
         <v>44.34163601654997</v>
       </c>
       <c r="I202">
-        <f>ABS($C$136-H202)</f>
+        <f t="shared" si="10"/>
         <v>20.65836398345003</v>
       </c>
       <c r="J202">
-        <f>(90-B202)+E202</f>
+        <f t="shared" si="11"/>
         <v>51.42266977082997</v>
       </c>
     </row>
@@ -5912,27 +5924,27 @@
         <v>63</v>
       </c>
       <c r="C203">
-        <f>B203*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.0995574287564276</v>
       </c>
       <c r="E203">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C203))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>17.399526104694907</v>
       </c>
       <c r="F203">
-        <f>E203*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.30367901881362969</v>
       </c>
       <c r="H203">
-        <f>$B$4+$B$3*SIN(C203)-$B$3*COS(F203)</f>
+        <f t="shared" si="9"/>
         <v>85.861888976424694</v>
       </c>
       <c r="I203">
-        <f>ABS($C$136-H203)</f>
+        <f t="shared" si="10"/>
         <v>20.861888976424694</v>
       </c>
       <c r="J203">
-        <f>(90-B203)+E203</f>
+        <f t="shared" si="11"/>
         <v>44.399526104694907</v>
       </c>
     </row>
@@ -5941,27 +5953,27 @@
         <v>34</v>
       </c>
       <c r="C204">
-        <f>B204*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.59341194567807209</v>
       </c>
       <c r="E204">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C204))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-4.3594965042622693</v>
       </c>
       <c r="F204">
-        <f>E204*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-7.608756772855961E-2</v>
       </c>
       <c r="H204">
-        <f>$B$4+$B$3*SIN(C204)-$B$3*COS(F204)</f>
+        <f t="shared" si="9"/>
         <v>43.56828644214616</v>
       </c>
       <c r="I204">
-        <f>ABS($C$136-H204)</f>
+        <f t="shared" si="10"/>
         <v>21.43171355785384</v>
       </c>
       <c r="J204">
-        <f>(90-B204)+E204</f>
+        <f t="shared" si="11"/>
         <v>51.640503495737732</v>
       </c>
     </row>
@@ -5970,27 +5982,27 @@
         <v>63.5</v>
       </c>
       <c r="C205">
-        <f>B205*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.1082840750163994</v>
       </c>
       <c r="E205">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C205))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>17.868029317545425</v>
       </c>
       <c r="F205">
-        <f>E205*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.31185594243404302</v>
       </c>
       <c r="H205">
-        <f>$B$4+$B$3*SIN(C205)-$B$3*COS(F205)</f>
+        <f t="shared" si="9"/>
         <v>86.584871887018537</v>
       </c>
       <c r="I205">
-        <f>ABS($C$136-H205)</f>
+        <f t="shared" si="10"/>
         <v>21.584871887018537</v>
       </c>
       <c r="J205">
-        <f>(90-B205)+E205</f>
+        <f t="shared" si="11"/>
         <v>44.368029317545421</v>
       </c>
     </row>
@@ -5999,27 +6011,27 @@
         <v>33.5</v>
       </c>
       <c r="C206">
-        <f>B206*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.58468529941810032</v>
       </c>
       <c r="E206">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C206))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-4.6381395255764115</v>
       </c>
       <c r="F206">
-        <f>E206*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-8.0950805888196128E-2</v>
       </c>
       <c r="H206">
-        <f>$B$4+$B$3*SIN(C206)-$B$3*COS(F206)</f>
+        <f t="shared" si="9"/>
         <v>42.792298155512924</v>
       </c>
       <c r="I206">
-        <f>ABS($C$136-H206)</f>
+        <f t="shared" si="10"/>
         <v>22.207701844487076</v>
       </c>
       <c r="J206">
-        <f>(90-B206)+E206</f>
+        <f t="shared" si="11"/>
         <v>51.861860474423587</v>
       </c>
     </row>
@@ -6028,27 +6040,27 @@
         <v>64</v>
       </c>
       <c r="C207">
-        <f>B207*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.1170107212763709</v>
       </c>
       <c r="E207">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C207))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>18.339821885941223</v>
       </c>
       <c r="F207">
-        <f>E207*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.32009027613899027</v>
       </c>
       <c r="H207">
-        <f>$B$4+$B$3*SIN(C207)-$B$3*COS(F207)</f>
+        <f t="shared" si="9"/>
         <v>87.309383939544347</v>
       </c>
       <c r="I207">
-        <f>ABS($C$136-H207)</f>
+        <f t="shared" si="10"/>
         <v>22.309383939544347</v>
       </c>
       <c r="J207">
-        <f>(90-B207)+E207</f>
+        <f t="shared" si="11"/>
         <v>44.33982188594122</v>
       </c>
     </row>
@@ -6057,27 +6069,27 @@
         <v>33</v>
       </c>
       <c r="C208">
-        <f>B208*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>0.57595865315812877</v>
       </c>
       <c r="E208">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C208))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>-4.9132406096156247</v>
       </c>
       <c r="F208">
-        <f>E208*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>-8.5752225580486022E-2</v>
       </c>
       <c r="H208">
-        <f>$B$4+$B$3*SIN(C208)-$B$3*COS(F208)</f>
+        <f t="shared" si="9"/>
         <v>42.013628401014714</v>
       </c>
       <c r="I208">
-        <f>ABS($C$136-H208)</f>
+        <f t="shared" si="10"/>
         <v>22.986371598985286</v>
       </c>
       <c r="J208">
-        <f>(90-B208)+E208</f>
+        <f t="shared" si="11"/>
         <v>52.086759390384373</v>
       </c>
     </row>
@@ -6086,27 +6098,27 @@
         <v>64.5</v>
       </c>
       <c r="C209">
-        <f>B209*PI()/180</f>
+        <f t="shared" si="6"/>
         <v>1.1257373675363425</v>
       </c>
       <c r="E209">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C209))-$B$2)/$B$3))</f>
+        <f t="shared" si="7"/>
         <v>18.814926531033038</v>
       </c>
       <c r="F209">
-        <f>E209*PI()/180</f>
+        <f t="shared" si="8"/>
         <v>0.32838241648736155</v>
       </c>
       <c r="H209">
-        <f>$B$4+$B$3*SIN(C209)-$B$3*COS(F209)</f>
+        <f t="shared" si="9"/>
         <v>88.03553896423584</v>
       </c>
       <c r="I209">
-        <f>ABS($C$136-H209)</f>
+        <f t="shared" si="10"/>
         <v>23.03553896423584</v>
       </c>
       <c r="J209">
-        <f>(90-B209)+E209</f>
+        <f t="shared" si="11"/>
         <v>44.314926531033038</v>
       </c>
     </row>
@@ -6115,27 +6127,27 @@
         <v>65</v>
       </c>
       <c r="C210">
-        <f>B210*PI()/180</f>
+        <f t="shared" ref="C210:C241" si="12">B210*PI()/180</f>
         <v>1.1344640137963142</v>
       </c>
       <c r="E210">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C210))-$B$2)/$B$3))</f>
+        <f t="shared" ref="E210:E241" si="13">DEGREES(ASIN(($C$142-($B$3*COS($C210))-$B$2)/$B$3))</f>
         <v>19.293367537102117</v>
       </c>
       <c r="F210">
-        <f>E210*PI()/180</f>
+        <f t="shared" ref="F210:F241" si="14">E210*PI()/180</f>
         <v>0.33673278731982115</v>
       </c>
       <c r="H210">
-        <f>$B$4+$B$3*SIN(C210)-$B$3*COS(F210)</f>
+        <f t="shared" ref="H210:H241" si="15">$B$4+$B$3*SIN(C210)-$B$3*COS(F210)</f>
         <v>88.763453534777753</v>
       </c>
       <c r="I210">
-        <f>ABS($C$136-H210)</f>
+        <f t="shared" ref="I210:I241" si="16">ABS($C$136-H210)</f>
         <v>23.763453534777753</v>
       </c>
       <c r="J210">
-        <f>(90-B210)+E210</f>
+        <f t="shared" ref="J210:J241" si="17">(90-B210)+E210</f>
         <v>44.293367537102114</v>
       </c>
     </row>
@@ -6144,27 +6156,27 @@
         <v>32.5</v>
       </c>
       <c r="C211">
-        <f>B211*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.56723200689815712</v>
       </c>
       <c r="E211">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C211))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-5.1847808759329936</v>
       </c>
       <c r="F211">
-        <f>E211*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-9.0491497279466357E-2</v>
       </c>
       <c r="H211">
-        <f>$B$4+$B$3*SIN(C211)-$B$3*COS(F211)</f>
+        <f t="shared" si="15"/>
         <v>41.232235347645386</v>
       </c>
       <c r="I211">
-        <f>ABS($C$136-H211)</f>
+        <f t="shared" si="16"/>
         <v>23.767764652354614</v>
       </c>
       <c r="J211">
-        <f>(90-B211)+E211</f>
+        <f t="shared" si="17"/>
         <v>52.315219124067006</v>
       </c>
     </row>
@@ -6173,27 +6185,27 @@
         <v>65.5</v>
       </c>
       <c r="C212">
-        <f>B212*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.143190660056286</v>
       </c>
       <c r="E212">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C212))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>19.775170813359903</v>
       </c>
       <c r="F212">
-        <f>E212*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.34514184083741539</v>
       </c>
       <c r="H212">
-        <f>$B$4+$B$3*SIN(C212)-$B$3*COS(F212)</f>
+        <f t="shared" si="15"/>
         <v>89.493247099778088</v>
       </c>
       <c r="I212">
-        <f>ABS($C$136-H212)</f>
+        <f t="shared" si="16"/>
         <v>24.493247099778088</v>
       </c>
       <c r="J212">
-        <f>(90-B212)+E212</f>
+        <f t="shared" si="17"/>
         <v>44.275170813359907</v>
       </c>
     </row>
@@ -6202,27 +6214,27 @@
         <v>32</v>
       </c>
       <c r="C213">
-        <f>B213*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.55850536063818546</v>
       </c>
       <c r="E213">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C213))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-5.452741261007005</v>
       </c>
       <c r="F213">
-        <f>E213*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-9.5168288263919723E-2</v>
       </c>
       <c r="H213">
-        <f>$B$4+$B$3*SIN(C213)-$B$3*COS(F213)</f>
+        <f t="shared" si="15"/>
         <v>40.4480781063981</v>
       </c>
       <c r="I213">
-        <f>ABS($C$136-H213)</f>
+        <f t="shared" si="16"/>
         <v>24.5519218936019</v>
       </c>
       <c r="J213">
-        <f>(90-B213)+E213</f>
+        <f t="shared" si="17"/>
         <v>52.547258738992994</v>
       </c>
     </row>
@@ -6231,27 +6243,27 @@
         <v>66</v>
       </c>
       <c r="C214">
-        <f>B214*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.1519173063162575</v>
       </c>
       <c r="E214">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C214))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>20.260363959413915</v>
       </c>
       <c r="F214">
-        <f>E214*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.35361005874416762</v>
       </c>
       <c r="H214">
-        <f>$B$4+$B$3*SIN(C214)-$B$3*COS(F214)</f>
+        <f t="shared" si="15"/>
         <v>90.225042122176916</v>
       </c>
       <c r="I214">
-        <f>ABS($C$136-H214)</f>
+        <f t="shared" si="16"/>
         <v>25.225042122176916</v>
       </c>
       <c r="J214">
-        <f>(90-B214)+E214</f>
+        <f t="shared" si="17"/>
         <v>44.260363959413915</v>
       </c>
     </row>
@@ -6260,27 +6272,27 @@
         <v>31.5</v>
       </c>
       <c r="C215">
-        <f>B215*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.5497787143782138</v>
       </c>
       <c r="E215">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C215))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-5.7171025322305296</v>
       </c>
       <c r="F215">
-        <f>E215*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-9.9782262861527971E-2</v>
       </c>
       <c r="H215">
-        <f>$B$4+$B$3*SIN(C215)-$B$3*COS(F215)</f>
+        <f t="shared" si="15"/>
         <v>39.661116748488922</v>
       </c>
       <c r="I215">
-        <f>ABS($C$136-H215)</f>
+        <f t="shared" si="16"/>
         <v>25.338883251511078</v>
       </c>
       <c r="J215">
-        <f>(90-B215)+E215</f>
+        <f t="shared" si="17"/>
         <v>52.782897467769473</v>
       </c>
     </row>
@@ -6289,27 +6301,27 @@
         <v>66.5</v>
       </c>
       <c r="C216">
-        <f>B216*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.1606439525762291</v>
       </c>
       <c r="E216">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C216))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>20.748976334672673</v>
       </c>
       <c r="F216">
-        <f>E216*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.36213795345842303</v>
       </c>
       <c r="H216">
-        <f>$B$4+$B$3*SIN(C216)-$B$3*COS(F216)</f>
+        <f t="shared" si="15"/>
         <v>90.958964227144961</v>
       </c>
       <c r="I216">
-        <f>ABS($C$136-H216)</f>
+        <f t="shared" si="16"/>
         <v>25.958964227144961</v>
       </c>
       <c r="J216">
-        <f>(90-B216)+E216</f>
+        <f t="shared" si="17"/>
         <v>44.248976334672676</v>
       </c>
     </row>
@@ -6318,27 +6330,27 @@
         <v>31</v>
       </c>
       <c r="C217">
-        <f>B217*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.54105206811824214</v>
       </c>
       <c r="E217">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C217))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-5.9778453020163358</v>
       </c>
       <c r="F217">
-        <f>E217*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.10433308269505989</v>
       </c>
       <c r="H217">
-        <f>$B$4+$B$3*SIN(C217)-$B$3*COS(F217)</f>
+        <f t="shared" si="15"/>
         <v>38.87131232441385</v>
       </c>
       <c r="I217">
-        <f>ABS($C$136-H217)</f>
+        <f t="shared" si="16"/>
         <v>26.12868767558615</v>
       </c>
       <c r="J217">
-        <f>(90-B217)+E217</f>
+        <f t="shared" si="17"/>
         <v>53.022154697983666</v>
       </c>
     </row>
@@ -6347,27 +6359,27 @@
         <v>67</v>
       </c>
       <c r="C218">
-        <f>B218*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.1693705988362006</v>
       </c>
       <c r="E218">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C218))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>21.241039131985229</v>
       </c>
       <c r="F218">
-        <f>E218*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.3707260693981006</v>
       </c>
       <c r="H218">
-        <f>$B$4+$B$3*SIN(C218)-$B$3*COS(F218)</f>
+        <f t="shared" si="15"/>
         <v>91.695142359074097</v>
       </c>
       <c r="I218">
-        <f>ABS($C$136-H218)</f>
+        <f t="shared" si="16"/>
         <v>26.695142359074097</v>
       </c>
       <c r="J218">
-        <f>(90-B218)+E218</f>
+        <f t="shared" si="17"/>
         <v>44.241039131985232</v>
       </c>
     </row>
@@ -6376,27 +6388,27 @@
         <v>30.5</v>
       </c>
       <c r="C219">
-        <f>B219*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.53232542185827048</v>
       </c>
       <c r="E219">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C219))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-6.2349500420215644</v>
       </c>
       <c r="F219">
-        <f>E219*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.10882040693063509</v>
       </c>
       <c r="H219">
-        <f>$B$4+$B$3*SIN(C219)-$B$3*COS(F219)</f>
+        <f t="shared" si="15"/>
         <v>38.078626883817506</v>
       </c>
       <c r="I219">
-        <f>ABS($C$136-H219)</f>
+        <f t="shared" si="16"/>
         <v>26.921373116182494</v>
       </c>
       <c r="J219">
-        <f>(90-B219)+E219</f>
+        <f t="shared" si="17"/>
         <v>53.265049957978434</v>
       </c>
     </row>
@@ -6405,27 +6417,27 @@
         <v>67.5</v>
       </c>
       <c r="C220">
-        <f>B220*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.1780972450961724</v>
       </c>
       <c r="E220">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C220))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>21.736585455837329</v>
       </c>
       <c r="F220">
-        <f>E220*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.37937498434547384</v>
       </c>
       <c r="H220">
-        <f>$B$4+$B$3*SIN(C220)-$B$3*COS(F220)</f>
+        <f t="shared" si="15"/>
         <v>92.433708948315186</v>
       </c>
       <c r="I220">
-        <f>ABS($C$136-H220)</f>
+        <f t="shared" si="16"/>
         <v>27.433708948315186</v>
       </c>
       <c r="J220">
-        <f>(90-B220)+E220</f>
+        <f t="shared" si="17"/>
         <v>44.236585455837329</v>
       </c>
     </row>
@@ -6434,27 +6446,27 @@
         <v>30</v>
       </c>
       <c r="C221">
-        <f>B221*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.52359877559829882</v>
       </c>
       <c r="E221">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C221))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-6.4883970974928928</v>
       </c>
       <c r="F221">
-        <f>E221*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.1132438925280945</v>
       </c>
       <c r="H221">
-        <f>$B$4+$B$3*SIN(C221)-$B$3*COS(F221)</f>
+        <f t="shared" si="15"/>
         <v>37.28302349615177</v>
       </c>
       <c r="I221">
-        <f>ABS($C$136-H221)</f>
+        <f t="shared" si="16"/>
         <v>27.71697650384823</v>
       </c>
       <c r="J221">
-        <f>(90-B221)+E221</f>
+        <f t="shared" si="17"/>
         <v>53.511602902507107</v>
       </c>
     </row>
@@ -6463,27 +6475,27 @@
         <v>68</v>
       </c>
       <c r="C222">
-        <f>B222*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.1868238913561442</v>
       </c>
       <c r="E222">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C222))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>22.235650405453885</v>
       </c>
       <c r="F222">
-        <f>E222*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.38808531089758236</v>
       </c>
       <c r="H222">
-        <f>$B$4+$B$3*SIN(C222)-$B$3*COS(F222)</f>
+        <f t="shared" si="15"/>
         <v>93.174800088377438</v>
       </c>
       <c r="I222">
-        <f>ABS($C$136-H222)</f>
+        <f t="shared" si="16"/>
         <v>28.174800088377438</v>
       </c>
       <c r="J222">
-        <f>(90-B222)+E222</f>
+        <f t="shared" si="17"/>
         <v>44.235650405453882</v>
       </c>
     </row>
@@ -6492,27 +6504,27 @@
         <v>29.5</v>
       </c>
       <c r="C223">
-        <f>B223*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.51487212933832716</v>
       </c>
       <c r="E223">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C223))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-6.7381667017331814</v>
       </c>
       <c r="F223">
-        <f>E223*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.11760319449349073</v>
       </c>
       <c r="H223">
-        <f>$B$4+$B$3*SIN(C223)-$B$3*COS(F223)</f>
+        <f t="shared" si="15"/>
         <v>36.484466272101002</v>
       </c>
       <c r="I223">
-        <f>ABS($C$136-H223)</f>
+        <f t="shared" si="16"/>
         <v>28.515533727898998</v>
       </c>
       <c r="J223">
-        <f>(90-B223)+E223</f>
+        <f t="shared" si="17"/>
         <v>53.761833298266822</v>
       </c>
     </row>
@@ -6521,27 +6533,27 @@
         <v>68.5</v>
       </c>
       <c r="C224">
-        <f>B224*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.1955505376161157</v>
       </c>
       <c r="E224">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C224))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>22.738271163189225</v>
       </c>
       <c r="F224">
-        <f>E224*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.39685769800893278</v>
       </c>
       <c r="H224">
-        <f>$B$4+$B$3*SIN(C224)-$B$3*COS(F224)</f>
+        <f t="shared" si="15"/>
         <v>93.918555724367792</v>
       </c>
       <c r="I224">
-        <f>ABS($C$136-H224)</f>
+        <f t="shared" si="16"/>
         <v>28.918555724367792</v>
       </c>
       <c r="J224">
-        <f>(90-B224)+E224</f>
+        <f t="shared" si="17"/>
         <v>44.238271163189225</v>
       </c>
     </row>
@@ -6550,27 +6562,27 @@
         <v>29</v>
       </c>
       <c r="C225">
-        <f>B225*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.50614548307835561</v>
       </c>
       <c r="E225">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C225))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-6.9842389906897306</v>
       </c>
       <c r="F225">
-        <f>E225*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.12189796613370139</v>
       </c>
       <c r="H225">
-        <f>$B$4+$B$3*SIN(C225)-$B$3*COS(F225)</f>
+        <f t="shared" si="15"/>
         <v>35.682920385750336</v>
       </c>
       <c r="I225">
-        <f>ABS($C$136-H225)</f>
+        <f t="shared" si="16"/>
         <v>29.317079614249664</v>
       </c>
       <c r="J225">
-        <f>(90-B225)+E225</f>
+        <f t="shared" si="17"/>
         <v>54.015761009310268</v>
       </c>
     </row>
@@ -6579,27 +6591,27 @@
         <v>69</v>
       </c>
       <c r="C226">
-        <f>B226*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2042771838760873</v>
       </c>
       <c r="E226">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C226))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>23.244487088621185</v>
       </c>
       <c r="F226">
-        <f>E226*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.40569283263375061</v>
       </c>
       <c r="H226">
-        <f>$B$4+$B$3*SIN(C226)-$B$3*COS(F226)</f>
+        <f t="shared" si="15"/>
         <v>94.66511985352119</v>
       </c>
       <c r="I226">
-        <f>ABS($C$136-H226)</f>
+        <f t="shared" si="16"/>
         <v>29.66511985352119</v>
       </c>
       <c r="J226">
-        <f>(90-B226)+E226</f>
+        <f t="shared" si="17"/>
         <v>44.244487088621185</v>
       </c>
     </row>
@@ -6608,27 +6620,27 @@
         <v>28.5</v>
       </c>
       <c r="C227">
-        <f>B227*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.49741883681838389</v>
       </c>
       <c r="E227">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C227))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-7.2265940176635537</v>
       </c>
       <c r="F227">
-        <f>E227*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.12612785931315426</v>
       </c>
       <c r="H227">
-        <f>$B$4+$B$3*SIN(C227)-$B$3*COS(F227)</f>
+        <f t="shared" si="15"/>
         <v>34.878352097472273</v>
       </c>
       <c r="I227">
-        <f>ABS($C$136-H227)</f>
+        <f t="shared" si="16"/>
         <v>30.121647902527727</v>
       </c>
       <c r="J227">
-        <f>(90-B227)+E227</f>
+        <f t="shared" si="17"/>
         <v>54.273405982336449</v>
       </c>
     </row>
@@ -6637,27 +6649,27 @@
         <v>69.5</v>
       </c>
       <c r="C228">
-        <f>B228*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2130038301360591</v>
       </c>
       <c r="E228">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C228))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>23.754339818803015</v>
       </c>
       <c r="F228">
-        <f>E228*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.41459144147570581</v>
       </c>
       <c r="H228">
-        <f>$B$4+$B$3*SIN(C228)-$B$3*COS(F228)</f>
+        <f t="shared" si="15"/>
         <v>95.414640738750933</v>
       </c>
       <c r="I228">
-        <f>ABS($C$136-H228)</f>
+        <f t="shared" si="16"/>
         <v>30.414640738750933</v>
       </c>
       <c r="J228">
-        <f>(90-B228)+E228</f>
+        <f t="shared" si="17"/>
         <v>44.254339818803018</v>
       </c>
     </row>
@@ -6666,27 +6678,27 @@
         <v>28</v>
       </c>
       <c r="C229">
-        <f>B229*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.48869219055841229</v>
       </c>
       <c r="E229">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C229))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-7.465211768138019</v>
       </c>
       <c r="F229">
-        <f>E229*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.13029252471263594</v>
       </c>
       <c r="H229">
-        <f>$B$4+$B$3*SIN(C229)-$B$3*COS(F229)</f>
+        <f t="shared" si="15"/>
         <v>34.070728777506005</v>
       </c>
       <c r="I229">
-        <f>ABS($C$136-H229)</f>
+        <f t="shared" si="16"/>
         <v>30.929271222493995</v>
       </c>
       <c r="J229">
-        <f>(90-B229)+E229</f>
+        <f t="shared" si="17"/>
         <v>54.534788231861981</v>
       </c>
     </row>
@@ -6695,27 +6707,27 @@
         <v>70</v>
       </c>
       <c r="C230">
-        <f>B230*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2217304763960306</v>
       </c>
       <c r="E230">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C230))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>24.26787337517019</v>
       </c>
       <c r="F230">
-        <f>E230*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.42355429285378887</v>
       </c>
       <c r="H230">
-        <f>$B$4+$B$3*SIN(C230)-$B$3*COS(F230)</f>
+        <f t="shared" si="15"/>
         <v>96.167271136235968</v>
       </c>
       <c r="I230">
-        <f>ABS($C$136-H230)</f>
+        <f t="shared" si="16"/>
         <v>31.167271136235968</v>
       </c>
       <c r="J230">
-        <f>(90-B230)+E230</f>
+        <f t="shared" si="17"/>
         <v>44.26787337517019</v>
       </c>
     </row>
@@ -6724,27 +6736,27 @@
         <v>27.5</v>
       </c>
       <c r="C231">
-        <f>B231*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.47996554429844063</v>
       </c>
       <c r="E231">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C231))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-7.7000721747249194</v>
       </c>
       <c r="F231">
-        <f>E231*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.13439161209014994</v>
       </c>
       <c r="H231">
-        <f>$B$4+$B$3*SIN(C231)-$B$3*COS(F231)</f>
+        <f t="shared" si="15"/>
         <v>33.260018930202861</v>
       </c>
       <c r="I231">
-        <f>ABS($C$136-H231)</f>
+        <f t="shared" si="16"/>
         <v>31.739981069797139</v>
       </c>
       <c r="J231">
-        <f>(90-B231)+E231</f>
+        <f t="shared" si="17"/>
         <v>54.799927825275077</v>
       </c>
     </row>
@@ -6753,27 +6765,27 @@
         <v>70.5</v>
       </c>
       <c r="C232">
-        <f>B232*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2304571226560022</v>
       </c>
       <c r="E232">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C232))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>24.785134277646204</v>
       </c>
       <c r="F232">
-        <f>E232*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.43258219869383263</v>
       </c>
       <c r="H232">
-        <f>$B$4+$B$3*SIN(C232)-$B$3*COS(F232)</f>
+        <f t="shared" si="15"/>
         <v>96.923168538160823</v>
       </c>
       <c r="I232">
-        <f>ABS($C$136-H232)</f>
+        <f t="shared" si="16"/>
         <v>31.923168538160823</v>
       </c>
       <c r="J232">
-        <f>(90-B232)+E232</f>
+        <f t="shared" si="17"/>
         <v>44.285134277646208</v>
       </c>
     </row>
@@ -6782,27 +6794,27 @@
         <v>27</v>
       </c>
       <c r="C233">
-        <f>B233*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.47123889803846897</v>
       </c>
       <c r="E233">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C233))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-7.9311551322246459</v>
       </c>
       <c r="F233">
-        <f>E233*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.13842477054376628</v>
       </c>
       <c r="H233">
-        <f>$B$4+$B$3*SIN(C233)-$B$3*COS(F233)</f>
+        <f t="shared" si="15"/>
         <v>32.446192218910184</v>
       </c>
       <c r="I233">
-        <f>ABS($C$136-H233)</f>
+        <f t="shared" si="16"/>
         <v>32.553807781089816</v>
       </c>
       <c r="J233">
-        <f>(90-B233)+E233</f>
+        <f t="shared" si="17"/>
         <v>55.068844867775354</v>
       </c>
     </row>
@@ -6811,27 +6823,27 @@
         <v>71</v>
       </c>
       <c r="C234">
-        <f>B234*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2391837689159739</v>
       </c>
       <c r="E234">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C234))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>25.306171666543641</v>
       </c>
       <c r="F234">
-        <f>E234*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.44167601665608708</v>
       </c>
       <c r="H234">
-        <f>$B$4+$B$3*SIN(C234)-$B$3*COS(F234)</f>
+        <f t="shared" si="15"/>
         <v>97.682495431829238</v>
       </c>
       <c r="I234">
-        <f>ABS($C$136-H234)</f>
+        <f t="shared" si="16"/>
         <v>32.682495431829238</v>
       </c>
       <c r="J234">
-        <f>(90-B234)+E234</f>
+        <f t="shared" si="17"/>
         <v>44.306171666543641</v>
       </c>
     </row>
@@ -6840,27 +6852,27 @@
         <v>26.5</v>
       </c>
       <c r="C235">
-        <f>B235*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.46251225177849731</v>
       </c>
       <c r="E235">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C235))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-8.1584405127968171</v>
       </c>
       <c r="F235">
-        <f>E235*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.14239164877639904</v>
       </c>
       <c r="H235">
-        <f>$B$4+$B$3*SIN(C235)-$B$3*COS(F235)</f>
+        <f t="shared" si="15"/>
         <v>31.629219491465363</v>
       </c>
       <c r="I235">
-        <f>ABS($C$136-H235)</f>
+        <f t="shared" si="16"/>
         <v>33.370780508534637</v>
       </c>
       <c r="J235">
-        <f>(90-B235)+E235</f>
+        <f t="shared" si="17"/>
         <v>55.341559487203185</v>
       </c>
     </row>
@@ -6869,27 +6881,27 @@
         <v>71.5</v>
       </c>
       <c r="C236">
-        <f>B236*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2479104151759457</v>
       </c>
       <c r="E236">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C236))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>25.831037432915757</v>
       </c>
       <c r="F236">
-        <f>E236*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.45083665241028381</v>
       </c>
       <c r="H236">
-        <f>$B$4+$B$3*SIN(C236)-$B$3*COS(F236)</f>
+        <f t="shared" si="15"/>
         <v>98.445419576495055</v>
       </c>
       <c r="I236">
-        <f>ABS($C$136-H236)</f>
+        <f t="shared" si="16"/>
         <v>33.445419576495055</v>
       </c>
       <c r="J236">
-        <f>(90-B236)+E236</f>
+        <f t="shared" si="17"/>
         <v>44.331037432915757</v>
       </c>
     </row>
@@ -6898,27 +6910,27 @@
         <v>26</v>
       </c>
       <c r="C237">
-        <f>B237*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.4537856055185257</v>
       </c>
       <c r="E237">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C237))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-8.3819081812367155</v>
       </c>
       <c r="F237">
-        <f>E237*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.14629189536243029</v>
       </c>
       <c r="H237">
-        <f>$B$4+$B$3*SIN(C237)-$B$3*COS(F237)</f>
+        <f t="shared" si="15"/>
         <v>30.809072806269526</v>
       </c>
       <c r="I237">
-        <f>ABS($C$136-H237)</f>
+        <f t="shared" si="16"/>
         <v>34.190927193730474</v>
       </c>
       <c r="J237">
-        <f>(90-B237)+E237</f>
+        <f t="shared" si="17"/>
         <v>55.618091818763283</v>
       </c>
     </row>
@@ -6927,27 +6939,27 @@
         <v>72</v>
       </c>
       <c r="C238">
-        <f>B238*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2566370614359172</v>
       </c>
       <c r="E238">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C238))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>26.359786358078757</v>
       </c>
       <c r="F238">
-        <f>E238*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.46006506207075931</v>
       </c>
       <c r="H238">
-        <f>$B$4+$B$3*SIN(C238)-$B$3*COS(F238)</f>
+        <f t="shared" si="15"/>
         <v>99.212114299387238</v>
       </c>
       <c r="I238">
-        <f>ABS($C$136-H238)</f>
+        <f t="shared" si="16"/>
         <v>34.212114299387238</v>
       </c>
       <c r="J238">
-        <f>(90-B238)+E238</f>
+        <f t="shared" si="17"/>
         <v>44.359786358078757</v>
       </c>
     </row>
@@ -6956,27 +6968,27 @@
         <v>72.5</v>
       </c>
       <c r="C239">
-        <f>B239*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2653637076958888</v>
       </c>
       <c r="E239">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C239))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>26.892476263097979</v>
       </c>
       <c r="F239">
-        <f>E239*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.46936225480548055</v>
       </c>
       <c r="H239">
-        <f>$B$4+$B$3*SIN(C239)-$B$3*COS(F239)</f>
+        <f t="shared" si="15"/>
         <v>99.982758812555318</v>
       </c>
       <c r="I239">
-        <f>ABS($C$136-H239)</f>
+        <f t="shared" si="16"/>
         <v>34.982758812555318</v>
       </c>
       <c r="J239">
-        <f>(90-B239)+E239</f>
+        <f t="shared" si="17"/>
         <v>44.392476263097976</v>
       </c>
     </row>
@@ -6985,27 +6997,27 @@
         <v>25.5</v>
       </c>
       <c r="C240">
-        <f>B240*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>0.44505895925855399</v>
       </c>
       <c r="E240">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C240))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>-8.601538010352181</v>
       </c>
       <c r="F240">
-        <f>E240*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>-0.15012515901608764</v>
       </c>
       <c r="H240">
-        <f>$B$4+$B$3*SIN(C240)-$B$3*COS(F240)</f>
+        <f t="shared" si="15"/>
         <v>29.985725458911048</v>
       </c>
       <c r="I240">
-        <f>ABS($C$136-H240)</f>
+        <f t="shared" si="16"/>
         <v>35.014274541088952</v>
       </c>
       <c r="J240">
-        <f>(90-B240)+E240</f>
+        <f t="shared" si="17"/>
         <v>55.898461989647821</v>
       </c>
     </row>
@@ -7014,27 +7026,27 @@
         <v>73</v>
       </c>
       <c r="C241">
-        <f>B241*PI()/180</f>
+        <f t="shared" si="12"/>
         <v>1.2740903539558606</v>
       </c>
       <c r="E241">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C241))-$B$2)/$B$3))</f>
+        <f t="shared" si="13"/>
         <v>27.429168169112341</v>
       </c>
       <c r="F241">
-        <f>E241*PI()/180</f>
+        <f t="shared" si="14"/>
         <v>0.47872929563423516</v>
       </c>
       <c r="H241">
-        <f>$B$4+$B$3*SIN(C241)-$B$3*COS(F241)</f>
+        <f t="shared" si="15"/>
         <v>100.75753855232836</v>
       </c>
       <c r="I241">
-        <f>ABS($C$136-H241)</f>
+        <f t="shared" si="16"/>
         <v>35.757538552328356</v>
       </c>
       <c r="J241">
-        <f>(90-B241)+E241</f>
+        <f t="shared" si="17"/>
         <v>44.429168169112344</v>
       </c>
     </row>
@@ -7043,27 +7055,27 @@
         <v>25</v>
       </c>
       <c r="C242">
-        <f>B242*PI()/180</f>
+        <f t="shared" ref="C242:C273" si="18">B242*PI()/180</f>
         <v>0.43633231299858238</v>
       </c>
       <c r="E242">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C242))-$B$2)/$B$3))</f>
+        <f t="shared" ref="E242:E273" si="19">DEGREES(ASIN(($C$142-($B$3*COS($C242))-$B$2)/$B$3))</f>
         <v>-8.8173098964346668</v>
       </c>
       <c r="F242">
-        <f>E242*PI()/180</f>
+        <f t="shared" ref="F242:F273" si="20">E242*PI()/180</f>
         <v>-0.15389108886146516</v>
       </c>
       <c r="H242">
-        <f>$B$4+$B$3*SIN(C242)-$B$3*COS(F242)</f>
+        <f t="shared" ref="H242:H273" si="21">$B$4+$B$3*SIN(C242)-$B$3*COS(F242)</f>
         <v>29.159152009305885</v>
       </c>
       <c r="I242">
-        <f>ABS($C$136-H242)</f>
+        <f t="shared" ref="I242:I273" si="22">ABS($C$136-H242)</f>
         <v>35.840847990694115</v>
       </c>
       <c r="J242">
-        <f>(90-B242)+E242</f>
+        <f t="shared" ref="J242:J273" si="23">(90-B242)+E242</f>
         <v>56.182690103565335</v>
       </c>
     </row>
@@ -7072,27 +7084,27 @@
         <v>73.5</v>
       </c>
       <c r="C243">
-        <f>B243*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.2828170002158323</v>
       </c>
       <c r="E243">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C243))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>27.969926469463243</v>
       </c>
       <c r="F243">
-        <f>E243*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.48816730843284678</v>
       </c>
       <c r="H243">
-        <f>$B$4+$B$3*SIN(C243)-$B$3*COS(F243)</f>
+        <f t="shared" si="21"/>
         <v>101.53664554336939</v>
       </c>
       <c r="I243">
-        <f>ABS($C$136-H243)</f>
+        <f t="shared" si="22"/>
         <v>36.536645543369389</v>
       </c>
       <c r="J243">
-        <f>(90-B243)+E243</f>
+        <f t="shared" si="23"/>
         <v>44.469926469463246</v>
       </c>
     </row>
@@ -7101,27 +7113,27 @@
         <v>24.5</v>
       </c>
       <c r="C244">
-        <f>B244*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.42760566673861072</v>
       </c>
       <c r="E244">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C244))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-9.0292037748176455</v>
       </c>
       <c r="F244">
-        <f>E244*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.15758933470406858</v>
       </c>
       <c r="H244">
-        <f>$B$4+$B$3*SIN(C244)-$B$3*COS(F244)</f>
+        <f t="shared" si="21"/>
         <v>28.329328309322378</v>
       </c>
       <c r="I244">
-        <f>ABS($C$136-H244)</f>
+        <f t="shared" si="22"/>
         <v>36.670671690677622</v>
       </c>
       <c r="J244">
-        <f>(90-B244)+E244</f>
+        <f t="shared" si="23"/>
         <v>56.470796225182355</v>
       </c>
     </row>
@@ -7130,27 +7142,27 @@
         <v>74</v>
       </c>
       <c r="C245">
-        <f>B245*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.2915436464758039</v>
       </c>
       <c r="E245">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C245))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>28.514819114696667</v>
       </c>
       <c r="F245">
-        <f>E245*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.49767747916207145</v>
       </c>
       <c r="H245">
-        <f>$B$4+$B$3*SIN(C245)-$B$3*COS(F245)</f>
+        <f t="shared" si="21"/>
         <v>102.32027878951557</v>
       </c>
       <c r="I245">
-        <f>ABS($C$136-H245)</f>
+        <f t="shared" si="22"/>
         <v>37.320278789515569</v>
       </c>
       <c r="J245">
-        <f>(90-B245)+E245</f>
+        <f t="shared" si="23"/>
         <v>44.514819114696664</v>
       </c>
     </row>
@@ -7159,27 +7171,27 @@
         <v>24</v>
       </c>
       <c r="C246">
-        <f>B246*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.41887902047863906</v>
       </c>
       <c r="E246">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C246))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-9.2371996355145161</v>
       </c>
       <c r="F246">
-        <f>E246*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.16121954730374843</v>
       </c>
       <c r="H246">
-        <f>$B$4+$B$3*SIN(C246)-$B$3*COS(F246)</f>
+        <f t="shared" si="21"/>
         <v>27.496231530855937</v>
       </c>
       <c r="I246">
-        <f>ABS($C$136-H246)</f>
+        <f t="shared" si="22"/>
         <v>37.503768469144063</v>
       </c>
       <c r="J246">
-        <f>(90-B246)+E246</f>
+        <f t="shared" si="23"/>
         <v>56.762800364485486</v>
       </c>
     </row>
@@ -7188,27 +7200,27 @@
         <v>74.5</v>
       </c>
       <c r="C247">
-        <f>B247*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3002702927357754</v>
       </c>
       <c r="E247">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C247))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>29.06391781162213</v>
       </c>
       <c r="F247">
-        <f>E247*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.50726105934183119</v>
       </c>
       <c r="H247">
-        <f>$B$4+$B$3*SIN(C247)-$B$3*COS(F247)</f>
+        <f t="shared" si="21"/>
         <v>103.10864469383236</v>
       </c>
       <c r="I247">
-        <f>ABS($C$136-H247)</f>
+        <f t="shared" si="22"/>
         <v>38.10864469383236</v>
       </c>
       <c r="J247">
-        <f>(90-B247)+E247</f>
+        <f t="shared" si="23"/>
         <v>44.563917811622133</v>
       </c>
     </row>
@@ -7217,27 +7229,27 @@
         <v>23.5</v>
       </c>
       <c r="C248">
-        <f>B248*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.41015237421866746</v>
       </c>
       <c r="E248">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C248))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-9.4412775389275581</v>
       </c>
       <c r="F248">
-        <f>E248*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.16478137864887299</v>
       </c>
       <c r="H248">
-        <f>$B$4+$B$3*SIN(C248)-$B$3*COS(F248)</f>
+        <f t="shared" si="21"/>
         <v>26.659840194317852</v>
       </c>
       <c r="I248">
-        <f>ABS($C$136-H248)</f>
+        <f t="shared" si="22"/>
         <v>38.340159805682148</v>
       </c>
       <c r="J248">
-        <f>(90-B248)+E248</f>
+        <f t="shared" si="23"/>
         <v>57.058722461072442</v>
       </c>
     </row>
@@ -7246,27 +7258,27 @@
         <v>75</v>
       </c>
       <c r="C249">
-        <f>B249*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3089969389957472</v>
       </c>
       <c r="E249">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C249))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>29.617298237742798</v>
       </c>
       <c r="F249">
-        <f>E249*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.5169193697937261</v>
       </c>
       <c r="H249">
-        <f>$B$4+$B$3*SIN(C249)-$B$3*COS(F249)</f>
+        <f t="shared" si="21"/>
         <v>103.90195751057422</v>
       </c>
       <c r="I249">
-        <f>ABS($C$136-H249)</f>
+        <f t="shared" si="22"/>
         <v>38.901957510574221</v>
       </c>
       <c r="J249">
-        <f>(90-B249)+E249</f>
+        <f t="shared" si="23"/>
         <v>44.617298237742801</v>
       </c>
     </row>
@@ -7275,27 +7287,27 @@
         <v>23</v>
       </c>
       <c r="C250">
-        <f>B250*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.40142572795869574</v>
       </c>
       <c r="E250">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C250))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-9.6414176316186389</v>
       </c>
       <c r="F250">
-        <f>E250*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.16827448223157898</v>
       </c>
       <c r="H250">
-        <f>$B$4+$B$3*SIN(C250)-$B$3*COS(F250)</f>
+        <f t="shared" si="21"/>
         <v>25.820134197502426</v>
       </c>
       <c r="I250">
-        <f>ABS($C$136-H250)</f>
+        <f t="shared" si="22"/>
         <v>39.179865802497574</v>
       </c>
       <c r="J250">
-        <f>(90-B250)+E250</f>
+        <f t="shared" si="23"/>
         <v>57.358582368381363</v>
       </c>
     </row>
@@ -7304,27 +7316,27 @@
         <v>75.5</v>
       </c>
       <c r="C251">
-        <f>B251*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3177235852557188</v>
       </c>
       <c r="E251">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C251))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>30.1750402725174</v>
       </c>
       <c r="F251">
-        <f>E251*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.52665380467731571</v>
       </c>
       <c r="H251">
-        <f>$B$4+$B$3*SIN(C251)-$B$3*COS(F251)</f>
+        <f t="shared" si="21"/>
         <v>104.70043983204644</v>
       </c>
       <c r="I251">
-        <f>ABS($C$136-H251)</f>
+        <f t="shared" si="22"/>
         <v>39.700439832046442</v>
       </c>
       <c r="J251">
-        <f>(90-B251)+E251</f>
+        <f t="shared" si="23"/>
         <v>44.6750402725174</v>
       </c>
     </row>
@@ -7333,27 +7345,27 @@
         <v>22.5</v>
       </c>
       <c r="C252">
-        <f>B252*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.39269908169872414</v>
       </c>
       <c r="E252">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C252))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-9.837600162131606</v>
       </c>
       <c r="F252">
-        <f>E252*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.17169851332392452</v>
       </c>
       <c r="H252">
-        <f>$B$4+$B$3*SIN(C252)-$B$3*COS(F252)</f>
+        <f t="shared" si="21"/>
         <v>24.977094844793754</v>
       </c>
       <c r="I252">
-        <f>ABS($C$136-H252)</f>
+        <f t="shared" si="22"/>
         <v>40.022905155206246</v>
       </c>
       <c r="J252">
-        <f>(90-B252)+E252</f>
+        <f t="shared" si="23"/>
         <v>57.662399837868392</v>
       </c>
     </row>
@@ -7362,27 +7374,27 @@
         <v>76</v>
       </c>
       <c r="C253">
-        <f>B253*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3264502315156903</v>
       </c>
       <c r="E253">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C253))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>30.737228247081298</v>
       </c>
       <c r="F253">
-        <f>E253*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.53646583584857377</v>
       </c>
       <c r="H253">
-        <f>$B$4+$B$3*SIN(C253)-$B$3*COS(F253)</f>
+        <f t="shared" si="21"/>
         <v>105.50432311370055</v>
       </c>
       <c r="I253">
-        <f>ABS($C$136-H253)</f>
+        <f t="shared" si="22"/>
         <v>40.504323113700551</v>
       </c>
       <c r="J253">
-        <f>(90-B253)+E253</f>
+        <f t="shared" si="23"/>
         <v>44.737228247081298</v>
       </c>
     </row>
@@ -7391,27 +7403,27 @@
         <v>22</v>
       </c>
       <c r="C254">
-        <f>B254*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.38397243543875248</v>
       </c>
       <c r="E254">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C254))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-10.029805496855769</v>
       </c>
       <c r="F254">
-        <f>E254*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.17505312925475891</v>
       </c>
       <c r="H254">
-        <f>$B$4+$B$3*SIN(C254)-$B$3*COS(F254)</f>
+        <f t="shared" si="21"/>
         <v>24.13070487667396</v>
       </c>
       <c r="I254">
-        <f>ABS($C$136-H254)</f>
+        <f t="shared" si="22"/>
         <v>40.86929512332604</v>
       </c>
       <c r="J254">
-        <f>(90-B254)+E254</f>
+        <f t="shared" si="23"/>
         <v>57.970194503144228</v>
       </c>
     </row>
@@ -7420,27 +7432,27 @@
         <v>76.5</v>
       </c>
       <c r="C255">
-        <f>B255*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3351768777756621</v>
       </c>
       <c r="E255">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C255))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>31.303951214241398</v>
       </c>
       <c r="F255">
-        <f>E255*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.54635701757218924</v>
       </c>
       <c r="H255">
-        <f>$B$4+$B$3*SIN(C255)-$B$3*COS(F255)</f>
+        <f t="shared" si="21"/>
         <v>106.31384824118135</v>
       </c>
       <c r="I255">
-        <f>ABS($C$136-H255)</f>
+        <f t="shared" si="22"/>
         <v>41.313848241181347</v>
       </c>
       <c r="J255">
-        <f>(90-B255)+E255</f>
+        <f t="shared" si="23"/>
         <v>44.803951214241394</v>
       </c>
     </row>
@@ -7449,27 +7461,27 @@
         <v>21.5</v>
       </c>
       <c r="C256">
-        <f>B256*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.37524578917878082</v>
       </c>
       <c r="E256">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C256))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-10.2180141359187</v>
       </c>
       <c r="F256">
-        <f>E256*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.17833798968710471</v>
       </c>
       <c r="H256">
-        <f>$B$4+$B$3*SIN(C256)-$B$3*COS(F256)</f>
+        <f t="shared" si="21"/>
         <v>23.280948499492212</v>
       </c>
       <c r="I256">
-        <f>ABS($C$136-H256)</f>
+        <f t="shared" si="22"/>
         <v>41.719051500507788</v>
       </c>
       <c r="J256">
-        <f>(90-B256)+E256</f>
+        <f t="shared" si="23"/>
         <v>58.2819858640813</v>
       </c>
     </row>
@@ -7478,27 +7490,27 @@
         <v>77</v>
       </c>
       <c r="C257">
-        <f>B257*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3439035240356338</v>
       </c>
       <c r="E257">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C257))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>31.875303240774425</v>
       </c>
       <c r="F257">
-        <f>E257*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.55632899162313254</v>
       </c>
       <c r="H257">
-        <f>$B$4+$B$3*SIN(C257)-$B$3*COS(F257)</f>
+        <f t="shared" si="21"/>
         <v>107.12926614347884</v>
       </c>
       <c r="I257">
-        <f>ABS($C$136-H257)</f>
+        <f t="shared" si="22"/>
         <v>42.129266143478844</v>
       </c>
       <c r="J257">
-        <f>(90-B257)+E257</f>
+        <f t="shared" si="23"/>
         <v>44.875303240774429</v>
       </c>
     </row>
@@ -7507,27 +7519,27 @@
         <v>21</v>
       </c>
       <c r="C258">
-        <f>B258*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.36651914291880922</v>
       </c>
       <c r="E258">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C258))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-10.402206729096395</v>
       </c>
       <c r="F258">
-        <f>E258*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.18155275689584194</v>
       </c>
       <c r="H258">
-        <f>$B$4+$B$3*SIN(C258)-$B$3*COS(F258)</f>
+        <f t="shared" si="21"/>
         <v>22.427811415454059</v>
       </c>
       <c r="I258">
-        <f>ABS($C$136-H258)</f>
+        <f t="shared" si="22"/>
         <v>42.572188584545941</v>
       </c>
       <c r="J258">
-        <f>(90-B258)+E258</f>
+        <f t="shared" si="23"/>
         <v>58.597793270903608</v>
       </c>
     </row>
@@ -7536,27 +7548,27 @@
         <v>77.5</v>
       </c>
       <c r="C259">
-        <f>B259*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3526301702956054</v>
       </c>
       <c r="E259">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C259))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>32.451383724301174</v>
       </c>
       <c r="F259">
-        <f>E259*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.56638349281715528</v>
       </c>
       <c r="H259">
-        <f>$B$4+$B$3*SIN(C259)-$B$3*COS(F259)</f>
+        <f t="shared" si="21"/>
         <v>107.95083845683672</v>
       </c>
       <c r="I259">
-        <f>ABS($C$136-H259)</f>
+        <f t="shared" si="22"/>
         <v>42.950838456836721</v>
       </c>
       <c r="J259">
-        <f>(90-B259)+E259</f>
+        <f t="shared" si="23"/>
         <v>44.951383724301174</v>
       </c>
     </row>
@@ -7565,27 +7577,27 @@
         <v>20.5</v>
       </c>
       <c r="C260">
-        <f>B260*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.3577924966588375</v>
       </c>
       <c r="E260">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C260))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-10.582364091727829</v>
       </c>
       <c r="F260">
-        <f>E260*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.18469709604546986</v>
       </c>
       <c r="H260">
-        <f>$B$4+$B$3*SIN(C260)-$B$3*COS(F260)</f>
+        <f t="shared" si="21"/>
         <v>21.571280852788149</v>
       </c>
       <c r="I260">
-        <f>ABS($C$136-H260)</f>
+        <f t="shared" si="22"/>
         <v>43.428719147211851</v>
       </c>
       <c r="J260">
-        <f>(90-B260)+E260</f>
+        <f t="shared" si="23"/>
         <v>58.917635908272175</v>
       </c>
     </row>
@@ -7594,27 +7606,27 @@
         <v>78</v>
       </c>
       <c r="C261">
-        <f>B261*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3613568165555769</v>
       </c>
       <c r="E261">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C261))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>33.032297737287188</v>
       </c>
       <c r="F261">
-        <f>E261*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.57652235501473426</v>
       </c>
       <c r="H261">
-        <f>$B$4+$B$3*SIN(C261)-$B$3*COS(F261)</f>
+        <f t="shared" si="21"/>
         <v>108.77883824463383</v>
       </c>
       <c r="I261">
-        <f>ABS($C$136-H261)</f>
+        <f t="shared" si="22"/>
         <v>43.778838244633832</v>
       </c>
       <c r="J261">
-        <f>(90-B261)+E261</f>
+        <f t="shared" si="23"/>
         <v>45.032297737287188</v>
       </c>
     </row>
@@ -7623,27 +7635,27 @@
         <v>20</v>
       </c>
       <c r="C262">
-        <f>B262*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.3490658503988659</v>
       </c>
       <c r="E262">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C262))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-10.758467220620213</v>
       </c>
       <c r="F262">
-        <f>E262*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.1877706754677059</v>
       </c>
       <c r="H262">
-        <f>$B$4+$B$3*SIN(C262)-$B$3*COS(F262)</f>
+        <f t="shared" si="21"/>
         <v>20.711345596047494</v>
       </c>
       <c r="I262">
-        <f>ABS($C$136-H262)</f>
+        <f t="shared" si="22"/>
         <v>44.288654403952506</v>
       </c>
       <c r="J262">
-        <f>(90-B262)+E262</f>
+        <f t="shared" si="23"/>
         <v>59.241532779379789</v>
       </c>
     </row>
@@ -7652,27 +7664,27 @@
         <v>78.5</v>
       </c>
       <c r="C263">
-        <f>B263*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3700834628155485</v>
       </c>
       <c r="E263">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C263))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>33.618156401037929</v>
       </c>
       <c r="F263">
-        <f>E263*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.58674751764851907</v>
       </c>
       <c r="H263">
-        <f>$B$4+$B$3*SIN(C263)-$B$3*COS(F263)</f>
+        <f t="shared" si="21"/>
         <v>109.61355077910305</v>
       </c>
       <c r="I263">
-        <f>ABS($C$136-H263)</f>
+        <f t="shared" si="22"/>
         <v>44.613550779103051</v>
       </c>
       <c r="J263">
-        <f>(90-B263)+E263</f>
+        <f t="shared" si="23"/>
         <v>45.118156401037929</v>
       </c>
     </row>
@@ -7681,27 +7693,27 @@
         <v>19.5</v>
       </c>
       <c r="C264">
-        <f>B264*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.34033920413889424</v>
       </c>
       <c r="E264">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C264))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-10.930497309931006</v>
       </c>
       <c r="F264">
-        <f>E264*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.19077316693867913</v>
       </c>
       <c r="H264">
-        <f>$B$4+$B$3*SIN(C264)-$B$3*COS(F264)</f>
+        <f t="shared" si="21"/>
         <v>19.847996016500957</v>
       </c>
       <c r="I264">
-        <f>ABS($C$136-H264)</f>
+        <f t="shared" si="22"/>
         <v>45.152003983499043</v>
       </c>
       <c r="J264">
-        <f>(90-B264)+E264</f>
+        <f t="shared" si="23"/>
         <v>59.569502690068994</v>
       </c>
     </row>
@@ -7710,27 +7722,27 @@
         <v>79</v>
       </c>
       <c r="C265">
-        <f>B265*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3788101090755203</v>
       </c>
       <c r="E265">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C265))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>34.20907729292172</v>
       </c>
       <c r="F265">
-        <f>E265*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.59706103283071266</v>
       </c>
       <c r="H265">
-        <f>$B$4+$B$3*SIN(C265)-$B$3*COS(F265)</f>
+        <f t="shared" si="21"/>
         <v>110.45527439149437</v>
       </c>
       <c r="I265">
-        <f>ABS($C$136-H265)</f>
+        <f t="shared" si="22"/>
         <v>45.45527439149437</v>
       </c>
       <c r="J265">
-        <f>(90-B265)+E265</f>
+        <f t="shared" si="23"/>
         <v>45.20907729292172</v>
       </c>
     </row>
@@ -7739,27 +7751,27 @@
         <v>19</v>
       </c>
       <c r="C266">
-        <f>B266*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.33161255787892258</v>
       </c>
       <c r="E266">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C266))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-11.098435767011592</v>
       </c>
       <c r="F266">
-        <f>E266*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.19370424595545457</v>
       </c>
       <c r="H266">
-        <f>$B$4+$B$3*SIN(C266)-$B$3*COS(F266)</f>
+        <f t="shared" si="21"/>
         <v>18.9812241025693</v>
       </c>
       <c r="I266">
-        <f>ABS($C$136-H266)</f>
+        <f t="shared" si="22"/>
         <v>46.0187758974307</v>
       </c>
       <c r="J266">
-        <f>(90-B266)+E266</f>
+        <f t="shared" si="23"/>
         <v>59.901564232988406</v>
       </c>
     </row>
@@ -7768,27 +7780,27 @@
         <v>79.5</v>
       </c>
       <c r="C267">
-        <f>B267*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.387536755335492</v>
       </c>
       <c r="E267">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C267))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>34.805184890471196</v>
       </c>
       <c r="F267">
-        <f>E267*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.60746507310410436</v>
       </c>
       <c r="H267">
-        <f>$B$4+$B$3*SIN(C267)-$B$3*COS(F267)</f>
+        <f t="shared" si="21"/>
         <v>111.30432139813963</v>
       </c>
       <c r="I267">
-        <f>ABS($C$136-H267)</f>
+        <f t="shared" si="22"/>
         <v>46.304321398139635</v>
       </c>
       <c r="J267">
-        <f>(90-B267)+E267</f>
+        <f t="shared" si="23"/>
         <v>45.305184890471196</v>
       </c>
     </row>
@@ -7797,27 +7809,27 @@
         <v>18.5</v>
       </c>
       <c r="C268">
-        <f>B268*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.32288591161895097</v>
       </c>
       <c r="E268">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C268))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-11.262264228197315</v>
       </c>
       <c r="F268">
-        <f>E268*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.19656359201162116</v>
       </c>
       <c r="H268">
-        <f>$B$4+$B$3*SIN(C268)-$B$3*COS(F268)</f>
+        <f t="shared" si="21"/>
         <v>18.111023490260223</v>
       </c>
       <c r="I268">
-        <f>ABS($C$136-H268)</f>
+        <f t="shared" si="22"/>
         <v>46.888976509739777</v>
       </c>
       <c r="J268">
-        <f>(90-B268)+E268</f>
+        <f t="shared" si="23"/>
         <v>60.237735771802683</v>
       </c>
     </row>
@@ -7826,27 +7838,27 @@
         <v>80</v>
       </c>
       <c r="C269">
-        <f>B269*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.3962634015954636</v>
       </c>
       <c r="E269">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C269))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>35.40661105649815</v>
       </c>
       <c r="F269">
-        <f>E269*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.61796193990892079</v>
       </c>
       <c r="H269">
-        <f>$B$4+$B$3*SIN(C269)-$B$3*COS(F269)</f>
+        <f t="shared" si="21"/>
         <v>112.16101911086017</v>
       </c>
       <c r="I269">
-        <f>ABS($C$136-H269)</f>
+        <f t="shared" si="22"/>
         <v>47.161019110860167</v>
       </c>
       <c r="J269">
-        <f>(90-B269)+E269</f>
+        <f t="shared" si="23"/>
         <v>45.40661105649815</v>
       </c>
     </row>
@@ -7855,27 +7867,27 @@
         <v>18</v>
       </c>
       <c r="C270">
-        <f>B270*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.31415926535897931</v>
       </c>
       <c r="E270">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C270))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-11.421964574527919</v>
       </c>
       <c r="F270">
-        <f>E270*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.19935088887166544</v>
       </c>
       <c r="H270">
-        <f>$B$4+$B$3*SIN(C270)-$B$3*COS(F270)</f>
+        <f t="shared" si="21"/>
         <v>17.237389493555</v>
       </c>
       <c r="I270">
-        <f>ABS($C$136-H270)</f>
+        <f t="shared" si="22"/>
         <v>47.762610506445</v>
       </c>
       <c r="J270">
-        <f>(90-B270)+E270</f>
+        <f t="shared" si="23"/>
         <v>60.578035425472081</v>
       </c>
     </row>
@@ -7884,27 +7896,27 @@
         <v>80.5</v>
       </c>
       <c r="C271">
-        <f>B271*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.4049900478554351</v>
       </c>
       <c r="E271">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C271))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>36.013495569913395</v>
       </c>
       <c r="F271">
-        <f>E271*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.62855407284738052</v>
       </c>
       <c r="H271">
-        <f>$B$4+$B$3*SIN(C271)-$B$3*COS(F271)</f>
+        <f t="shared" si="21"/>
         <v>113.02571094128979</v>
       </c>
       <c r="I271">
-        <f>ABS($C$136-H271)</f>
+        <f t="shared" si="22"/>
         <v>48.025710941289788</v>
       </c>
       <c r="J271">
-        <f>(90-B271)+E271</f>
+        <f t="shared" si="23"/>
         <v>45.513495569913395</v>
       </c>
     </row>
@@ -7913,27 +7925,27 @@
         <v>17.5</v>
       </c>
       <c r="C272">
-        <f>B272*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>0.30543261909900765</v>
       </c>
       <c r="E272">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C272))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>-11.577518947381789</v>
       </c>
       <c r="F272">
-        <f>E272*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>-0.20206582484384034</v>
       </c>
       <c r="H272">
-        <f>$B$4+$B$3*SIN(C272)-$B$3*COS(F272)</f>
+        <f t="shared" si="21"/>
         <v>16.360319134698855</v>
       </c>
       <c r="I272">
-        <f>ABS($C$136-H272)</f>
+        <f t="shared" si="22"/>
         <v>48.639680865301145</v>
       </c>
       <c r="J272">
-        <f>(90-B272)+E272</f>
+        <f t="shared" si="23"/>
         <v>60.92248105261821</v>
       </c>
     </row>
@@ -7942,27 +7954,27 @@
         <v>81</v>
       </c>
       <c r="C273">
-        <f>B273*PI()/180</f>
+        <f t="shared" si="18"/>
         <v>1.4137166941154069</v>
       </c>
       <c r="E273">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C273))-$B$2)/$B$3))</f>
+        <f t="shared" si="19"/>
         <v>36.625986707589867</v>
       </c>
       <c r="F273">
-        <f>E273*PI()/180</f>
+        <f t="shared" si="20"/>
         <v>0.6392440598391208</v>
       </c>
       <c r="H273">
-        <f>$B$4+$B$3*SIN(C273)-$B$3*COS(F273)</f>
+        <f t="shared" si="21"/>
         <v>113.89875760999989</v>
       </c>
       <c r="I273">
-        <f>ABS($C$136-H273)</f>
+        <f t="shared" si="22"/>
         <v>48.89875760999989</v>
       </c>
       <c r="J273">
-        <f>(90-B273)+E273</f>
+        <f t="shared" si="23"/>
         <v>45.625986707589867</v>
       </c>
     </row>
@@ -7971,27 +7983,27 @@
         <v>17</v>
       </c>
       <c r="C274">
-        <f>B274*PI()/180</f>
+        <f t="shared" ref="C274:C305" si="24">B274*PI()/180</f>
         <v>0.29670597283903605</v>
       </c>
       <c r="E274">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C274))-$B$2)/$B$3))</f>
+        <f t="shared" ref="E274:E305" si="25">DEGREES(ASIN(($C$142-($B$3*COS($C274))-$B$2)/$B$3))</f>
         <v>-11.728909764006971</v>
       </c>
       <c r="F274">
-        <f>E274*PI()/180</f>
+        <f t="shared" ref="F274:F305" si="26">E274*PI()/180</f>
         <v>-0.20470809305123278</v>
       </c>
       <c r="H274">
-        <f>$B$4+$B$3*SIN(C274)-$B$3*COS(F274)</f>
+        <f t="shared" ref="H274:H305" si="27">$B$4+$B$3*SIN(C274)-$B$3*COS(F274)</f>
         <v>15.479811174346793</v>
       </c>
       <c r="I274">
-        <f>ABS($C$136-H274)</f>
+        <f t="shared" ref="I274:I305" si="28">ABS($C$136-H274)</f>
         <v>49.520188825653207</v>
       </c>
       <c r="J274">
-        <f>(90-B274)+E274</f>
+        <f t="shared" ref="J274:J305" si="29">(90-B274)+E274</f>
         <v>61.271090235993029</v>
       </c>
     </row>
@@ -8000,27 +8012,27 @@
         <v>81.5</v>
       </c>
       <c r="C275">
-        <f>B275*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4224433403753785</v>
       </c>
       <c r="E275">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C275))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>37.244241883359024</v>
       </c>
       <c r="F275">
-        <f>E275*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.65003464827378887</v>
       </c>
       <c r="H275">
-        <f>$B$4+$B$3*SIN(C275)-$B$3*COS(F275)</f>
+        <f t="shared" si="27"/>
         <v>114.78053847283887</v>
       </c>
       <c r="I275">
-        <f>ABS($C$136-H275)</f>
+        <f t="shared" si="28"/>
         <v>49.78053847283887</v>
       </c>
       <c r="J275">
-        <f>(90-B275)+E275</f>
+        <f t="shared" si="29"/>
         <v>45.744241883359024</v>
       </c>
     </row>
@@ -8029,27 +8041,27 @@
         <v>16.5</v>
       </c>
       <c r="C276">
-        <f>B276*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.28797932657906439</v>
       </c>
       <c r="E276">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C276))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-11.876119732931652</v>
       </c>
       <c r="F276">
-        <f>E276*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.20727739170072695</v>
       </c>
       <c r="H276">
-        <f>$B$4+$B$3*SIN(C276)-$B$3*COS(F276)</f>
+        <f t="shared" si="27"/>
         <v>14.595866141515614</v>
       </c>
       <c r="I276">
-        <f>ABS($C$136-H276)</f>
+        <f t="shared" si="28"/>
         <v>50.404133858484386</v>
       </c>
       <c r="J276">
-        <f>(90-B276)+E276</f>
+        <f t="shared" si="29"/>
         <v>61.623880267068344</v>
       </c>
     </row>
@@ -8058,27 +8070,27 @@
         <v>82</v>
       </c>
       <c r="C277">
-        <f>B277*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.43116998663535</v>
       </c>
       <c r="E277">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C277))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>37.868428351105919</v>
       </c>
       <c r="F277">
-        <f>E277*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.66092875728236555</v>
       </c>
       <c r="H277">
-        <f>$B$4+$B$3*SIN(C277)-$B$3*COS(F277)</f>
+        <f t="shared" si="27"/>
         <v>115.67145297867378</v>
       </c>
       <c r="I277">
-        <f>ABS($C$136-H277)</f>
+        <f t="shared" si="28"/>
         <v>50.671452978673784</v>
       </c>
       <c r="J277">
-        <f>(90-B277)+E277</f>
+        <f t="shared" si="29"/>
         <v>45.868428351105919</v>
       </c>
     </row>
@@ -8087,27 +8099,27 @@
         <v>16</v>
       </c>
       <c r="C278">
-        <f>B278*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.27925268031909273</v>
       </c>
       <c r="E278">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C278))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.019131869235999</v>
       </c>
       <c r="F278">
-        <f>E278*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.20977342434954874</v>
       </c>
       <c r="H278">
-        <f>$B$4+$B$3*SIN(C278)-$B$3*COS(F278)</f>
+        <f t="shared" si="27"/>
         <v>13.708486363292366</v>
       </c>
       <c r="I278">
-        <f>ABS($C$136-H278)</f>
+        <f t="shared" si="28"/>
         <v>51.291513636707634</v>
       </c>
       <c r="J278">
-        <f>(90-B278)+E278</f>
+        <f t="shared" si="29"/>
         <v>61.980868130764001</v>
       </c>
     </row>
@@ -8116,27 +8128,27 @@
         <v>82.5</v>
       </c>
       <c r="C279">
-        <f>B279*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4398966328953218</v>
       </c>
       <c r="E279">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C279))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>38.498723979953084</v>
       </c>
       <c r="F279">
-        <f>E279*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.67192949126667667</v>
       </c>
       <c r="H279">
-        <f>$B$4+$B$3*SIN(C279)-$B$3*COS(F279)</f>
+        <f t="shared" si="27"/>
         <v>116.57192227480094</v>
       </c>
       <c r="I279">
-        <f>ABS($C$136-H279)</f>
+        <f t="shared" si="28"/>
         <v>51.57192227480094</v>
       </c>
       <c r="J279">
-        <f>(90-B279)+E279</f>
+        <f t="shared" si="29"/>
         <v>45.998723979953084</v>
       </c>
     </row>
@@ -8145,27 +8157,27 @@
         <v>15.5</v>
       </c>
       <c r="C280">
-        <f>B280*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.27052603405912107</v>
       </c>
       <c r="E280">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C280))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.157929509667232</v>
       </c>
       <c r="F280">
-        <f>E280*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.21219590016907297</v>
       </c>
       <c r="H280">
-        <f>$B$4+$B$3*SIN(C280)-$B$3*COS(F280)</f>
+        <f t="shared" si="27"/>
         <v>12.817675994249058</v>
       </c>
       <c r="I280">
-        <f>ABS($C$136-H280)</f>
+        <f t="shared" si="28"/>
         <v>52.182324005750942</v>
       </c>
       <c r="J280">
-        <f>(90-B280)+E280</f>
+        <f t="shared" si="29"/>
         <v>62.342070490332766</v>
       </c>
     </row>
@@ -8174,27 +8186,27 @@
         <v>83</v>
       </c>
       <c r="C281">
-        <f>B281*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4486232791552935</v>
       </c>
       <c r="E281">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C281))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>39.135318110725564</v>
       </c>
       <c r="F281">
-        <f>E281*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.68304015484752789</v>
       </c>
       <c r="H281">
-        <f>$B$4+$B$3*SIN(C281)-$B$3*COS(F281)</f>
+        <f t="shared" si="27"/>
         <v>117.48239097872738</v>
       </c>
       <c r="I281">
-        <f>ABS($C$136-H281)</f>
+        <f t="shared" si="28"/>
         <v>52.482390978727381</v>
       </c>
       <c r="J281">
-        <f>(90-B281)+E281</f>
+        <f t="shared" si="29"/>
         <v>46.135318110725564</v>
       </c>
     </row>
@@ -8203,27 +8215,27 @@
         <v>15</v>
       </c>
       <c r="C282">
-        <f>B282*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.26179938779914941</v>
       </c>
       <c r="E282">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C282))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.292496327579313</v>
       </c>
       <c r="F282">
-        <f>E282*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.21454453420557043</v>
       </c>
       <c r="H282">
-        <f>$B$4+$B$3*SIN(C282)-$B$3*COS(F282)</f>
+        <f t="shared" si="27"/>
         <v>11.923441045513087</v>
       </c>
       <c r="I282">
-        <f>ABS($C$136-H282)</f>
+        <f t="shared" si="28"/>
         <v>53.076558954486913</v>
       </c>
       <c r="J282">
-        <f>(90-B282)+E282</f>
+        <f t="shared" si="29"/>
         <v>62.707503672420685</v>
       </c>
     </row>
@@ -8232,27 +8244,27 @@
         <v>83.5</v>
       </c>
       <c r="C283">
-        <f>B283*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4573499254152653</v>
       </c>
       <c r="E283">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C283))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>39.778412504305379</v>
       </c>
       <c r="F283">
-        <f>E283*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.6942642694166119</v>
       </c>
       <c r="H283">
-        <f>$B$4+$B$3*SIN(C283)-$B$3*COS(F283)</f>
+        <f t="shared" si="27"/>
         <v>118.40332913789371</v>
       </c>
       <c r="I283">
-        <f>ABS($C$136-H283)</f>
+        <f t="shared" si="28"/>
         <v>53.403329137893707</v>
       </c>
       <c r="J283">
-        <f>(90-B283)+E283</f>
+        <f t="shared" si="29"/>
         <v>46.278412504305379</v>
       </c>
     </row>
@@ -8261,27 +8273,27 @@
         <v>14.5</v>
       </c>
       <c r="C284">
-        <f>B284*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.2530727415391778</v>
       </c>
       <c r="E284">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C284))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.422816347678289</v>
       </c>
       <c r="F284">
-        <f>E284*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.21681904763756274</v>
       </c>
       <c r="H284">
-        <f>$B$4+$B$3*SIN(C284)-$B$3*COS(F284)</f>
+        <f t="shared" si="27"/>
         <v>11.025789413442467</v>
       </c>
       <c r="I284">
-        <f>ABS($C$136-H284)</f>
+        <f t="shared" si="28"/>
         <v>53.974210586557533</v>
       </c>
       <c r="J284">
-        <f>(90-B284)+E284</f>
+        <f t="shared" si="29"/>
         <v>63.077183652321708</v>
       </c>
     </row>
@@ -8290,27 +8302,27 @@
         <v>84</v>
       </c>
       <c r="C285">
-        <f>B285*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4660765716752369</v>
       </c>
       <c r="E285">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C285))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>40.428222394156769</v>
       </c>
       <c r="F285">
-        <f>E285*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.70560559150654034</v>
       </c>
       <c r="H285">
-        <f>$B$4+$B$3*SIN(C285)-$B$3*COS(F285)</f>
+        <f t="shared" si="27"/>
         <v>119.33523440229484</v>
       </c>
       <c r="I285">
-        <f>ABS($C$136-H285)</f>
+        <f t="shared" si="28"/>
         <v>54.335234402294844</v>
       </c>
       <c r="J285">
-        <f>(90-B285)+E285</f>
+        <f t="shared" si="29"/>
         <v>46.428222394156769</v>
       </c>
     </row>
@@ -8319,27 +8331,27 @@
         <v>14</v>
       </c>
       <c r="C286">
-        <f>B286*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.24434609527920614</v>
       </c>
       <c r="E286">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C286))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.548873960554324</v>
       </c>
       <c r="F286">
-        <f>E286*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.21901916802945398</v>
       </c>
       <c r="H286">
-        <f>$B$4+$B$3*SIN(C286)-$B$3*COS(F286)</f>
+        <f t="shared" si="27"/>
         <v>10.124730907854854</v>
       </c>
       <c r="I286">
-        <f>ABS($C$136-H286)</f>
+        <f t="shared" si="28"/>
         <v>54.875269092145146</v>
       </c>
       <c r="J286">
-        <f>(90-B286)+E286</f>
+        <f t="shared" si="29"/>
         <v>63.451126039445676</v>
       </c>
     </row>
@@ -8348,27 +8360,27 @@
         <v>84.5</v>
       </c>
       <c r="C287">
-        <f>B287*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4748032179352084</v>
       </c>
       <c r="E287">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C287))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>41.084977657288853</v>
       </c>
       <c r="F287">
-        <f>E287*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.7170681332279969</v>
       </c>
       <c r="H287">
-        <f>$B$4+$B$3*SIN(C287)-$B$3*COS(F287)</f>
+        <f t="shared" si="27"/>
         <v>120.27863443897168</v>
       </c>
       <c r="I287">
-        <f>ABS($C$136-H287)</f>
+        <f t="shared" si="28"/>
         <v>55.278634438971679</v>
       </c>
       <c r="J287">
-        <f>(90-B287)+E287</f>
+        <f t="shared" si="29"/>
         <v>46.584977657288853</v>
       </c>
     </row>
@@ -8377,27 +8389,27 @@
         <v>13.5</v>
       </c>
       <c r="C288">
-        <f>B288*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.23561944901923448</v>
       </c>
       <c r="E288">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C288))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.670653936980928</v>
       </c>
       <c r="F288">
-        <f>E288*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.22114462958109932</v>
       </c>
       <c r="H288">
-        <f>$B$4+$B$3*SIN(C288)-$B$3*COS(F288)</f>
+        <f t="shared" si="27"/>
         <v>9.2202772797593155</v>
       </c>
       <c r="I288">
-        <f>ABS($C$136-H288)</f>
+        <f t="shared" si="28"/>
         <v>55.779722720240684</v>
       </c>
       <c r="J288">
-        <f>(90-B288)+E288</f>
+        <f t="shared" si="29"/>
         <v>63.829346063019074</v>
       </c>
     </row>
@@ -8406,27 +8418,27 @@
         <v>85</v>
       </c>
       <c r="C289">
-        <f>B289*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4835298641951802</v>
       </c>
       <c r="E289">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C289))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>41.748924120286901</v>
       </c>
       <c r="F289">
-        <f>E289*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.72865618506428353</v>
       </c>
       <c r="H289">
-        <f>$B$4+$B$3*SIN(C289)-$B$3*COS(F289)</f>
+        <f t="shared" si="27"/>
         <v>121.23408962212801</v>
       </c>
       <c r="I289">
-        <f>ABS($C$136-H289)</f>
+        <f t="shared" si="28"/>
         <v>56.23408962212801</v>
       </c>
       <c r="J289">
-        <f>(90-B289)+E289</f>
+        <f t="shared" si="29"/>
         <v>46.748924120286901</v>
       </c>
     </row>
@@ -8435,27 +8447,27 @@
         <v>13</v>
       </c>
       <c r="C290">
-        <f>B290*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.22689280275926285</v>
       </c>
       <c r="E290">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C290))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.788141441962146</v>
       </c>
       <c r="F290">
-        <f>E290*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.22319517337297481</v>
       </c>
       <c r="H290">
-        <f>$B$4+$B$3*SIN(C290)-$B$3*COS(F290)</f>
+        <f t="shared" si="27"/>
         <v>8.3124422485396536</v>
       </c>
       <c r="I290">
-        <f>ABS($C$136-H290)</f>
+        <f t="shared" si="28"/>
         <v>56.687557751460346</v>
       </c>
       <c r="J290">
-        <f>(90-B290)+E290</f>
+        <f t="shared" si="29"/>
         <v>64.211858558037846</v>
       </c>
     </row>
@@ -8464,27 +8476,27 @@
         <v>85.5</v>
       </c>
       <c r="C291">
-        <f>B291*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.4922565104551517</v>
       </c>
       <c r="E291">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C291))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>42.42032501987206</v>
       </c>
       <c r="F291">
-        <f>E291*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.74037434136289637</v>
       </c>
       <c r="H291">
-        <f>$B$4+$B$3*SIN(C291)-$B$3*COS(F291)</f>
+        <f t="shared" si="27"/>
         <v>122.20219603834155</v>
       </c>
       <c r="I291">
-        <f>ABS($C$136-H291)</f>
+        <f t="shared" si="28"/>
         <v>57.202196038341555</v>
       </c>
       <c r="J291">
-        <f>(90-B291)+E291</f>
+        <f t="shared" si="29"/>
         <v>46.92032501987206</v>
       </c>
     </row>
@@ -8493,27 +8505,27 @@
         <v>12.5</v>
       </c>
       <c r="C292">
-        <f>B292*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.21816615649929119</v>
       </c>
       <c r="E292">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C292))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-12.90132204850798</v>
       </c>
       <c r="F292">
-        <f>E292*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.22517054760660385</v>
       </c>
       <c r="H292">
-        <f>$B$4+$B$3*SIN(C292)-$B$3*COS(F292)</f>
+        <f t="shared" si="27"/>
         <v>7.401241528538435</v>
       </c>
       <c r="I292">
-        <f>ABS($C$136-H292)</f>
+        <f t="shared" si="28"/>
         <v>57.598758471461565</v>
       </c>
       <c r="J292">
-        <f>(90-B292)+E292</f>
+        <f t="shared" si="29"/>
         <v>64.598677951492022</v>
       </c>
     </row>
@@ -8522,27 +8534,27 @@
         <v>86</v>
       </c>
       <c r="C293">
-        <f>B293*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.5009831567151233</v>
       </c>
       <c r="E293">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C293))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>43.099462640846468</v>
       </c>
       <c r="F293">
-        <f>E293*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.75222752892306111</v>
       </c>
       <c r="H293">
-        <f>$B$4+$B$3*SIN(C293)-$B$3*COS(F293)</f>
+        <f t="shared" si="27"/>
         <v>123.18358885320053</v>
       </c>
       <c r="I293">
-        <f>ABS($C$136-H293)</f>
+        <f t="shared" si="28"/>
         <v>58.183588853200533</v>
       </c>
       <c r="J293">
-        <f>(90-B293)+E293</f>
+        <f t="shared" si="29"/>
         <v>47.099462640846468</v>
       </c>
     </row>
@@ -8551,27 +8563,27 @@
         <v>12</v>
       </c>
       <c r="C294">
-        <f>B294*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.20943951023931953</v>
       </c>
       <c r="E294">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C294))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-13.010181751118695</v>
       </c>
       <c r="F294">
-        <f>E294*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.22707050783990271</v>
       </c>
       <c r="H294">
-        <f>$B$4+$B$3*SIN(C294)-$B$3*COS(F294)</f>
+        <f t="shared" si="27"/>
         <v>6.4866928549909488</v>
       </c>
       <c r="I294">
-        <f>ABS($C$136-H294)</f>
+        <f t="shared" si="28"/>
         <v>58.513307145009051</v>
       </c>
       <c r="J294">
-        <f>(90-B294)+E294</f>
+        <f t="shared" si="29"/>
         <v>64.989818248881306</v>
       </c>
     </row>
@@ -8580,27 +8592,27 @@
         <v>86.5</v>
       </c>
       <c r="C295">
-        <f>B295*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.509709802975095</v>
       </c>
       <c r="E295">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C295))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>43.786640158382845</v>
       </c>
       <c r="F295">
-        <f>E295*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.76422103914975203</v>
       </c>
       <c r="H295">
-        <f>$B$4+$B$3*SIN(C295)-$B$3*COS(F295)</f>
+        <f t="shared" si="27"/>
         <v>124.1789460939743</v>
       </c>
       <c r="I295">
-        <f>ABS($C$136-H295)</f>
+        <f t="shared" si="28"/>
         <v>59.178946093974304</v>
       </c>
       <c r="J295">
-        <f>(90-B295)+E295</f>
+        <f t="shared" si="29"/>
         <v>47.286640158382845</v>
       </c>
     </row>
@@ -8609,27 +8621,27 @@
         <v>11.5</v>
       </c>
       <c r="C296">
-        <f>B296*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.20071286397934787</v>
       </c>
       <c r="E296">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C296))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-13.114706978958353</v>
       </c>
       <c r="F296">
-        <f>E296*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.22889481721710195</v>
       </c>
       <c r="H296">
-        <f>$B$4+$B$3*SIN(C296)-$B$3*COS(F296)</f>
+        <f t="shared" si="27"/>
         <v>5.5688160092591374</v>
       </c>
       <c r="I296">
-        <f>ABS($C$136-H296)</f>
+        <f t="shared" si="28"/>
         <v>59.431183990740863</v>
       </c>
       <c r="J296">
-        <f>(90-B296)+E296</f>
+        <f t="shared" si="29"/>
         <v>65.385293021041647</v>
       </c>
     </row>
@@ -8638,27 +8650,27 @@
         <v>87</v>
       </c>
       <c r="C297">
-        <f>B297*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.5184364492350666</v>
       </c>
       <c r="E297">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C297))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>44.482183716588743</v>
       </c>
       <c r="F297">
-        <f>E297*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.77636056433148171</v>
       </c>
       <c r="H297">
-        <f>$B$4+$B$3*SIN(C297)-$B$3*COS(F297)</f>
+        <f t="shared" si="27"/>
         <v>125.18899291295753</v>
       </c>
       <c r="I297">
-        <f>ABS($C$136-H297)</f>
+        <f t="shared" si="28"/>
         <v>60.188992912957531</v>
       </c>
       <c r="J297">
-        <f>(90-B297)+E297</f>
+        <f t="shared" si="29"/>
         <v>47.482183716588743</v>
       </c>
     </row>
@@ -8667,27 +8679,27 @@
         <v>11</v>
       </c>
       <c r="C298">
-        <f>B298*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.19198621771937624</v>
       </c>
       <c r="E298">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C298))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-13.21488460869827</v>
       </c>
       <c r="F298">
-        <f>E298*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.23064324669290728</v>
       </c>
       <c r="H298">
-        <f>$B$4+$B$3*SIN(C298)-$B$3*COS(F298)</f>
+        <f t="shared" si="27"/>
         <v>4.6476328433153355</v>
       </c>
       <c r="I298">
-        <f>ABS($C$136-H298)</f>
+        <f t="shared" si="28"/>
         <v>60.352367156684664</v>
       </c>
       <c r="J298">
-        <f>(90-B298)+E298</f>
+        <f t="shared" si="29"/>
         <v>65.78511539130173</v>
       </c>
     </row>
@@ -8696,27 +8708,27 @@
         <v>87.5</v>
       </c>
       <c r="C299">
-        <f>B299*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.5271630954950381</v>
       </c>
       <c r="E299">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C299))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>45.186444781340406</v>
       </c>
       <c r="F299">
-        <f>E299*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.78865223870499934</v>
       </c>
       <c r="H299">
-        <f>$B$4+$B$3*SIN(C299)-$B$3*COS(F299)</f>
+        <f t="shared" si="27"/>
         <v>126.21450640835064</v>
       </c>
       <c r="I299">
-        <f>ABS($C$136-H299)</f>
+        <f t="shared" si="28"/>
         <v>61.214506408350644</v>
       </c>
       <c r="J299">
-        <f>(90-B299)+E299</f>
+        <f t="shared" si="29"/>
         <v>47.686444781340406</v>
       </c>
     </row>
@@ -8725,27 +8737,27 @@
         <v>10.5</v>
       </c>
       <c r="C300">
-        <f>B300*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.18325957145940461</v>
       </c>
       <c r="E300">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C300))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-13.310701977010961</v>
       </c>
       <c r="F300">
-        <f>E300*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.23231557525055982</v>
       </c>
       <c r="H300">
-        <f>$B$4+$B$3*SIN(C300)-$B$3*COS(F300)</f>
+        <f t="shared" si="27"/>
         <v>3.7231673034269619</v>
       </c>
       <c r="I300">
-        <f>ABS($C$136-H300)</f>
+        <f t="shared" si="28"/>
         <v>61.276832696573038</v>
       </c>
       <c r="J300">
-        <f>(90-B300)+E300</f>
+        <f t="shared" si="29"/>
         <v>66.189298022989036</v>
       </c>
     </row>
@@ -8754,27 +8766,27 @@
         <v>10</v>
       </c>
       <c r="C301">
-        <f>B301*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.17453292519943295</v>
       </c>
       <c r="E301">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C301))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-13.402146892695686</v>
       </c>
       <c r="F301">
-        <f>E301*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.23391159011346691</v>
       </c>
       <c r="H301">
-        <f>$B$4+$B$3*SIN(C301)-$B$3*COS(F301)</f>
+        <f t="shared" si="27"/>
         <v>2.795445452993718</v>
       </c>
       <c r="I301">
-        <f>ABS($C$136-H301)</f>
+        <f t="shared" si="28"/>
         <v>62.204554547006282</v>
       </c>
       <c r="J301">
-        <f>(90-B301)+E301</f>
+        <f t="shared" si="29"/>
         <v>66.597853107304317</v>
       </c>
     </row>
@@ -8783,27 +8795,27 @@
         <v>88</v>
       </c>
       <c r="C302">
-        <f>B302*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.5358897417550099</v>
       </c>
       <c r="E302">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C302))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>45.89980281280765</v>
       </c>
       <c r="F302">
-        <f>E302*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.8011026850996481</v>
       </c>
       <c r="H302">
-        <f>$B$4+$B$3*SIN(C302)-$B$3*COS(F302)</f>
+        <f t="shared" si="27"/>
         <v>127.25632109450547</v>
       </c>
       <c r="I302">
-        <f>ABS($C$136-H302)</f>
+        <f t="shared" si="28"/>
         <v>62.256321094505466</v>
       </c>
       <c r="J302">
-        <f>(90-B302)+E302</f>
+        <f t="shared" si="29"/>
         <v>47.89980281280765</v>
       </c>
     </row>
@@ -8812,27 +8824,27 @@
         <v>9.5</v>
       </c>
       <c r="C303">
-        <f>B303*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.16580627893946129</v>
       </c>
       <c r="E303">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C303))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-13.489207648416684</v>
       </c>
       <c r="F303">
-        <f>E303*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.23543108695007278</v>
       </c>
       <c r="H303">
-        <f>$B$4+$B$3*SIN(C303)-$B$3*COS(F303)</f>
+        <f t="shared" si="27"/>
         <v>1.8644954944898444</v>
       </c>
       <c r="I303">
-        <f>ABS($C$136-H303)</f>
+        <f t="shared" si="28"/>
         <v>63.135504505510156</v>
       </c>
       <c r="J303">
-        <f>(90-B303)+E303</f>
+        <f t="shared" si="29"/>
         <v>67.010792351583319</v>
       </c>
     </row>
@@ -8841,27 +8853,27 @@
         <v>88.5</v>
       </c>
       <c r="C304">
-        <f>B304*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>1.5446163880149817</v>
       </c>
       <c r="E304">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C304))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>46.622668312248898</v>
       </c>
       <c r="F304">
-        <f>E304*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>0.81371906811397088</v>
       </c>
       <c r="H304">
-        <f>$B$4+$B$3*SIN(C304)-$B$3*COS(F304)</f>
+        <f t="shared" si="27"/>
         <v>128.31533513180437</v>
       </c>
       <c r="I304">
-        <f>ABS($C$136-H304)</f>
+        <f t="shared" si="28"/>
         <v>63.315335131804375</v>
       </c>
       <c r="J304">
-        <f>(90-B304)+E304</f>
+        <f t="shared" si="29"/>
         <v>48.122668312248898</v>
       </c>
     </row>
@@ -8870,27 +8882,27 @@
         <v>9</v>
       </c>
       <c r="C305">
-        <f>B305*PI()/180</f>
+        <f t="shared" si="24"/>
         <v>0.15707963267948966</v>
       </c>
       <c r="E305">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C305))-$B$2)/$B$3))</f>
+        <f t="shared" si="25"/>
         <v>-13.571873032035521</v>
       </c>
       <c r="F305">
-        <f>E305*PI()/180</f>
+        <f t="shared" si="26"/>
         <v>-0.23687387007164568</v>
       </c>
       <c r="H305">
-        <f>$B$4+$B$3*SIN(C305)-$B$3*COS(F305)</f>
+        <f t="shared" si="27"/>
         <v>0.93034779046506344</v>
       </c>
       <c r="I305">
-        <f>ABS($C$136-H305)</f>
+        <f t="shared" si="28"/>
         <v>64.069652209534937</v>
       </c>
       <c r="J305">
-        <f>(90-B305)+E305</f>
+        <f t="shared" si="29"/>
         <v>67.428126967964474</v>
       </c>
     </row>
@@ -8899,27 +8911,27 @@
         <v>89</v>
       </c>
       <c r="C306">
-        <f>B306*PI()/180</f>
+        <f t="shared" ref="C306:C337" si="30">B306*PI()/180</f>
         <v>1.5533430342749535</v>
       </c>
       <c r="E306">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C306))-$B$2)/$B$3))</f>
+        <f t="shared" ref="E306:E326" si="31">DEGREES(ASIN(($C$142-($B$3*COS($C306))-$B$2)/$B$3))</f>
         <v>47.355486309007333</v>
       </c>
       <c r="F306">
-        <f>E306*PI()/180</f>
+        <f t="shared" ref="F306:F337" si="32">E306*PI()/180</f>
         <v>0.82650915497527477</v>
       </c>
       <c r="H306">
-        <f>$B$4+$B$3*SIN(C306)-$B$3*COS(F306)</f>
+        <f t="shared" ref="H306:H326" si="33">$B$4+$B$3*SIN(C306)-$B$3*COS(F306)</f>
         <v>129.39251744928708</v>
       </c>
       <c r="I306">
-        <f>ABS($C$136-H306)</f>
+        <f t="shared" ref="I306:I337" si="34">ABS($C$136-H306)</f>
         <v>64.392517449287084</v>
       </c>
       <c r="J306">
-        <f>(90-B306)+E306</f>
+        <f t="shared" ref="J306:J326" si="35">(90-B306)+E306</f>
         <v>48.355486309007333</v>
       </c>
     </row>
@@ -8928,27 +8940,27 @@
         <v>8.5</v>
       </c>
       <c r="C307">
-        <f>B307*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>0.14835298641951802</v>
       </c>
       <c r="E307">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C307))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-13.650132337519683</v>
       </c>
       <c r="F307">
-        <f>E307*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.23823975262266836</v>
       </c>
       <c r="H307">
-        <f>$B$4+$B$3*SIN(C307)-$B$3*COS(F307)</f>
+        <f t="shared" si="33"/>
         <v>-6.9651164413926381E-3</v>
       </c>
       <c r="I307">
-        <f>ABS($C$136-H307)</f>
+        <f t="shared" si="34"/>
         <v>65.006965116441393</v>
       </c>
       <c r="J307">
-        <f>(90-B307)+E307</f>
+        <f t="shared" si="35"/>
         <v>67.849867662480321</v>
       </c>
     </row>
@@ -8957,27 +8969,27 @@
         <v>89.5</v>
       </c>
       <c r="C308">
-        <f>B308*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>1.562069680534925</v>
       </c>
       <c r="E308">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C308))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>48.09874036780473</v>
       </c>
       <c r="F308">
-        <f>E308*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>0.83948138548010087</v>
       </c>
       <c r="H308">
-        <f>$B$4+$B$3*SIN(C308)-$B$3*COS(F308)</f>
+        <f t="shared" si="33"/>
         <v>130.48891592163119</v>
       </c>
       <c r="I308">
-        <f>ABS($C$136-H308)</f>
+        <f t="shared" si="34"/>
         <v>65.48891592163119</v>
       </c>
       <c r="J308">
-        <f>(90-B308)+E308</f>
+        <f t="shared" si="35"/>
         <v>48.59874036780473</v>
       </c>
     </row>
@@ -8986,27 +8998,27 @@
         <v>8</v>
       </c>
       <c r="C309">
-        <f>B309*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>0.13962634015954636</v>
       </c>
       <c r="E309">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C309))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-13.723975375409573</v>
       </c>
       <c r="F309">
-        <f>E309*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.23952855676352189</v>
       </c>
       <c r="H309">
-        <f>$B$4+$B$3*SIN(C309)-$B$3*COS(F309)</f>
+        <f t="shared" si="33"/>
         <v>-0.94740848451718307</v>
       </c>
       <c r="I309">
-        <f>ABS($C$136-H309)</f>
+        <f t="shared" si="34"/>
         <v>65.947408484517183</v>
       </c>
       <c r="J309">
-        <f>(90-B309)+E309</f>
+        <f t="shared" si="35"/>
         <v>68.276024624590434</v>
       </c>
     </row>
@@ -9015,27 +9027,27 @@
         <v>90</v>
       </c>
       <c r="C310">
-        <f>B310*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="E310">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C310))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>48.852957214225619</v>
       </c>
       <c r="F310">
-        <f>E310*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>0.85264495272415386</v>
       </c>
       <c r="H310">
-        <f>$B$4+$B$3*SIN(C310)-$B$3*COS(F310)</f>
+        <f t="shared" si="33"/>
         <v>131.60566679786422</v>
       </c>
       <c r="I310">
-        <f>ABS($C$136-H310)</f>
+        <f t="shared" si="34"/>
         <v>66.605666797864217</v>
       </c>
       <c r="J310">
-        <f>(90-B310)+E310</f>
+        <f t="shared" si="35"/>
         <v>48.852957214225619</v>
       </c>
     </row>
@@ -9044,27 +9056,27 @@
         <v>7.5</v>
       </c>
       <c r="C311">
-        <f>B311*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>0.1308996938995747</v>
       </c>
       <c r="E311">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C311))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-13.7933924828267</v>
       </c>
       <c r="F311">
-        <f>E311*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24074011384516131</v>
       </c>
       <c r="H311">
-        <f>$B$4+$B$3*SIN(C311)-$B$3*COS(F311)</f>
+        <f t="shared" si="33"/>
         <v>-1.8909453550669468</v>
       </c>
       <c r="I311">
-        <f>ABS($C$136-H311)</f>
+        <f t="shared" si="34"/>
         <v>66.890945355066947</v>
       </c>
       <c r="J311">
-        <f>(90-B311)+E311</f>
+        <f t="shared" si="35"/>
         <v>68.706607517173296</v>
       </c>
     </row>
@@ -9073,27 +9085,27 @@
         <v>7</v>
       </c>
       <c r="C312">
-        <f>B312*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>0.12217304763960307</v>
       </c>
       <c r="E312">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C312))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-13.858374533006662</v>
       </c>
       <c r="F312">
-        <f>E312*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24187426457549782</v>
       </c>
       <c r="H312">
-        <f>$B$4+$B$3*SIN(C312)-$B$3*COS(F312)</f>
+        <f t="shared" si="33"/>
         <v>-2.8375365356166782</v>
       </c>
       <c r="I312">
-        <f>ABS($C$136-H312)</f>
+        <f t="shared" si="34"/>
         <v>67.837536535616678</v>
       </c>
       <c r="J312">
-        <f>(90-B312)+E312</f>
+        <f t="shared" si="35"/>
         <v>69.141625466993332</v>
       </c>
     </row>
@@ -9102,27 +9114,27 @@
         <v>6.5</v>
       </c>
       <c r="C313">
-        <f>B313*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>0.11344640137963143</v>
       </c>
       <c r="E313">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C313))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-13.918912944340725</v>
       </c>
       <c r="F313">
-        <f>E313*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24293085917720386</v>
       </c>
       <c r="H313">
-        <f>$B$4+$B$3*SIN(C313)-$B$3*COS(F313)</f>
+        <f t="shared" si="33"/>
         <v>-3.7871405842721231</v>
       </c>
       <c r="I313">
-        <f>ABS($C$136-H313)</f>
+        <f t="shared" si="34"/>
         <v>68.787140584272123</v>
       </c>
       <c r="J313">
-        <f>(90-B313)+E313</f>
+        <f t="shared" si="35"/>
         <v>69.581087055659282</v>
       </c>
     </row>
@@ -9131,27 +9143,27 @@
         <v>6</v>
       </c>
       <c r="C314">
-        <f>B314*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>0.10471975511965977</v>
       </c>
       <c r="E314">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C314))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-13.974999688910721</v>
       </c>
       <c r="F314">
-        <f>E314*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24390975753667535</v>
       </c>
       <c r="H314">
-        <f>$B$4+$B$3*SIN(C314)-$B$3*COS(F314)</f>
+        <f t="shared" si="33"/>
         <v>-4.7397137952688979</v>
       </c>
       <c r="I314">
-        <f>ABS($C$136-H314)</f>
+        <f t="shared" si="34"/>
         <v>69.739713795268898</v>
       </c>
       <c r="J314">
-        <f>(90-B314)+E314</f>
+        <f t="shared" si="35"/>
         <v>70.025000311089286</v>
       </c>
     </row>
@@ -9160,27 +9172,27 @@
         <v>5.5</v>
       </c>
       <c r="C315">
-        <f>B315*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>9.599310885968812E-2</v>
       </c>
       <c r="E315">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C315))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.02662730050273</v>
       </c>
       <c r="F315">
-        <f>E315*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24481082934389672</v>
       </c>
       <c r="H315">
-        <f>$B$4+$B$3*SIN(C315)-$B$3*COS(F315)</f>
+        <f t="shared" si="33"/>
         <v>-5.695210185750156</v>
       </c>
       <c r="I315">
-        <f>ABS($C$136-H315)</f>
+        <f t="shared" si="34"/>
         <v>70.695210185750156</v>
       </c>
       <c r="J315">
-        <f>(90-B315)+E315</f>
+        <f t="shared" si="35"/>
         <v>70.473372699497276</v>
       </c>
     </row>
@@ -9189,27 +9201,27 @@
         <v>5</v>
       </c>
       <c r="C316">
-        <f>B316*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>8.7266462599716474E-2</v>
       </c>
       <c r="E316">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C316))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.073788882085525</v>
       </c>
       <c r="F316">
-        <f>E316*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24563395422296438</v>
       </c>
       <c r="H316">
-        <f>$B$4+$B$3*SIN(C316)-$B$3*COS(F316)</f>
+        <f t="shared" si="33"/>
         <v>-6.653581483805624</v>
       </c>
       <c r="I316">
-        <f>ABS($C$136-H316)</f>
+        <f t="shared" si="34"/>
         <v>71.653581483805624</v>
       </c>
       <c r="J316">
-        <f>(90-B316)+E316</f>
+        <f t="shared" si="35"/>
         <v>70.926211117914477</v>
       </c>
     </row>
@@ -9218,27 +9230,27 @@
         <v>4.5</v>
       </c>
       <c r="C317">
-        <f>B317*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>7.8539816339744828E-2</v>
       </c>
       <c r="E317">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C317))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.116478112740964</v>
       </c>
       <c r="F317">
-        <f>E317*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24637902185304511</v>
       </c>
       <c r="H317">
-        <f>$B$4+$B$3*SIN(C317)-$B$3*COS(F317)</f>
+        <f t="shared" si="33"/>
         <v>-7.6147771178038113</v>
       </c>
       <c r="I317">
-        <f>ABS($C$136-H317)</f>
+        <f t="shared" si="34"/>
         <v>72.614777117803811</v>
       </c>
       <c r="J317">
-        <f>(90-B317)+E317</f>
+        <f t="shared" si="35"/>
         <v>71.383521887259036</v>
       </c>
     </row>
@@ -9247,27 +9259,27 @@
         <v>4</v>
       </c>
       <c r="C318">
-        <f>B318*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>6.9813170079773182E-2</v>
       </c>
       <c r="E318">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C318))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.154689254033931</v>
       </c>
       <c r="F318">
-        <f>E318*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24704593207955214</v>
       </c>
       <c r="H318">
-        <f>$B$4+$B$3*SIN(C318)-$B$3*COS(F318)</f>
+        <f t="shared" si="33"/>
         <v>-8.5787442070470235</v>
       </c>
       <c r="I318">
-        <f>ABS($C$136-H318)</f>
+        <f t="shared" si="34"/>
         <v>73.578744207047023</v>
       </c>
       <c r="J318">
-        <f>(90-B318)+E318</f>
+        <f t="shared" si="35"/>
         <v>71.845310745966074</v>
       </c>
     </row>
@@ -9276,27 +9288,27 @@
         <v>3.5</v>
       </c>
       <c r="C319">
-        <f>B319*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>6.1086523819801536E-2</v>
       </c>
       <c r="E319">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C319))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.188417155810749</v>
       </c>
       <c r="F319">
-        <f>E319*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24763459501534688</v>
       </c>
       <c r="H319">
-        <f>$B$4+$B$3*SIN(C319)-$B$3*COS(F319)</f>
+        <f t="shared" si="33"/>
         <v>-9.5454275537764772</v>
       </c>
       <c r="I319">
-        <f>ABS($C$136-H319)</f>
+        <f t="shared" si="34"/>
         <v>74.545427553776477</v>
       </c>
       <c r="J319">
-        <f>(90-B319)+E319</f>
+        <f t="shared" si="35"/>
         <v>72.311582844189246</v>
       </c>
     </row>
@@ -9305,27 +9317,27 @@
         <v>3</v>
       </c>
       <c r="C320">
-        <f>B320*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>5.2359877559829883E-2</v>
       </c>
       <c r="E320">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C320))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.217657261415633</v>
       </c>
       <c r="F320">
-        <f>E320*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24814493113178296</v>
       </c>
       <c r="H320">
-        <f>$B$4+$B$3*SIN(C320)-$B$3*COS(F320)</f>
+        <f t="shared" si="33"/>
         <v>-10.514769636552572</v>
       </c>
       <c r="I320">
-        <f>ABS($C$136-H320)</f>
+        <f t="shared" si="34"/>
         <v>75.514769636552572</v>
       </c>
       <c r="J320">
-        <f>(90-B320)+E320</f>
+        <f t="shared" si="35"/>
         <v>72.782342738584362</v>
       </c>
     </row>
@@ -9334,27 +9346,27 @@
         <v>2.5</v>
       </c>
       <c r="C321">
-        <f>B321*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>4.3633231299858237E-2</v>
       </c>
       <c r="E321">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C321))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.242405612315872</v>
       </c>
       <c r="F321">
-        <f>E321*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24857687133943102</v>
       </c>
       <c r="H321">
-        <f>$B$4+$B$3*SIN(C321)-$B$3*COS(F321)</f>
+        <f t="shared" si="33"/>
         <v>-11.486710605032329</v>
       </c>
       <c r="I321">
-        <f>ABS($C$136-H321)</f>
+        <f t="shared" si="34"/>
         <v>76.486710605032329</v>
       </c>
       <c r="J321">
-        <f>(90-B321)+E321</f>
+        <f t="shared" si="35"/>
         <v>73.257594387684122</v>
       </c>
     </row>
@@ -9363,27 +9375,27 @@
         <v>2</v>
       </c>
       <c r="C322">
-        <f>B322*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>3.4906585039886591E-2</v>
       </c>
       <c r="E322">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C322))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.262658852127466</v>
       </c>
       <c r="F322">
-        <f>E322*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24893035705833932</v>
       </c>
       <c r="H322">
-        <f>$B$4+$B$3*SIN(C322)-$B$3*COS(F322)</f>
+        <f t="shared" si="33"/>
         <v>-12.461188276164918</v>
       </c>
       <c r="I322">
-        <f>ABS($C$136-H322)</f>
+        <f t="shared" si="34"/>
         <v>77.461188276164918</v>
       </c>
       <c r="J322">
-        <f>(90-B322)+E322</f>
+        <f t="shared" si="35"/>
         <v>73.737341147872542</v>
       </c>
     </row>
@@ -9392,27 +9404,27 @@
         <v>1.5</v>
       </c>
       <c r="C323">
-        <f>B323*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>2.6179938779914941E-2</v>
       </c>
       <c r="E323">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C323))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.27841423003389</v>
       </c>
       <c r="F323">
-        <f>E323*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24920534027770241</v>
       </c>
       <c r="H323">
-        <f>$B$4+$B$3*SIN(C323)-$B$3*COS(F323)</f>
+        <f t="shared" si="33"/>
         <v>-13.438138131821503</v>
       </c>
       <c r="I323">
-        <f>ABS($C$136-H323)</f>
+        <f t="shared" si="34"/>
         <v>78.438138131821503</v>
       </c>
       <c r="J323">
-        <f>(90-B323)+E323</f>
+        <f t="shared" si="35"/>
         <v>74.221585769966111</v>
       </c>
     </row>
@@ -9421,27 +9433,27 @@
         <v>1</v>
       </c>
       <c r="C324">
-        <f>B324*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>1.7453292519943295E-2</v>
       </c>
       <c r="E324">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C324))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.289669603591772</v>
       </c>
       <c r="F324">
-        <f>E324*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24940178360482937</v>
       </c>
       <c r="H324">
-        <f>$B$4+$B$3*SIN(C324)-$B$3*COS(F324)</f>
+        <f t="shared" si="33"/>
         <v>-14.417493317875255</v>
       </c>
       <c r="I324">
-        <f>ABS($C$136-H324)</f>
+        <f t="shared" si="34"/>
         <v>79.417493317875255</v>
       </c>
       <c r="J324">
-        <f>(90-B324)+E324</f>
+        <f t="shared" si="35"/>
         <v>74.710330396408224</v>
       </c>
     </row>
@@ -9450,27 +9462,27 @@
         <v>0.5</v>
       </c>
       <c r="C325">
-        <f>B325*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>8.7266462599716477E-3</v>
       </c>
       <c r="E325">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C325))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.296423440918447</v>
       </c>
       <c r="F325">
-        <f>E325*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.24951966030332393</v>
       </c>
       <c r="H325">
-        <f>$B$4+$B$3*SIN(C325)-$B$3*COS(F325)</f>
+        <f t="shared" si="33"/>
         <v>-15.39918464474276</v>
       </c>
       <c r="I325">
-        <f>ABS($C$136-H325)</f>
+        <f t="shared" si="34"/>
         <v>80.39918464474276</v>
       </c>
       <c r="J325">
-        <f>(90-B325)+E325</f>
+        <f t="shared" si="35"/>
         <v>75.203576559081554</v>
       </c>
     </row>
@@ -9479,27 +9491,27 @@
         <v>0</v>
       </c>
       <c r="C326">
-        <f>B326*PI()/180</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="E326">
-        <f>DEGREES(ASIN(($C$142-($B$3*COS($C326))-$B$2)/$B$3))</f>
+        <f t="shared" si="31"/>
         <v>-14.298674822257359</v>
       </c>
       <c r="F326">
-        <f>E326*PI()/180</f>
+        <f t="shared" si="32"/>
         <v>-0.2495589543204059</v>
       </c>
       <c r="H326">
-        <f>$B$4+$B$3*SIN(C326)-$B$3*COS(F326)</f>
+        <f t="shared" si="33"/>
         <v>-16.383140589396632</v>
       </c>
       <c r="I326">
-        <f>ABS($C$136-H326)</f>
+        <f t="shared" si="34"/>
         <v>81.383140589396632</v>
       </c>
       <c r="J326">
-        <f>(90-B326)+E326</f>
+        <f t="shared" si="35"/>
         <v>75.701325177742646</v>
       </c>
     </row>
